--- a/Covid_19_Dataset_and_References/References/97.xlsx
+++ b/Covid_19_Dataset_and_References/References/97.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="132">
   <si>
     <t>Doi</t>
   </si>
@@ -484,6 +484,172 @@
   </si>
   <si>
     <t>[Ivan Yu Jun%Seah%NULL%1,   Danielle E.%Anderson%NULL%1,   Adrian Eng Zheng%Kang%NULL%1,   Linfa%Wang%NULL%1,   Pooja%Rao%NULL%1,   Barnaby Edward%Young%NULL%0,   David Chien%Lye%NULL%1,   Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 2019 novel coronavirus disease (COVID-19) caused by severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) has spread globally, while the routes of transmission of this virus are still controversial.
+ We enrolled 33 patients, without any ocular manifestation, with their ocular surface swabs collected for virus detection.
+ RNA was detected strong positive in samples of both eyes from two patients.
+ Therefore, SARS-CoV-2 may exist in the normal ocular surface of COVID-19 patients, suggesting that this virus might be spread through conjunctival contact.
+</t>
+  </si>
+  <si>
+    <t>[Hua-Tao%Xie%NULL%1,    Shi-Yun%Jiang%NULL%1,    Kang-Kang%Xu%NULL%1,    Xin%Liu%NULL%1,    Bing%Xu%NULL%1,    Lin%Wang%lin_wang@hust.edu.cn%0,    Ming-Chang%Zhang%mingchangzhang@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+Since there are few reports on the ocular involvement of coronavirus disease 2019 (COVID-19) patients, this study aimed to assess the presence of severe acute respiratory syndrome Coronavirus-2 (SARS-CoV-2) in the tears of patients with COVID-19.
+Methods
+id="Par2"&gt;In this prospective case series, nasopharyngeal and tear sampling of 43 patients with severe COVID-19 were performed.
+ The quantitative reverse transcription polymerase chain reaction (RT-PCR) was conducted to detect SARS-CoV-2. Ocular and systemic signs and symptoms were recorded from their medical history.
+Results
+id="Par3"&gt;The mean age of patients was 56 ± 13 years.
+ The average disease time from initiation of symptoms was 3.27 days, range: 1–7 days.
+ Forty-one patients (95.3%) had fever at the time of sampling.
+ Only one patient had conjunctivitis.
+ Thirty (69.8%) nasopharyngeal and three (7%) tear samples were positive for SARS-CoV-2. The result of tear sample was positive in the patient with conjunctivitis.
+ All patients with positive tear RT-PCR results had positive nasopharyngeal RT-PCR results.
+Conclusions
+id="Par4"&gt;Ocular manifestation was rare in this series of severe COVID-19 patients, however, 7% of the patients had viral RNA in their conjunctival secretions.
+ Therefore, possibility of ocular transmission should be considered even in the absence of ocular manifestations.
+</t>
+  </si>
+  <si>
+    <t>[Saeed%Karimi%NULL%1,    Amir%Arabi%amir_arab_91@yahoo.com%1,    Toktam%Shahraki%NULL%2,    Toktam%Shahraki%NULL%0,    Sare%Safi%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+A recent increase in children admitted with hypotensive shock and fever in the context of the COVID-19 outbreak requires an urgent characterization and assessment of the involvement of SARS-CoV-2 infection.
+ This is a case series performed at 4 academic tertiary care centers in Paris of all the children admitted to the pediatric intensive care unit (PICU) with shock, fever and suspected SARS-CoV-2 infection between April 15th and April 27th, 2020.
+Results
+id="Par2"&gt;20 critically ill children admitted for shock had an acute myocarditis (left ventricular ejection fraction, 35% (25–55); troponin, 269 ng/mL (31–4607)), and arterial hypotension with mainly vasoplegic clinical presentation.
+ The first symptoms before PICU admission were intense abdominal pain and fever for 6 days (1–10).
+ All children had highly elevated C-reactive protein (&amp;gt; 94 mg/L) and procalcitonin (&amp;gt; 1.6 ng/mL) without microbial cause.
+ At least one feature of Kawasaki disease was found in all children (fever, n = 20, skin rash, n = 10; conjunctivitis, n = 6; cheilitis, n = 5; adenitis, n = 2), but none had the typical form.
+ SARS-CoV-2 PCR and serology were positive for 10 and 15 children, respectively.
+ One child had both negative SARS-CoV-2 PCR and serology, but had a typical SARS-CoV-2 chest tomography scan.
+ All children but one needed an inotropic/vasoactive drug support (epinephrine, n = 12; milrinone, n = 10; dobutamine, n = 6, norepinephrine, n = 4) and 8 were intubated.
+ All children received intravenous immunoglobulin (2 g per kilogram) with adjuvant corticosteroids (n = 2), IL 1 receptor antagonist (n = 1) or a monoclonal antibody against IL-6 receptor (n = 1).
+ All children survived and were afebrile with a full left ventricular function recovery at PICU discharge.
+Conclusions
+id="Par3"&gt;Acute myocarditis with intense systemic inflammation and atypical Kawasaki disease is an emerging severe pediatric disease following SARS-CoV-2 infection.
+ Early recognition of this disease is needed and referral to an expert center is recommended.
+ A delayed and inappropriate host immunological response is suspected.
+ While underlying mechanisms remain unclear, further investigations are required to target an optimal treatment.
+</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%2,    Julie%Starck%NULL%1,    Michael%Levy%NULL%1,    Clémence%Marais%NULL%1,    Judith%Chareyre%NULL%1,    Diala%Khraiche%NULL%1,    Marianne%Leruez-Ville%NULL%1,    Pierre%Quartier%NULL%1,    Pierre Louis%Léger%NULL%1,    Guillaume%Geslain%NULL%1,    Nada%Semaan%NULL%1,    Florence%Moulin%NULL%1,    Matthieu%Bendavid%NULL%1,    Sandrine%Jean%NULL%1,    Géraldine%Poncelet%NULL%1,    Sylvain%Renolleau%NULL%1,    Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+Since there are few reports on the ocular involvement of coronavirus disease 2019 (COVID-19) patients, this study aimed to assess the presence of severe acute respiratory syndrome Coronavirus-2 (SARS-CoV-2) in the tears of patients with COVID-19.
+Methods
+In this prospective case series, nasopharyngeal and tear sampling of 43 patients with severe COVID-19 were performed.
+ The quantitative reverse transcription polymerase chain reaction (RT-PCR) was conducted to detect SARS-CoV-2. Ocular and systemic signs and symptoms were recorded from their medical history.
+Results
+id="Par3"&gt;The mean age of patients was 56 ± 13 years.
+ The average disease time from initiation of symptoms was 3.27 days, range: 1–7 days.
+ Forty-one patients (95.3%) had fever at the time of sampling.
+ Only one patient had conjunctivitis.
+ Thirty (69.8%) nasopharyngeal and three (7%) tear samples were positive for SARS-CoV-2. The result of tear sample was positive in the patient with conjunctivitis.
+ All patients with positive tear RT-PCR results had positive nasopharyngeal RT-PCR results.
+Conclusions
+id="Par4"&gt;Ocular manifestation was rare in this series of severe COVID-19 patients, however, 7% of the patients had viral RNA in their conjunctival secretions.
+ Therefore, possibility of ocular transmission should be considered even in the absence of ocular manifestations.
+</t>
+  </si>
+  <si>
+    <t>[Saeed%Karimi%NULL%1,     Amir%Arabi%amir_arab_91@yahoo.com%1,     Toktam%Shahraki%NULL%2,     Toktam%Shahraki%NULL%0,     Sare%Safi%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+A recent increase in children admitted with hypotensive shock and fever in the context of the COVID-19 outbreak requires an urgent characterization and assessment of the involvement of SARS-CoV-2 infection.
+ This is a case series performed at 4 academic tertiary care centers in Paris of all the children admitted to the pediatric intensive care unit (PICU) with shock, fever and suspected SARS-CoV-2 infection between April 15th and April 27th, 2020.
+Results
+20 critically ill children admitted for shock had an acute myocarditis (left ventricular ejection fraction, 35% (25–55); troponin, 269 ng/mL (31–4607)), and arterial hypotension with mainly vasoplegic clinical presentation.
+ The first symptoms before PICU admission were intense abdominal pain and fever for 6 days (1–10).
+ All children had highly elevated C-reactive protein (&amp;gt; 94 mg/L) and procalcitonin (&amp;gt; 1.6 ng/mL) without microbial cause.
+ At least one feature of Kawasaki disease was found in all children (fever, n = 20, skin rash, n = 10; conjunctivitis, n = 6; cheilitis, n = 5; adenitis, n = 2), but none had the typical form.
+ SARS-CoV-2 PCR and serology were positive for 10 and 15 children, respectively.
+ One child had both negative SARS-CoV-2 PCR and serology, but had a typical SARS-CoV-2 chest tomography scan.
+ All children but one needed an inotropic/vasoactive drug support (epinephrine, n = 12; milrinone, n = 10; dobutamine, n = 6, norepinephrine, n = 4) and 8 were intubated.
+ All children received intravenous immunoglobulin (2 g per kilogram) with adjuvant corticosteroids (n = 2), IL 1 receptor antagonist (n = 1) or a monoclonal antibody against IL-6 receptor (n = 1).
+ All children survived and were afebrile with a full left ventricular function recovery at PICU discharge.
+Conclusions
+id="Par3"&gt;Acute myocarditis with intense systemic inflammation and atypical Kawasaki disease is an emerging severe pediatric disease following SARS-CoV-2 infection.
+ Early recognition of this disease is needed and referral to an expert center is recommended.
+ A delayed and inappropriate host immunological response is suspected.
+ While underlying mechanisms remain unclear, further investigations are required to target an optimal treatment.
+</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%2,     Julie%Starck%NULL%1,     Michael%Levy%NULL%1,     Clémence%Marais%NULL%1,     Judith%Chareyre%NULL%1,     Diala%Khraiche%NULL%1,     Marianne%Leruez-Ville%NULL%1,     Pierre%Quartier%NULL%1,     Pierre Louis%Léger%NULL%1,     Guillaume%Geslain%NULL%1,     Nada%Semaan%NULL%1,     Florence%Moulin%NULL%1,     Matthieu%Bendavid%NULL%1,     Sandrine%Jean%NULL%1,     Géraldine%Poncelet%NULL%1,     Sylvain%Renolleau%NULL%1,     Mehdi%Oualha%mehdi.oualha@aphp.fr%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+Since there are few reports on the ocular involvement of coronavirus disease 2019 (COVID-19) patients, this study aimed to assess the presence of severe acute respiratory syndrome Coronavirus-2 (SARS-CoV-2) in the tears of patients with COVID-19.
+Methods
+In this prospective case series, nasopharyngeal and tear sampling of 43 patients with severe COVID-19 were performed.
+ The quantitative reverse transcription polymerase chain reaction (RT-PCR) was conducted to detect SARS-CoV-2. Ocular and systemic signs and symptoms were recorded from their medical history.
+Results
+The mean age of patients was 56 ± 13 years.
+ The average disease time from initiation of symptoms was 3.27 days, range: 1–7 days.
+ Forty-one patients (95.3%) had fever at the time of sampling.
+ Only one patient had conjunctivitis.
+ Thirty (69.8%) nasopharyngeal and three (7%) tear samples were positive for SARS-CoV-2. The result of tear sample was positive in the patient with conjunctivitis.
+ All patients with positive tear RT-PCR results had positive nasopharyngeal RT-PCR results.
+Conclusions
+id="Par4"&gt;Ocular manifestation was rare in this series of severe COVID-19 patients, however, 7% of the patients had viral RNA in their conjunctival secretions.
+ Therefore, possibility of ocular transmission should be considered even in the absence of ocular manifestations.
+</t>
+  </si>
+  <si>
+    <t>[Saeed%Karimi%NULL%1,      Amir%Arabi%amir_arab_91@yahoo.com%1,      Toktam%Shahraki%NULL%2,      Toktam%Shahraki%NULL%0,      Sare%Safi%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+A recent increase in children admitted with hypotensive shock and fever in the context of the COVID-19 outbreak requires an urgent characterization and assessment of the involvement of SARS-CoV-2 infection.
+ This is a case series performed at 4 academic tertiary care centers in Paris of all the children admitted to the pediatric intensive care unit (PICU) with shock, fever and suspected SARS-CoV-2 infection between April 15th and April 27th, 2020.
+Results
+20 critically ill children admitted for shock had an acute myocarditis (left ventricular ejection fraction, 35% (25–55); troponin, 269 ng/mL (31–4607)), and arterial hypotension with mainly vasoplegic clinical presentation.
+ The first symptoms before PICU admission were intense abdominal pain and fever for 6 days (1–10).
+ All children had highly elevated C-reactive protein (&amp;gt; 94 mg/L) and procalcitonin (&amp;gt; 1.6 ng/mL) without microbial cause.
+ At least one feature of Kawasaki disease was found in all children (fever, n = 20, skin rash, n = 10; conjunctivitis, n = 6; cheilitis, n = 5; adenitis, n = 2), but none had the typical form.
+ SARS-CoV-2 PCR and serology were positive for 10 and 15 children, respectively.
+ One child had both negative SARS-CoV-2 PCR and serology, but had a typical SARS-CoV-2 chest tomography scan.
+ All children but one needed an inotropic/vasoactive drug support (epinephrine, n = 12; milrinone, n = 10; dobutamine, n = 6, norepinephrine, n = 4) and 8 were intubated.
+ All children received intravenous immunoglobulin (2 g per kilogram) with adjuvant corticosteroids (n = 2), IL 1 receptor antagonist (n = 1) or a monoclonal antibody against IL-6 receptor (n = 1).
+ All children survived and were afebrile with a full left ventricular function recovery at PICU discharge.
+Conclusions
+Acute myocarditis with intense systemic inflammation and atypical Kawasaki disease is an emerging severe pediatric disease following SARS-CoV-2 infection.
+ Early recognition of this disease is needed and referral to an expert center is recommended.
+ A delayed and inappropriate host immunological response is suspected.
+ While underlying mechanisms remain unclear, further investigations are required to target an optimal treatment.
+</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%2,      Julie%Starck%NULL%1,      Michael%Levy%NULL%1,      Clémence%Marais%NULL%1,      Judith%Chareyre%NULL%1,      Diala%Khraiche%NULL%1,      Marianne%Leruez-Ville%NULL%1,      Pierre%Quartier%NULL%1,      Pierre Louis%Léger%NULL%1,      Guillaume%Geslain%NULL%1,      Nada%Semaan%NULL%1,      Florence%Moulin%NULL%1,      Matthieu%Bendavid%NULL%1,      Sandrine%Jean%NULL%1,      Géraldine%Poncelet%NULL%1,      Sylvain%Renolleau%NULL%1,      Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+Since there are few reports on the ocular involvement of coronavirus disease 2019 (COVID-19) patients, this study aimed to assess the presence of severe acute respiratory syndrome Coronavirus-2 (SARS-CoV-2) in the tears of patients with COVID-19.
+Methods
+In this prospective case series, nasopharyngeal and tear sampling of 43 patients with severe COVID-19 were performed.
+ The quantitative reverse transcription polymerase chain reaction (RT-PCR) was conducted to detect SARS-CoV-2. Ocular and systemic signs and symptoms were recorded from their medical history.
+Results
+The mean age of patients was 56 ± 13 years.
+ The average disease time from initiation of symptoms was 3.27 days, range: 1–7 days.
+ Forty-one patients (95.3%) had fever at the time of sampling.
+ Only one patient had conjunctivitis.
+ Thirty (69.8%) nasopharyngeal and three (7%) tear samples were positive for SARS-CoV-2. The result of tear sample was positive in the patient with conjunctivitis.
+ All patients with positive tear RT-PCR results had positive nasopharyngeal RT-PCR results.
+Conclusions
+Ocular manifestation was rare in this series of severe COVID-19 patients, however, 7% of the patients had viral RNA in their conjunctival secretions.
+ Therefore, possibility of ocular transmission should be considered even in the absence of ocular manifestations.
+</t>
+  </si>
+  <si>
+    <t>[Saeed%Karimi%NULL%1,       Amir%Arabi%amir_arab_91@yahoo.com%1,       Toktam%Shahraki%NULL%2,       Toktam%Shahraki%NULL%0,       Sare%Safi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -939,10 +1105,10 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1043,10 +1209,10 @@
         <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1069,10 +1235,10 @@
         <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>

--- a/Covid_19_Dataset_and_References/References/97.xlsx
+++ b/Covid_19_Dataset_and_References/References/97.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="116">
   <si>
     <t>Doi</t>
   </si>
@@ -484,172 +484,6 @@
   </si>
   <si>
     <t>[Ivan Yu Jun%Seah%NULL%1,   Danielle E.%Anderson%NULL%1,   Adrian Eng Zheng%Kang%NULL%1,   Linfa%Wang%NULL%1,   Pooja%Rao%NULL%1,   Barnaby Edward%Young%NULL%0,   David Chien%Lye%NULL%1,   Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The 2019 novel coronavirus disease (COVID-19) caused by severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) has spread globally, while the routes of transmission of this virus are still controversial.
- We enrolled 33 patients, without any ocular manifestation, with their ocular surface swabs collected for virus detection.
- RNA was detected strong positive in samples of both eyes from two patients.
- Therefore, SARS-CoV-2 may exist in the normal ocular surface of COVID-19 patients, suggesting that this virus might be spread through conjunctival contact.
-</t>
-  </si>
-  <si>
-    <t>[Hua-Tao%Xie%NULL%1,    Shi-Yun%Jiang%NULL%1,    Kang-Kang%Xu%NULL%1,    Xin%Liu%NULL%1,    Bing%Xu%NULL%1,    Lin%Wang%lin_wang@hust.edu.cn%0,    Ming-Chang%Zhang%mingchangzhang@hotmail.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-Since there are few reports on the ocular involvement of coronavirus disease 2019 (COVID-19) patients, this study aimed to assess the presence of severe acute respiratory syndrome Coronavirus-2 (SARS-CoV-2) in the tears of patients with COVID-19.
-Methods
-id="Par2"&gt;In this prospective case series, nasopharyngeal and tear sampling of 43 patients with severe COVID-19 were performed.
- The quantitative reverse transcription polymerase chain reaction (RT-PCR) was conducted to detect SARS-CoV-2. Ocular and systemic signs and symptoms were recorded from their medical history.
-Results
-id="Par3"&gt;The mean age of patients was 56 ± 13 years.
- The average disease time from initiation of symptoms was 3.27 days, range: 1–7 days.
- Forty-one patients (95.3%) had fever at the time of sampling.
- Only one patient had conjunctivitis.
- Thirty (69.8%) nasopharyngeal and three (7%) tear samples were positive for SARS-CoV-2. The result of tear sample was positive in the patient with conjunctivitis.
- All patients with positive tear RT-PCR results had positive nasopharyngeal RT-PCR results.
-Conclusions
-id="Par4"&gt;Ocular manifestation was rare in this series of severe COVID-19 patients, however, 7% of the patients had viral RNA in their conjunctival secretions.
- Therefore, possibility of ocular transmission should be considered even in the absence of ocular manifestations.
-</t>
-  </si>
-  <si>
-    <t>[Saeed%Karimi%NULL%1,    Amir%Arabi%amir_arab_91@yahoo.com%1,    Toktam%Shahraki%NULL%2,    Toktam%Shahraki%NULL%0,    Sare%Safi%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-A recent increase in children admitted with hypotensive shock and fever in the context of the COVID-19 outbreak requires an urgent characterization and assessment of the involvement of SARS-CoV-2 infection.
- This is a case series performed at 4 academic tertiary care centers in Paris of all the children admitted to the pediatric intensive care unit (PICU) with shock, fever and suspected SARS-CoV-2 infection between April 15th and April 27th, 2020.
-Results
-id="Par2"&gt;20 critically ill children admitted for shock had an acute myocarditis (left ventricular ejection fraction, 35% (25–55); troponin, 269 ng/mL (31–4607)), and arterial hypotension with mainly vasoplegic clinical presentation.
- The first symptoms before PICU admission were intense abdominal pain and fever for 6 days (1–10).
- All children had highly elevated C-reactive protein (&amp;gt; 94 mg/L) and procalcitonin (&amp;gt; 1.6 ng/mL) without microbial cause.
- At least one feature of Kawasaki disease was found in all children (fever, n = 20, skin rash, n = 10; conjunctivitis, n = 6; cheilitis, n = 5; adenitis, n = 2), but none had the typical form.
- SARS-CoV-2 PCR and serology were positive for 10 and 15 children, respectively.
- One child had both negative SARS-CoV-2 PCR and serology, but had a typical SARS-CoV-2 chest tomography scan.
- All children but one needed an inotropic/vasoactive drug support (epinephrine, n = 12; milrinone, n = 10; dobutamine, n = 6, norepinephrine, n = 4) and 8 were intubated.
- All children received intravenous immunoglobulin (2 g per kilogram) with adjuvant corticosteroids (n = 2), IL 1 receptor antagonist (n = 1) or a monoclonal antibody against IL-6 receptor (n = 1).
- All children survived and were afebrile with a full left ventricular function recovery at PICU discharge.
-Conclusions
-id="Par3"&gt;Acute myocarditis with intense systemic inflammation and atypical Kawasaki disease is an emerging severe pediatric disease following SARS-CoV-2 infection.
- Early recognition of this disease is needed and referral to an expert center is recommended.
- A delayed and inappropriate host immunological response is suspected.
- While underlying mechanisms remain unclear, further investigations are required to target an optimal treatment.
-</t>
-  </si>
-  <si>
-    <t>[Marion%Grimaud%NULL%2,    Julie%Starck%NULL%1,    Michael%Levy%NULL%1,    Clémence%Marais%NULL%1,    Judith%Chareyre%NULL%1,    Diala%Khraiche%NULL%1,    Marianne%Leruez-Ville%NULL%1,    Pierre%Quartier%NULL%1,    Pierre Louis%Léger%NULL%1,    Guillaume%Geslain%NULL%1,    Nada%Semaan%NULL%1,    Florence%Moulin%NULL%1,    Matthieu%Bendavid%NULL%1,    Sandrine%Jean%NULL%1,    Géraldine%Poncelet%NULL%1,    Sylvain%Renolleau%NULL%1,    Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-Since there are few reports on the ocular involvement of coronavirus disease 2019 (COVID-19) patients, this study aimed to assess the presence of severe acute respiratory syndrome Coronavirus-2 (SARS-CoV-2) in the tears of patients with COVID-19.
-Methods
-In this prospective case series, nasopharyngeal and tear sampling of 43 patients with severe COVID-19 were performed.
- The quantitative reverse transcription polymerase chain reaction (RT-PCR) was conducted to detect SARS-CoV-2. Ocular and systemic signs and symptoms were recorded from their medical history.
-Results
-id="Par3"&gt;The mean age of patients was 56 ± 13 years.
- The average disease time from initiation of symptoms was 3.27 days, range: 1–7 days.
- Forty-one patients (95.3%) had fever at the time of sampling.
- Only one patient had conjunctivitis.
- Thirty (69.8%) nasopharyngeal and three (7%) tear samples were positive for SARS-CoV-2. The result of tear sample was positive in the patient with conjunctivitis.
- All patients with positive tear RT-PCR results had positive nasopharyngeal RT-PCR results.
-Conclusions
-id="Par4"&gt;Ocular manifestation was rare in this series of severe COVID-19 patients, however, 7% of the patients had viral RNA in their conjunctival secretions.
- Therefore, possibility of ocular transmission should be considered even in the absence of ocular manifestations.
-</t>
-  </si>
-  <si>
-    <t>[Saeed%Karimi%NULL%1,     Amir%Arabi%amir_arab_91@yahoo.com%1,     Toktam%Shahraki%NULL%2,     Toktam%Shahraki%NULL%0,     Sare%Safi%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-A recent increase in children admitted with hypotensive shock and fever in the context of the COVID-19 outbreak requires an urgent characterization and assessment of the involvement of SARS-CoV-2 infection.
- This is a case series performed at 4 academic tertiary care centers in Paris of all the children admitted to the pediatric intensive care unit (PICU) with shock, fever and suspected SARS-CoV-2 infection between April 15th and April 27th, 2020.
-Results
-20 critically ill children admitted for shock had an acute myocarditis (left ventricular ejection fraction, 35% (25–55); troponin, 269 ng/mL (31–4607)), and arterial hypotension with mainly vasoplegic clinical presentation.
- The first symptoms before PICU admission were intense abdominal pain and fever for 6 days (1–10).
- All children had highly elevated C-reactive protein (&amp;gt; 94 mg/L) and procalcitonin (&amp;gt; 1.6 ng/mL) without microbial cause.
- At least one feature of Kawasaki disease was found in all children (fever, n = 20, skin rash, n = 10; conjunctivitis, n = 6; cheilitis, n = 5; adenitis, n = 2), but none had the typical form.
- SARS-CoV-2 PCR and serology were positive for 10 and 15 children, respectively.
- One child had both negative SARS-CoV-2 PCR and serology, but had a typical SARS-CoV-2 chest tomography scan.
- All children but one needed an inotropic/vasoactive drug support (epinephrine, n = 12; milrinone, n = 10; dobutamine, n = 6, norepinephrine, n = 4) and 8 were intubated.
- All children received intravenous immunoglobulin (2 g per kilogram) with adjuvant corticosteroids (n = 2), IL 1 receptor antagonist (n = 1) or a monoclonal antibody against IL-6 receptor (n = 1).
- All children survived and were afebrile with a full left ventricular function recovery at PICU discharge.
-Conclusions
-id="Par3"&gt;Acute myocarditis with intense systemic inflammation and atypical Kawasaki disease is an emerging severe pediatric disease following SARS-CoV-2 infection.
- Early recognition of this disease is needed and referral to an expert center is recommended.
- A delayed and inappropriate host immunological response is suspected.
- While underlying mechanisms remain unclear, further investigations are required to target an optimal treatment.
-</t>
-  </si>
-  <si>
-    <t>[Marion%Grimaud%NULL%2,     Julie%Starck%NULL%1,     Michael%Levy%NULL%1,     Clémence%Marais%NULL%1,     Judith%Chareyre%NULL%1,     Diala%Khraiche%NULL%1,     Marianne%Leruez-Ville%NULL%1,     Pierre%Quartier%NULL%1,     Pierre Louis%Léger%NULL%1,     Guillaume%Geslain%NULL%1,     Nada%Semaan%NULL%1,     Florence%Moulin%NULL%1,     Matthieu%Bendavid%NULL%1,     Sandrine%Jean%NULL%1,     Géraldine%Poncelet%NULL%1,     Sylvain%Renolleau%NULL%1,     Mehdi%Oualha%mehdi.oualha@aphp.fr%2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-Since there are few reports on the ocular involvement of coronavirus disease 2019 (COVID-19) patients, this study aimed to assess the presence of severe acute respiratory syndrome Coronavirus-2 (SARS-CoV-2) in the tears of patients with COVID-19.
-Methods
-In this prospective case series, nasopharyngeal and tear sampling of 43 patients with severe COVID-19 were performed.
- The quantitative reverse transcription polymerase chain reaction (RT-PCR) was conducted to detect SARS-CoV-2. Ocular and systemic signs and symptoms were recorded from their medical history.
-Results
-The mean age of patients was 56 ± 13 years.
- The average disease time from initiation of symptoms was 3.27 days, range: 1–7 days.
- Forty-one patients (95.3%) had fever at the time of sampling.
- Only one patient had conjunctivitis.
- Thirty (69.8%) nasopharyngeal and three (7%) tear samples were positive for SARS-CoV-2. The result of tear sample was positive in the patient with conjunctivitis.
- All patients with positive tear RT-PCR results had positive nasopharyngeal RT-PCR results.
-Conclusions
-id="Par4"&gt;Ocular manifestation was rare in this series of severe COVID-19 patients, however, 7% of the patients had viral RNA in their conjunctival secretions.
- Therefore, possibility of ocular transmission should be considered even in the absence of ocular manifestations.
-</t>
-  </si>
-  <si>
-    <t>[Saeed%Karimi%NULL%1,      Amir%Arabi%amir_arab_91@yahoo.com%1,      Toktam%Shahraki%NULL%2,      Toktam%Shahraki%NULL%0,      Sare%Safi%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-A recent increase in children admitted with hypotensive shock and fever in the context of the COVID-19 outbreak requires an urgent characterization and assessment of the involvement of SARS-CoV-2 infection.
- This is a case series performed at 4 academic tertiary care centers in Paris of all the children admitted to the pediatric intensive care unit (PICU) with shock, fever and suspected SARS-CoV-2 infection between April 15th and April 27th, 2020.
-Results
-20 critically ill children admitted for shock had an acute myocarditis (left ventricular ejection fraction, 35% (25–55); troponin, 269 ng/mL (31–4607)), and arterial hypotension with mainly vasoplegic clinical presentation.
- The first symptoms before PICU admission were intense abdominal pain and fever for 6 days (1–10).
- All children had highly elevated C-reactive protein (&amp;gt; 94 mg/L) and procalcitonin (&amp;gt; 1.6 ng/mL) without microbial cause.
- At least one feature of Kawasaki disease was found in all children (fever, n = 20, skin rash, n = 10; conjunctivitis, n = 6; cheilitis, n = 5; adenitis, n = 2), but none had the typical form.
- SARS-CoV-2 PCR and serology were positive for 10 and 15 children, respectively.
- One child had both negative SARS-CoV-2 PCR and serology, but had a typical SARS-CoV-2 chest tomography scan.
- All children but one needed an inotropic/vasoactive drug support (epinephrine, n = 12; milrinone, n = 10; dobutamine, n = 6, norepinephrine, n = 4) and 8 were intubated.
- All children received intravenous immunoglobulin (2 g per kilogram) with adjuvant corticosteroids (n = 2), IL 1 receptor antagonist (n = 1) or a monoclonal antibody against IL-6 receptor (n = 1).
- All children survived and were afebrile with a full left ventricular function recovery at PICU discharge.
-Conclusions
-Acute myocarditis with intense systemic inflammation and atypical Kawasaki disease is an emerging severe pediatric disease following SARS-CoV-2 infection.
- Early recognition of this disease is needed and referral to an expert center is recommended.
- A delayed and inappropriate host immunological response is suspected.
- While underlying mechanisms remain unclear, further investigations are required to target an optimal treatment.
-</t>
-  </si>
-  <si>
-    <t>[Marion%Grimaud%NULL%2,      Julie%Starck%NULL%1,      Michael%Levy%NULL%1,      Clémence%Marais%NULL%1,      Judith%Chareyre%NULL%1,      Diala%Khraiche%NULL%1,      Marianne%Leruez-Ville%NULL%1,      Pierre%Quartier%NULL%1,      Pierre Louis%Léger%NULL%1,      Guillaume%Geslain%NULL%1,      Nada%Semaan%NULL%1,      Florence%Moulin%NULL%1,      Matthieu%Bendavid%NULL%1,      Sandrine%Jean%NULL%1,      Géraldine%Poncelet%NULL%1,      Sylvain%Renolleau%NULL%1,      Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-Since there are few reports on the ocular involvement of coronavirus disease 2019 (COVID-19) patients, this study aimed to assess the presence of severe acute respiratory syndrome Coronavirus-2 (SARS-CoV-2) in the tears of patients with COVID-19.
-Methods
-In this prospective case series, nasopharyngeal and tear sampling of 43 patients with severe COVID-19 were performed.
- The quantitative reverse transcription polymerase chain reaction (RT-PCR) was conducted to detect SARS-CoV-2. Ocular and systemic signs and symptoms were recorded from their medical history.
-Results
-The mean age of patients was 56 ± 13 years.
- The average disease time from initiation of symptoms was 3.27 days, range: 1–7 days.
- Forty-one patients (95.3%) had fever at the time of sampling.
- Only one patient had conjunctivitis.
- Thirty (69.8%) nasopharyngeal and three (7%) tear samples were positive for SARS-CoV-2. The result of tear sample was positive in the patient with conjunctivitis.
- All patients with positive tear RT-PCR results had positive nasopharyngeal RT-PCR results.
-Conclusions
-Ocular manifestation was rare in this series of severe COVID-19 patients, however, 7% of the patients had viral RNA in their conjunctival secretions.
- Therefore, possibility of ocular transmission should be considered even in the absence of ocular manifestations.
-</t>
-  </si>
-  <si>
-    <t>[Saeed%Karimi%NULL%1,       Amir%Arabi%amir_arab_91@yahoo.com%1,       Toktam%Shahraki%NULL%2,       Toktam%Shahraki%NULL%0,       Sare%Safi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1105,10 +939,10 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1209,10 +1043,10 @@
         <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1235,10 +1069,10 @@
         <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>

--- a/Covid_19_Dataset_and_References/References/97.xlsx
+++ b/Covid_19_Dataset_and_References/References/97.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="133">
   <si>
     <t>Doi</t>
   </si>
@@ -484,6 +484,57 @@
   </si>
   <si>
     <t>[Ivan Yu Jun%Seah%NULL%1,   Danielle E.%Anderson%NULL%1,   Adrian Eng Zheng%Kang%NULL%1,   Linfa%Wang%NULL%1,   Pooja%Rao%NULL%1,   Barnaby Edward%Young%NULL%0,   David Chien%Lye%NULL%1,   Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,    Zheng-yi%Ni%NULL%0,    Zheng-yi%Ni%NULL%0,    Yu%Hu%NULL%0,    Wen-hua%Liang%NULL%0,    Chun-quan%Ou%NULL%0,    Jian-xing%He%NULL%0,    Lei%Liu%NULL%0,    Hong%Shan%NULL%0,    Chun-liang%Lei%NULL%0,    David S.C.%Hui%NULL%0,    Bin%Du%NULL%0,    Lan-juan%Li%NULL%0,    Guang%Zeng%NULL%0,    Kwok-Yung%Yuen%NULL%0,    Ru-chong%Chen%NULL%0,    Chun-li%Tang%NULL%0,    Tao%Wang%NULL%0,    Ping-yan%Chen%NULL%0,    Jie%Xiang%NULL%0,    Shi-yue%Li%NULL%0,    Jin-lin%Wang%NULL%0,    Zi-jing%Liang%NULL%0,    Yi-xiang%Peng%NULL%0,    Li%Wei%NULL%0,    Yong%Liu%NULL%0,    Ya-hua%Hu%NULL%0,    Peng%Peng%NULL%0,    Jian-ming%Wang%NULL%0,    Ji-yang%Liu%NULL%0,    Zhong%Chen%NULL%0,    Gang%Li%NULL%0,    Zhi-jian%Zheng%NULL%0,    Shao-qin%Qiu%NULL%0,    Jie%Luo%NULL%0,    Chang-jiang%Ye%NULL%0,    Shao-yong%Zhu%NULL%0,    Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Ping%Wu%NULL%1,    Fang%Duan%NULL%1,    Chunhua%Luo%NULL%1,    Qiang%Liu%NULL%0,    Xingguang%Qu%NULL%1,    Liang%Liang%NULL%1,    Kaili%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhang%NULL%1,    Xuhui%Chen%NULL%3,    Liwen%Chen%NULL%1,    Chaohua%Deng%NULL%3,    Xiaojing%Zou%NULL%0,    Xiaojing%Zou%NULL%0,    Weiyong%Liu%NULL%3,    Weiyong%Liu%NULL%0,    Huimin%Yu%NULL%3,    Huimin%Yu%NULL%0,    Bo%Chen%NULL%2,    Xufang%Sun%NULL%2]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Jianhua%Xia%NULL%1,    Jianping%Tong%NULL%1,    Mengyun%Liu%NULL%1,    Ye%Shen%idrshen@zju.edu.cn%1,    Dongyu%Guo%guodongyu666@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Hua-Tao%Xie%NULL%1,    Shi-Yun%Jiang%NULL%1,    Kang-Kang%Xu%NULL%1,    Xin%Liu%NULL%1,    Bing%Xu%NULL%1,    Lin%Wang%lin_wang@hust.edu.cn%1,    Ming-Chang%Zhang%mingchangzhang@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Liwen%Chen%NULL%1,    Chaohua%Deng%NULL%0,    Chaohua%Deng%NULL%0,    Xuhui%Chen%NULL%0,    Xuhui%Chen%NULL%0,    Xian%Zhang%NULL%1,    Bo%Chen%NULL%0,    Huimin%Yu%NULL%0,    Yuanjun%Qin%NULL%1,    Ke%Xiao%NULL%1,    Hong%Zhang%tjyksys@163.com%1,    Xufang%Sun%sunxufang2016@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kiran%Kumar%NULL%1,    Akshata A%Prakash%NULL%1,    Suresh Babu%Gangasagara%NULL%1,    Sujatha BL%Rathod%NULL%1,    K%Ravi%NULL%1,    Ambica%Rangaiah%NULL%1,    Sathyanarayan Muthur%Shankar%NULL%1,    Shantala Gowdara%Basawarajappa%NULL%1,    Shashi%Bhushan%NULL%1,    T G%Neeraja%NULL%1,    Srinivas%Khandenahalli%NULL%1,    M%Swetha%NULL%1,    Priyam%Gupta%NULL%1,    U C%Sampritha%NULL%1,    Guru N S%Prasad%NULL%1,    Chakravarthy Raghunathan%Jayanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yunyun%Zhou%NULL%1,    Chaoye%Duan%NULL%1,    Yuyang%Zeng%NULL%1,    Yongqing%Tong%NULL%1,    Yuhong%Nie%NULL%1,    Yang%Yang%NULL%0,    Zhen%Chen%NULL%1,    Changzheng%Chen%chenchangzheng@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Saeed%Karimi%NULL%1,    Amir%Arabi%amir_arab_91@yahoo.com%1,    Toktam%Shahraki%NULL%2,    Toktam%Shahraki%NULL%0,    Sare%Safi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%2,    Julie%Starck%NULL%1,    Michael%Levy%NULL%1,    Clémence%Marais%NULL%1,    Judith%Chareyre%NULL%1,    Diala%Khraiche%NULL%1,    Marianne%Leruez-Ville%NULL%1,    Pierre%Quartier%NULL%1,    Pierre Louis%Léger%NULL%1,    Guillaume%Geslain%NULL%1,    Nada%Semaan%NULL%1,    Florence%Moulin%NULL%1,    Matthieu%Bendavid%NULL%1,    Sandrine%Jean%NULL%1,    Géraldine%Poncelet%NULL%1,    Sylvain%Renolleau%NULL%1,    Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
+  </si>
+  <si>
+    <t>[Zhixiong%Fang%NULL%1,    Yi%Zhang%NULL%0,    Changfa%Hang%NULL%1,    Jingwen%Ai%NULL%1,    Shaojie%Li%NULL%1,    Wenhong%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paola%Valente%NULL%1,    Giancarlo%Iarossi%NULL%1,    Matteo%Federici%NULL%1,    Sergio%Petroni%NULL%1,    Paolo%Palma%NULL%1,    Nicola%Cotugno%NULL%1,    Maria A.%De Ioris%NULL%1,    Andrea%Campana%NULL%1,    Luca%Buzzonetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan Yu Jun%Seah%NULL%1,    Danielle E.%Anderson%NULL%1,    Adrian Eng Zheng%Kang%NULL%1,    Linfa%Wang%NULL%1,    Pooja%Rao%NULL%1,    Barnaby Edward%Young%NULL%0,    David Chien%Lye%NULL%1,    Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
   </si>
 </sst>
 </file>
@@ -823,6 +874,9 @@
       <c r="H1" t="s">
         <v>25</v>
       </c>
+      <c r="I1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -838,7 +892,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -848,6 +902,9 @@
       </c>
       <c r="H2" t="s">
         <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="3">
@@ -864,7 +921,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -874,6 +931,9 @@
       </c>
       <c r="H3" t="s">
         <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="4">
@@ -890,7 +950,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -900,6 +960,9 @@
       </c>
       <c r="H4" t="s">
         <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5">
@@ -916,7 +979,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -926,6 +989,9 @@
       </c>
       <c r="H5" t="s">
         <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +1008,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -952,6 +1018,9 @@
       </c>
       <c r="H6" t="s">
         <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="7">
@@ -968,7 +1037,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -978,6 +1047,9 @@
       </c>
       <c r="H7" t="s">
         <v>56</v>
+      </c>
+      <c r="I7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="8">
@@ -994,7 +1066,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1004,6 +1076,9 @@
       </c>
       <c r="H8" t="s">
         <v>61</v>
+      </c>
+      <c r="I8" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="9">
@@ -1020,7 +1095,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1030,6 +1105,9 @@
       </c>
       <c r="H9" t="s">
         <v>66</v>
+      </c>
+      <c r="I9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="10">
@@ -1046,7 +1124,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1056,6 +1134,9 @@
       </c>
       <c r="H10" t="s">
         <v>71</v>
+      </c>
+      <c r="I10" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="11">
@@ -1072,7 +1153,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -1082,6 +1163,9 @@
       </c>
       <c r="H11" t="s">
         <v>76</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1182,7 @@
         <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="F12" t="s">
         <v>79</v>
@@ -1108,6 +1192,9 @@
       </c>
       <c r="H12" t="s">
         <v>80</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="13">
@@ -1124,7 +1211,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -1134,6 +1221,9 @@
       </c>
       <c r="H13" t="s">
         <v>85</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1240,7 @@
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="F14" t="s">
         <v>88</v>
@@ -1160,6 +1250,9 @@
       </c>
       <c r="H14" t="s">
         <v>89</v>
+      </c>
+      <c r="I14" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/97.xlsx
+++ b/Covid_19_Dataset_and_References/References/97.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="172">
   <si>
     <t>Doi</t>
   </si>
@@ -535,6 +535,123 @@
   </si>
   <si>
     <t>[Ivan Yu Jun%Seah%NULL%1,    Danielle E.%Anderson%NULL%1,    Adrian Eng Zheng%Kang%NULL%1,    Linfa%Wang%NULL%1,    Pooja%Rao%NULL%1,    Barnaby Edward%Young%NULL%0,    David Chien%Lye%NULL%1,    Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,     Zheng-yi%Ni%NULL%0,     Zheng-yi%Ni%NULL%0,     Yu%Hu%NULL%0,     Wen-hua%Liang%NULL%0,     Chun-quan%Ou%NULL%0,     Jian-xing%He%NULL%0,     Lei%Liu%NULL%0,     Hong%Shan%NULL%0,     Chun-liang%Lei%NULL%0,     David S.C.%Hui%NULL%0,     Bin%Du%NULL%0,     Lan-juan%Li%NULL%0,     Guang%Zeng%NULL%0,     Kwok-Yung%Yuen%NULL%0,     Ru-chong%Chen%NULL%0,     Chun-li%Tang%NULL%0,     Tao%Wang%NULL%0,     Ping-yan%Chen%NULL%0,     Jie%Xiang%NULL%0,     Shi-yue%Li%NULL%0,     Jin-lin%Wang%NULL%0,     Zi-jing%Liang%NULL%0,     Yi-xiang%Peng%NULL%0,     Li%Wei%NULL%0,     Yong%Liu%NULL%0,     Ya-hua%Hu%NULL%0,     Peng%Peng%NULL%0,     Jian-ming%Wang%NULL%0,     Ji-yang%Liu%NULL%0,     Zhong%Chen%NULL%0,     Gang%Li%NULL%0,     Zhi-jian%Zheng%NULL%0,     Shao-qin%Qiu%NULL%0,     Jie%Luo%NULL%0,     Chang-jiang%Ye%NULL%0,     Shao-yong%Zhu%NULL%0,     Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ping%Wu%NULL%1,     Fang%Duan%NULL%1,     Chunhua%Luo%NULL%1,     Qiang%Liu%NULL%0,     Xingguang%Qu%NULL%1,     Liang%Liang%NULL%1,     Kaili%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhang%NULL%1,     Xuhui%Chen%NULL%3,     Liwen%Chen%NULL%1,     Chaohua%Deng%NULL%3,     Xiaojing%Zou%NULL%0,     Xiaojing%Zou%NULL%0,     Weiyong%Liu%NULL%3,     Weiyong%Liu%NULL%0,     Huimin%Yu%NULL%3,     Huimin%Yu%NULL%0,     Bo%Chen%NULL%2,     Xufang%Sun%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianhua%Xia%NULL%1,     Jianping%Tong%NULL%1,     Mengyun%Liu%NULL%1,     Ye%Shen%idrshen@zju.edu.cn%1,     Dongyu%Guo%guodongyu666@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Hua-Tao%Xie%NULL%1,     Shi-Yun%Jiang%NULL%1,     Kang-Kang%Xu%NULL%1,     Xin%Liu%NULL%1,     Bing%Xu%NULL%1,     Lin%Wang%lin_wang@hust.edu.cn%0,     Ming-Chang%Zhang%mingchangzhang@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Liwen%Chen%NULL%1,     Chaohua%Deng%NULL%0,     Chaohua%Deng%NULL%0,     Xuhui%Chen%NULL%0,     Xuhui%Chen%NULL%0,     Xian%Zhang%NULL%1,     Bo%Chen%NULL%0,     Huimin%Yu%NULL%0,     Yuanjun%Qin%NULL%1,     Ke%Xiao%NULL%1,     Hong%Zhang%tjyksys@163.com%1,     Xufang%Sun%sunxufang2016@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kiran%Kumar%NULL%1,     Akshata A%Prakash%NULL%1,     Suresh Babu%Gangasagara%NULL%1,     Sujatha BL%Rathod%NULL%1,     K%Ravi%NULL%1,     Ambica%Rangaiah%NULL%1,     Sathyanarayan Muthur%Shankar%NULL%1,     Shantala Gowdara%Basawarajappa%NULL%1,     Shashi%Bhushan%NULL%1,     T G%Neeraja%NULL%1,     Srinivas%Khandenahalli%NULL%1,     M%Swetha%NULL%1,     Priyam%Gupta%NULL%1,     U C%Sampritha%NULL%1,     Guru N S%Prasad%NULL%1,     Chakravarthy Raghunathan%Jayanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yunyun%Zhou%NULL%1,     Chaoye%Duan%NULL%1,     Yuyang%Zeng%NULL%1,     Yongqing%Tong%NULL%1,     Yuhong%Nie%NULL%1,     Yang%Yang%NULL%0,     Zhen%Chen%NULL%1,     Changzheng%Chen%chenchangzheng@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Saeed%Karimi%NULL%1,     Amir%Arabi%amir_arab_91@yahoo.com%1,     Toktam%Shahraki%NULL%2,     Toktam%Shahraki%NULL%0,     Sare%Safi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%2,     Julie%Starck%NULL%1,     Michael%Levy%NULL%1,     Clémence%Marais%NULL%1,     Judith%Chareyre%NULL%1,     Diala%Khraiche%NULL%1,     Marianne%Leruez-Ville%NULL%1,     Pierre%Quartier%NULL%1,     Pierre Louis%Léger%NULL%1,     Guillaume%Geslain%NULL%1,     Nada%Semaan%NULL%1,     Florence%Moulin%NULL%1,     Matthieu%Bendavid%NULL%1,     Sandrine%Jean%NULL%1,     Géraldine%Poncelet%NULL%1,     Sylvain%Renolleau%NULL%1,     Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
+  </si>
+  <si>
+    <t>[Zhixiong%Fang%NULL%1,     Yi%Zhang%NULL%0,     Changfa%Hang%NULL%1,     Jingwen%Ai%NULL%1,     Shaojie%Li%NULL%1,     Wenhong%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paola%Valente%NULL%1,     Giancarlo%Iarossi%NULL%1,     Matteo%Federici%NULL%1,     Sergio%Petroni%NULL%1,     Paolo%Palma%NULL%1,     Nicola%Cotugno%NULL%1,     Maria A.%De Ioris%NULL%1,     Andrea%Campana%NULL%1,     Luca%Buzzonetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan Yu Jun%Seah%NULL%1,     Danielle E.%Anderson%NULL%1,     Adrian Eng Zheng%Kang%NULL%1,     Linfa%Wang%NULL%1,     Pooja%Rao%NULL%1,     Barnaby Edward%Young%NULL%0,     David Chien%Lye%NULL%1,     Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,      Zheng-yi%Ni%NULL%0,      Zheng-yi%Ni%NULL%0,      Yu%Hu%NULL%0,      Wen-hua%Liang%NULL%0,      Chun-quan%Ou%NULL%0,      Jian-xing%He%NULL%0,      Lei%Liu%NULL%0,      Hong%Shan%NULL%0,      Chun-liang%Lei%NULL%0,      David S.C.%Hui%NULL%0,      Bin%Du%NULL%0,      Lan-juan%Li%NULL%0,      Guang%Zeng%NULL%0,      Kwok-Yung%Yuen%NULL%0,      Ru-chong%Chen%NULL%0,      Chun-li%Tang%NULL%0,      Tao%Wang%NULL%0,      Ping-yan%Chen%NULL%0,      Jie%Xiang%NULL%0,      Shi-yue%Li%NULL%0,      Jin-lin%Wang%NULL%0,      Zi-jing%Liang%NULL%0,      Yi-xiang%Peng%NULL%0,      Li%Wei%NULL%0,      Yong%Liu%NULL%0,      Ya-hua%Hu%NULL%0,      Peng%Peng%NULL%0,      Jian-ming%Wang%NULL%0,      Ji-yang%Liu%NULL%0,      Zhong%Chen%NULL%0,      Gang%Li%NULL%0,      Zhi-jian%Zheng%NULL%0,      Shao-qin%Qiu%NULL%0,      Jie%Luo%NULL%0,      Chang-jiang%Ye%NULL%0,      Shao-yong%Zhu%NULL%0,      Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ping%Wu%NULL%1,      Fang%Duan%NULL%1,      Chunhua%Luo%NULL%1,      Qiang%Liu%NULL%0,      Xingguang%Qu%NULL%1,      Liang%Liang%NULL%1,      Kaili%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhang%NULL%1,      Xuhui%Chen%NULL%3,      Liwen%Chen%NULL%1,      Chaohua%Deng%NULL%3,      Xiaojing%Zou%NULL%0,      Xiaojing%Zou%NULL%0,      Weiyong%Liu%NULL%3,      Weiyong%Liu%NULL%0,      Huimin%Yu%NULL%3,      Huimin%Yu%NULL%0,      Bo%Chen%NULL%2,      Xufang%Sun%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianhua%Xia%NULL%1,      Jianping%Tong%NULL%1,      Mengyun%Liu%NULL%1,      Ye%Shen%idrshen@zju.edu.cn%1,      Dongyu%Guo%guodongyu666@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Hua-Tao%Xie%NULL%1,      Shi-Yun%Jiang%NULL%1,      Kang-Kang%Xu%NULL%1,      Xin%Liu%NULL%1,      Bing%Xu%NULL%1,      Lin%Wang%lin_wang@hust.edu.cn%0,      Ming-Chang%Zhang%mingchangzhang@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Liwen%Chen%NULL%1,      Chaohua%Deng%NULL%0,      Chaohua%Deng%NULL%0,      Xuhui%Chen%NULL%0,      Xuhui%Chen%NULL%0,      Xian%Zhang%NULL%1,      Bo%Chen%NULL%0,      Huimin%Yu%NULL%0,      Yuanjun%Qin%NULL%1,      Ke%Xiao%NULL%1,      Hong%Zhang%tjyksys@163.com%1,      Xufang%Sun%sunxufang2016@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kiran%Kumar%NULL%1,      Akshata A%Prakash%NULL%1,      Suresh Babu%Gangasagara%NULL%1,      Sujatha BL%Rathod%NULL%1,      K%Ravi%NULL%1,      Ambica%Rangaiah%NULL%1,      Sathyanarayan Muthur%Shankar%NULL%1,      Shantala Gowdara%Basawarajappa%NULL%1,      Shashi%Bhushan%NULL%1,      T G%Neeraja%NULL%1,      Srinivas%Khandenahalli%NULL%1,      M%Swetha%NULL%1,      Priyam%Gupta%NULL%1,      U C%Sampritha%NULL%1,      Guru N S%Prasad%NULL%1,      Chakravarthy Raghunathan%Jayanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yunyun%Zhou%NULL%1,      Chaoye%Duan%NULL%1,      Yuyang%Zeng%NULL%1,      Yongqing%Tong%NULL%1,      Yuhong%Nie%NULL%1,      Yang%Yang%NULL%0,      Zhen%Chen%NULL%1,      Changzheng%Chen%chenchangzheng@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Saeed%Karimi%NULL%1,      Amir%Arabi%amir_arab_91@yahoo.com%1,      Toktam%Shahraki%NULL%2,      Toktam%Shahraki%NULL%0,      Sare%Safi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%2,      Julie%Starck%NULL%1,      Michael%Levy%NULL%1,      Clémence%Marais%NULL%1,      Judith%Chareyre%NULL%1,      Diala%Khraiche%NULL%1,      Marianne%Leruez-Ville%NULL%1,      Pierre%Quartier%NULL%1,      Pierre Louis%Léger%NULL%1,      Guillaume%Geslain%NULL%1,      Nada%Semaan%NULL%1,      Florence%Moulin%NULL%1,      Matthieu%Bendavid%NULL%1,      Sandrine%Jean%NULL%1,      Géraldine%Poncelet%NULL%1,      Sylvain%Renolleau%NULL%1,      Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
+  </si>
+  <si>
+    <t>[Zhixiong%Fang%NULL%1,      Yi%Zhang%NULL%0,      Changfa%Hang%NULL%1,      Jingwen%Ai%NULL%1,      Shaojie%Li%NULL%1,      Wenhong%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paola%Valente%NULL%1,      Giancarlo%Iarossi%NULL%1,      Matteo%Federici%NULL%1,      Sergio%Petroni%NULL%1,      Paolo%Palma%NULL%1,      Nicola%Cotugno%NULL%1,      Maria A.%De Ioris%NULL%1,      Andrea%Campana%NULL%1,      Luca%Buzzonetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan Yu Jun%Seah%NULL%1,      Danielle E.%Anderson%NULL%1,      Adrian Eng Zheng%Kang%NULL%1,      Linfa%Wang%NULL%1,      Pooja%Rao%NULL%1,      Barnaby Edward%Young%NULL%0,      David Chien%Lye%NULL%1,      Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,       Zheng-yi%Ni%NULL%0,       Zheng-yi%Ni%NULL%0,       Yu%Hu%NULL%0,       Wen-hua%Liang%NULL%0,       Chun-quan%Ou%NULL%0,       Jian-xing%He%NULL%0,       Lei%Liu%NULL%0,       Hong%Shan%NULL%0,       Chun-liang%Lei%NULL%0,       David S.C.%Hui%NULL%0,       Bin%Du%NULL%0,       Lan-juan%Li%NULL%0,       Guang%Zeng%NULL%0,       Kwok-Yung%Yuen%NULL%0,       Ru-chong%Chen%NULL%0,       Chun-li%Tang%NULL%0,       Tao%Wang%NULL%0,       Ping-yan%Chen%NULL%0,       Jie%Xiang%NULL%0,       Shi-yue%Li%NULL%0,       Jin-lin%Wang%NULL%0,       Zi-jing%Liang%NULL%0,       Yi-xiang%Peng%NULL%0,       Li%Wei%NULL%0,       Yong%Liu%NULL%0,       Ya-hua%Hu%NULL%0,       Peng%Peng%NULL%0,       Jian-ming%Wang%NULL%0,       Ji-yang%Liu%NULL%0,       Zhong%Chen%NULL%0,       Gang%Li%NULL%0,       Zhi-jian%Zheng%NULL%0,       Shao-qin%Qiu%NULL%0,       Jie%Luo%NULL%0,       Chang-jiang%Ye%NULL%0,       Shao-yong%Zhu%NULL%0,       Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ping%Wu%NULL%1,       Fang%Duan%NULL%1,       Chunhua%Luo%NULL%1,       Qiang%Liu%NULL%0,       Xingguang%Qu%NULL%1,       Liang%Liang%NULL%1,       Kaili%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhang%NULL%1,       Xuhui%Chen%NULL%3,       Liwen%Chen%NULL%1,       Chaohua%Deng%NULL%3,       Xiaojing%Zou%NULL%0,       Xiaojing%Zou%NULL%0,       Weiyong%Liu%NULL%3,       Weiyong%Liu%NULL%0,       Huimin%Yu%NULL%3,       Huimin%Yu%NULL%0,       Bo%Chen%NULL%2,       Xufang%Sun%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianhua%Xia%NULL%1,       Jianping%Tong%NULL%1,       Mengyun%Liu%NULL%1,       Ye%Shen%idrshen@zju.edu.cn%1,       Dongyu%Guo%guodongyu666@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Hua-Tao%Xie%NULL%1,       Shi-Yun%Jiang%NULL%1,       Kang-Kang%Xu%NULL%1,       Xin%Liu%NULL%1,       Bing%Xu%NULL%1,       Lin%Wang%lin_wang@hust.edu.cn%0,       Ming-Chang%Zhang%mingchangzhang@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Liwen%Chen%NULL%1,       Chaohua%Deng%NULL%0,       Chaohua%Deng%NULL%0,       Xuhui%Chen%NULL%0,       Xuhui%Chen%NULL%0,       Xian%Zhang%NULL%1,       Bo%Chen%NULL%0,       Huimin%Yu%NULL%0,       Yuanjun%Qin%NULL%1,       Ke%Xiao%NULL%1,       Hong%Zhang%tjyksys@163.com%1,       Xufang%Sun%sunxufang2016@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kiran%Kumar%NULL%1,       Akshata A%Prakash%NULL%1,       Suresh Babu%Gangasagara%NULL%1,       Sujatha BL%Rathod%NULL%1,       K%Ravi%NULL%1,       Ambica%Rangaiah%NULL%1,       Sathyanarayan Muthur%Shankar%NULL%1,       Shantala Gowdara%Basawarajappa%NULL%1,       Shashi%Bhushan%NULL%1,       T G%Neeraja%NULL%1,       Srinivas%Khandenahalli%NULL%1,       M%Swetha%NULL%1,       Priyam%Gupta%NULL%1,       U C%Sampritha%NULL%1,       Guru N S%Prasad%NULL%1,       Chakravarthy Raghunathan%Jayanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yunyun%Zhou%NULL%1,       Chaoye%Duan%NULL%1,       Yuyang%Zeng%NULL%1,       Yongqing%Tong%NULL%1,       Yuhong%Nie%NULL%1,       Yang%Yang%NULL%0,       Zhen%Chen%NULL%1,       Changzheng%Chen%chenchangzheng@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Saeed%Karimi%NULL%1,       Amir%Arabi%amir_arab_91@yahoo.com%1,       Toktam%Shahraki%NULL%2,       Toktam%Shahraki%NULL%0,       Sare%Safi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%2,       Julie%Starck%NULL%1,       Michael%Levy%NULL%1,       Clémence%Marais%NULL%1,       Judith%Chareyre%NULL%1,       Diala%Khraiche%NULL%1,       Marianne%Leruez-Ville%NULL%1,       Pierre%Quartier%NULL%1,       Pierre Louis%Léger%NULL%1,       Guillaume%Geslain%NULL%1,       Nada%Semaan%NULL%1,       Florence%Moulin%NULL%1,       Matthieu%Bendavid%NULL%1,       Sandrine%Jean%NULL%1,       Géraldine%Poncelet%NULL%1,       Sylvain%Renolleau%NULL%1,       Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
+  </si>
+  <si>
+    <t>[Zhixiong%Fang%NULL%1,       Yi%Zhang%NULL%0,       Changfa%Hang%NULL%1,       Jingwen%Ai%NULL%1,       Shaojie%Li%NULL%1,       Wenhong%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paola%Valente%NULL%1,       Giancarlo%Iarossi%NULL%1,       Matteo%Federici%NULL%1,       Sergio%Petroni%NULL%1,       Paolo%Palma%NULL%1,       Nicola%Cotugno%NULL%1,       Maria A.%De Ioris%NULL%1,       Andrea%Campana%NULL%1,       Luca%Buzzonetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan Yu Jun%Seah%NULL%1,       Danielle E.%Anderson%NULL%1,       Adrian Eng Zheng%Kang%NULL%1,       Linfa%Wang%NULL%1,       Pooja%Rao%NULL%1,       Barnaby Edward%Young%NULL%0,       David Chien%Lye%NULL%1,       Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
   </si>
 </sst>
 </file>
@@ -892,7 +1009,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -921,7 +1038,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -950,7 +1067,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -979,7 +1096,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1008,7 +1125,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1037,7 +1154,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1066,7 +1183,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1095,7 +1212,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1124,7 +1241,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1153,7 +1270,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -1182,7 +1299,7 @@
         <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="F12" t="s">
         <v>79</v>
@@ -1211,7 +1328,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -1240,7 +1357,7 @@
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="F14" t="s">
         <v>88</v>

--- a/Covid_19_Dataset_and_References/References/97.xlsx
+++ b/Covid_19_Dataset_and_References/References/97.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="198">
   <si>
     <t>Doi</t>
   </si>
@@ -652,6 +652,84 @@
   </si>
   <si>
     <t>[Ivan Yu Jun%Seah%NULL%1,       Danielle E.%Anderson%NULL%1,       Adrian Eng Zheng%Kang%NULL%1,       Linfa%Wang%NULL%1,       Pooja%Rao%NULL%1,       Barnaby Edward%Young%NULL%0,       David Chien%Lye%NULL%1,       Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,        Zheng-yi%Ni%NULL%0,        Zheng-yi%Ni%NULL%0,        Yu%Hu%NULL%0,        Wen-hua%Liang%NULL%0,        Chun-quan%Ou%NULL%0,        Jian-xing%He%NULL%0,        Lei%Liu%NULL%0,        Hong%Shan%NULL%0,        Chun-liang%Lei%NULL%0,        David S.C.%Hui%NULL%0,        Bin%Du%NULL%0,        Lan-juan%Li%NULL%0,        Guang%Zeng%NULL%0,        Kwok-Yung%Yuen%NULL%0,        Ru-chong%Chen%NULL%0,        Chun-li%Tang%NULL%0,        Tao%Wang%NULL%0,        Ping-yan%Chen%NULL%0,        Jie%Xiang%NULL%0,        Shi-yue%Li%NULL%0,        Jin-lin%Wang%NULL%0,        Zi-jing%Liang%NULL%0,        Yi-xiang%Peng%NULL%0,        Li%Wei%NULL%0,        Yong%Liu%NULL%0,        Ya-hua%Hu%NULL%0,        Peng%Peng%NULL%0,        Jian-ming%Wang%NULL%0,        Ji-yang%Liu%NULL%0,        Zhong%Chen%NULL%0,        Gang%Li%NULL%0,        Zhi-jian%Zheng%NULL%0,        Shao-qin%Qiu%NULL%0,        Jie%Luo%NULL%0,        Chang-jiang%Ye%NULL%0,        Shao-yong%Zhu%NULL%0,        Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ping%Wu%NULL%1,        Fang%Duan%NULL%1,        Chunhua%Luo%NULL%1,        Qiang%Liu%NULL%0,        Xingguang%Qu%NULL%1,        Liang%Liang%NULL%1,        Kaili%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhang%NULL%1,        Xuhui%Chen%NULL%3,        Liwen%Chen%NULL%1,        Chaohua%Deng%NULL%3,        Xiaojing%Zou%NULL%0,        Xiaojing%Zou%NULL%0,        Weiyong%Liu%NULL%3,        Weiyong%Liu%NULL%0,        Huimin%Yu%NULL%3,        Huimin%Yu%NULL%0,        Bo%Chen%NULL%2,        Xufang%Sun%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianhua%Xia%NULL%1,        Jianping%Tong%NULL%1,        Mengyun%Liu%NULL%1,        Ye%Shen%idrshen@zju.edu.cn%1,        Dongyu%Guo%guodongyu666@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Hua-Tao%Xie%NULL%1,        Shi-Yun%Jiang%NULL%1,        Kang-Kang%Xu%NULL%1,        Xin%Liu%NULL%1,        Bing%Xu%NULL%1,        Lin%Wang%lin_wang@hust.edu.cn%0,        Ming-Chang%Zhang%mingchangzhang@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Liwen%Chen%NULL%1,        Chaohua%Deng%NULL%0,        Chaohua%Deng%NULL%0,        Xuhui%Chen%NULL%0,        Xuhui%Chen%NULL%0,        Xian%Zhang%NULL%1,        Bo%Chen%NULL%0,        Huimin%Yu%NULL%0,        Yuanjun%Qin%NULL%1,        Ke%Xiao%NULL%1,        Hong%Zhang%tjyksys@163.com%1,        Xufang%Sun%sunxufang2016@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kiran%Kumar%NULL%1,        Akshata A%Prakash%NULL%1,        Suresh Babu%Gangasagara%NULL%1,        Sujatha BL%Rathod%NULL%1,        K%Ravi%NULL%1,        Ambica%Rangaiah%NULL%1,        Sathyanarayan Muthur%Shankar%NULL%1,        Shantala Gowdara%Basawarajappa%NULL%1,        Shashi%Bhushan%NULL%1,        T G%Neeraja%NULL%1,        Srinivas%Khandenahalli%NULL%1,        M%Swetha%NULL%1,        Priyam%Gupta%NULL%1,        U C%Sampritha%NULL%1,        Guru N S%Prasad%NULL%1,        Chakravarthy Raghunathan%Jayanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yunyun%Zhou%NULL%1,        Chaoye%Duan%NULL%1,        Yuyang%Zeng%NULL%1,        Yongqing%Tong%NULL%1,        Yuhong%Nie%NULL%1,        Yang%Yang%NULL%0,        Zhen%Chen%NULL%1,        Changzheng%Chen%chenchangzheng@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Saeed%Karimi%NULL%1,        Amir%Arabi%amir_arab_91@yahoo.com%1,        Toktam%Shahraki%NULL%2,        Toktam%Shahraki%NULL%0,        Sare%Safi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%3,        Julie%Starck%NULL%1,        Michael%Levy%NULL%1,        Clémence%Marais%NULL%1,        Judith%Chareyre%NULL%1,        Diala%Khraiche%NULL%1,        Marianne%Leruez-Ville%NULL%1,        Pierre%Quartier%NULL%1,        Pierre Louis%Léger%NULL%1,        Guillaume%Geslain%NULL%1,        Nada%Semaan%NULL%1,        Florence%Moulin%NULL%1,        Matthieu%Bendavid%NULL%1,        Sandrine%Jean%NULL%1,        Géraldine%Poncelet%NULL%1,        Sylvain%Renolleau%NULL%1,        Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
+  </si>
+  <si>
+    <t>[Zhixiong%Fang%NULL%1,        Yi%Zhang%NULL%0,        Changfa%Hang%NULL%1,        Jingwen%Ai%NULL%1,        Shaojie%Li%NULL%1,        Wenhong%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paola%Valente%NULL%1,        Giancarlo%Iarossi%NULL%1,        Matteo%Federici%NULL%1,        Sergio%Petroni%NULL%1,        Paolo%Palma%NULL%1,        Nicola%Cotugno%NULL%1,        Maria A.%De Ioris%NULL%1,        Andrea%Campana%NULL%1,        Luca%Buzzonetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan Yu Jun%Seah%NULL%1,        Danielle E.%Anderson%NULL%1,        Adrian Eng Zheng%Kang%NULL%1,        Linfa%Wang%NULL%1,        Pooja%Rao%NULL%1,        Barnaby Edward%Young%NULL%0,        David Chien%Lye%NULL%1,        Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,         Zheng-yi%Ni%NULL%0,         Zheng-yi%Ni%NULL%0,         Yu%Hu%NULL%0,         Wen-hua%Liang%NULL%0,         Chun-quan%Ou%NULL%0,         Jian-xing%He%NULL%0,         Lei%Liu%NULL%0,         Hong%Shan%NULL%0,         Chun-liang%Lei%NULL%0,         David S.C.%Hui%NULL%0,         Bin%Du%NULL%0,         Lan-juan%Li%NULL%0,         Guang%Zeng%NULL%0,         Kwok-Yung%Yuen%NULL%0,         Ru-chong%Chen%NULL%0,         Chun-li%Tang%NULL%0,         Tao%Wang%NULL%0,         Ping-yan%Chen%NULL%0,         Jie%Xiang%NULL%0,         Shi-yue%Li%NULL%0,         Jin-lin%Wang%NULL%0,         Zi-jing%Liang%NULL%0,         Yi-xiang%Peng%NULL%0,         Li%Wei%NULL%0,         Yong%Liu%NULL%0,         Ya-hua%Hu%NULL%0,         Peng%Peng%NULL%0,         Jian-ming%Wang%NULL%0,         Ji-yang%Liu%NULL%0,         Zhong%Chen%NULL%0,         Gang%Li%NULL%0,         Zhi-jian%Zheng%NULL%0,         Shao-qin%Qiu%NULL%0,         Jie%Luo%NULL%0,         Chang-jiang%Ye%NULL%0,         Shao-yong%Zhu%NULL%0,         Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ping%Wu%NULL%1,         Fang%Duan%NULL%1,         Chunhua%Luo%NULL%1,         Qiang%Liu%NULL%0,         Xingguang%Qu%NULL%1,         Liang%Liang%NULL%1,         Kaili%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhang%NULL%1,         Xuhui%Chen%NULL%3,         Liwen%Chen%NULL%1,         Chaohua%Deng%NULL%3,         Xiaojing%Zou%NULL%0,         Xiaojing%Zou%NULL%0,         Weiyong%Liu%NULL%3,         Weiyong%Liu%NULL%0,         Huimin%Yu%NULL%3,         Huimin%Yu%NULL%0,         Bo%Chen%NULL%2,         Xufang%Sun%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianhua%Xia%NULL%1,         Jianping%Tong%NULL%1,         Mengyun%Liu%NULL%1,         Ye%Shen%idrshen@zju.edu.cn%1,         Dongyu%Guo%guodongyu666@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Hua-Tao%Xie%NULL%1,         Shi-Yun%Jiang%NULL%1,         Kang-Kang%Xu%NULL%1,         Xin%Liu%NULL%1,         Bing%Xu%NULL%1,         Lin%Wang%lin_wang@hust.edu.cn%0,         Ming-Chang%Zhang%mingchangzhang@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Liwen%Chen%NULL%1,         Chaohua%Deng%NULL%0,         Chaohua%Deng%NULL%0,         Xuhui%Chen%NULL%0,         Xuhui%Chen%NULL%0,         Xian%Zhang%NULL%1,         Bo%Chen%NULL%0,         Huimin%Yu%NULL%0,         Yuanjun%Qin%NULL%1,         Ke%Xiao%NULL%1,         Hong%Zhang%tjyksys@163.com%1,         Xufang%Sun%sunxufang2016@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kiran%Kumar%NULL%1,         Akshata A%Prakash%NULL%1,         Suresh Babu%Gangasagara%NULL%1,         Sujatha BL%Rathod%NULL%1,         K%Ravi%NULL%1,         Ambica%Rangaiah%NULL%1,         Sathyanarayan Muthur%Shankar%NULL%1,         Shantala Gowdara%Basawarajappa%NULL%1,         Shashi%Bhushan%NULL%1,         T G%Neeraja%NULL%1,         Srinivas%Khandenahalli%NULL%1,         M%Swetha%NULL%1,         Priyam%Gupta%NULL%1,         U C%Sampritha%NULL%1,         Guru N S%Prasad%NULL%1,         Chakravarthy Raghunathan%Jayanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yunyun%Zhou%NULL%1,         Chaoye%Duan%NULL%1,         Yuyang%Zeng%NULL%1,         Yongqing%Tong%NULL%1,         Yuhong%Nie%NULL%1,         Yang%Yang%NULL%0,         Zhen%Chen%NULL%1,         Changzheng%Chen%chenchangzheng@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Saeed%Karimi%NULL%1,         Amir%Arabi%amir_arab_91@yahoo.com%1,         Toktam%Shahraki%NULL%2,         Toktam%Shahraki%NULL%0,         Sare%Safi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%2,         Julie%Starck%NULL%1,         Michael%Levy%NULL%1,         Clémence%Marais%NULL%1,         Judith%Chareyre%NULL%1,         Diala%Khraiche%NULL%1,         Marianne%Leruez-Ville%NULL%1,         Pierre%Quartier%NULL%1,         Pierre Louis%Léger%NULL%1,         Guillaume%Geslain%NULL%1,         Nada%Semaan%NULL%1,         Florence%Moulin%NULL%1,         Matthieu%Bendavid%NULL%1,         Sandrine%Jean%NULL%1,         Géraldine%Poncelet%NULL%1,         Sylvain%Renolleau%NULL%1,         Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
+  </si>
+  <si>
+    <t>[Zhixiong%Fang%NULL%1,         Yi%Zhang%NULL%0,         Changfa%Hang%NULL%1,         Jingwen%Ai%NULL%1,         Shaojie%Li%NULL%1,         Wenhong%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paola%Valente%NULL%1,         Giancarlo%Iarossi%NULL%1,         Matteo%Federici%NULL%1,         Sergio%Petroni%NULL%1,         Paolo%Palma%NULL%1,         Nicola%Cotugno%NULL%1,         Maria A.%De Ioris%NULL%1,         Andrea%Campana%NULL%1,         Luca%Buzzonetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan Yu Jun%Seah%NULL%1,         Danielle E.%Anderson%NULL%1,         Adrian Eng Zheng%Kang%NULL%1,         Linfa%Wang%NULL%1,         Pooja%Rao%NULL%1,         Barnaby Edward%Young%NULL%0,         David Chien%Lye%NULL%1,         Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1087,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1038,7 +1116,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1067,7 +1145,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1096,7 +1174,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1125,7 +1203,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1154,7 +1232,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1183,7 +1261,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1212,7 +1290,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1241,7 +1319,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1270,7 +1348,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -1299,7 +1377,7 @@
         <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="F12" t="s">
         <v>79</v>
@@ -1328,7 +1406,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -1357,7 +1435,7 @@
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="F14" t="s">
         <v>88</v>

--- a/Covid_19_Dataset_and_References/References/97.xlsx
+++ b/Covid_19_Dataset_and_References/References/97.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="224">
   <si>
     <t>Doi</t>
   </si>
@@ -730,6 +730,84 @@
   </si>
   <si>
     <t>[Ivan Yu Jun%Seah%NULL%1,         Danielle E.%Anderson%NULL%1,         Adrian Eng Zheng%Kang%NULL%1,         Linfa%Wang%NULL%1,         Pooja%Rao%NULL%1,         Barnaby Edward%Young%NULL%0,         David Chien%Lye%NULL%1,         Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,          Zheng-yi%Ni%NULL%0,          Zheng-yi%Ni%NULL%0,          Yu%Hu%NULL%0,          Wen-hua%Liang%NULL%0,          Chun-quan%Ou%NULL%0,          Jian-xing%He%NULL%0,          Lei%Liu%NULL%0,          Hong%Shan%NULL%0,          Chun-liang%Lei%NULL%0,          David S.C.%Hui%NULL%0,          Bin%Du%NULL%0,          Lan-juan%Li%NULL%0,          Guang%Zeng%NULL%0,          Kwok-Yung%Yuen%NULL%0,          Ru-chong%Chen%NULL%0,          Chun-li%Tang%NULL%0,          Tao%Wang%NULL%0,          Ping-yan%Chen%NULL%0,          Jie%Xiang%NULL%0,          Shi-yue%Li%NULL%0,          Jin-lin%Wang%NULL%0,          Zi-jing%Liang%NULL%0,          Yi-xiang%Peng%NULL%0,          Li%Wei%NULL%0,          Yong%Liu%NULL%0,          Ya-hua%Hu%NULL%0,          Peng%Peng%NULL%0,          Jian-ming%Wang%NULL%0,          Ji-yang%Liu%NULL%0,          Zhong%Chen%NULL%0,          Gang%Li%NULL%0,          Zhi-jian%Zheng%NULL%0,          Shao-qin%Qiu%NULL%0,          Jie%Luo%NULL%0,          Chang-jiang%Ye%NULL%0,          Shao-yong%Zhu%NULL%0,          Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ping%Wu%NULL%1,          Fang%Duan%NULL%1,          Chunhua%Luo%NULL%1,          Qiang%Liu%NULL%0,          Xingguang%Qu%NULL%1,          Liang%Liang%NULL%1,          Kaili%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhang%NULL%1,          Xuhui%Chen%NULL%3,          Liwen%Chen%NULL%1,          Chaohua%Deng%NULL%3,          Xiaojing%Zou%NULL%0,          Xiaojing%Zou%NULL%0,          Weiyong%Liu%NULL%3,          Weiyong%Liu%NULL%0,          Huimin%Yu%NULL%3,          Huimin%Yu%NULL%0,          Bo%Chen%NULL%2,          Xufang%Sun%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianhua%Xia%NULL%1,          Jianping%Tong%NULL%1,          Mengyun%Liu%NULL%1,          Ye%Shen%idrshen@zju.edu.cn%1,          Dongyu%Guo%guodongyu666@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Hua-Tao%Xie%NULL%1,          Shi-Yun%Jiang%NULL%1,          Kang-Kang%Xu%NULL%1,          Xin%Liu%NULL%1,          Bing%Xu%NULL%1,          Lin%Wang%lin_wang@hust.edu.cn%0,          Ming-Chang%Zhang%mingchangzhang@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Liwen%Chen%NULL%1,          Chaohua%Deng%NULL%0,          Chaohua%Deng%NULL%0,          Xuhui%Chen%NULL%0,          Xuhui%Chen%NULL%0,          Xian%Zhang%NULL%1,          Bo%Chen%NULL%0,          Huimin%Yu%NULL%0,          Yuanjun%Qin%NULL%1,          Ke%Xiao%NULL%1,          Hong%Zhang%tjyksys@163.com%1,          Xufang%Sun%sunxufang2016@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kiran%Kumar%NULL%1,          Akshata A%Prakash%NULL%1,          Suresh Babu%Gangasagara%NULL%1,          Sujatha BL%Rathod%NULL%1,          K%Ravi%NULL%1,          Ambica%Rangaiah%NULL%1,          Sathyanarayan Muthur%Shankar%NULL%1,          Shantala Gowdara%Basawarajappa%NULL%1,          Shashi%Bhushan%NULL%1,          T G%Neeraja%NULL%1,          Srinivas%Khandenahalli%NULL%1,          M%Swetha%NULL%1,          Priyam%Gupta%NULL%1,          U C%Sampritha%NULL%1,          Guru N S%Prasad%NULL%1,          Chakravarthy Raghunathan%Jayanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yunyun%Zhou%NULL%1,          Chaoye%Duan%NULL%1,          Yuyang%Zeng%NULL%1,          Yongqing%Tong%NULL%1,          Yuhong%Nie%NULL%1,          Yang%Yang%NULL%0,          Zhen%Chen%NULL%1,          Changzheng%Chen%chenchangzheng@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Saeed%Karimi%NULL%1,          Amir%Arabi%amir_arab_91@yahoo.com%1,          Toktam%Shahraki%NULL%2,          Toktam%Shahraki%NULL%0,          Sare%Safi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%2,          Julie%Starck%NULL%1,          Michael%Levy%NULL%1,          Clémence%Marais%NULL%1,          Judith%Chareyre%NULL%1,          Diala%Khraiche%NULL%1,          Marianne%Leruez-Ville%NULL%1,          Pierre%Quartier%NULL%1,          Pierre Louis%Léger%NULL%1,          Guillaume%Geslain%NULL%1,          Nada%Semaan%NULL%1,          Florence%Moulin%NULL%1,          Matthieu%Bendavid%NULL%1,          Sandrine%Jean%NULL%1,          Géraldine%Poncelet%NULL%1,          Sylvain%Renolleau%NULL%1,          Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
+  </si>
+  <si>
+    <t>[Zhixiong%Fang%NULL%1,          Yi%Zhang%NULL%0,          Changfa%Hang%NULL%1,          Jingwen%Ai%NULL%1,          Shaojie%Li%NULL%1,          Wenhong%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paola%Valente%NULL%1,          Giancarlo%Iarossi%NULL%1,          Matteo%Federici%NULL%1,          Sergio%Petroni%NULL%1,          Paolo%Palma%NULL%1,          Nicola%Cotugno%NULL%1,          Maria A.%De Ioris%NULL%1,          Andrea%Campana%NULL%1,          Luca%Buzzonetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan Yu Jun%Seah%NULL%1,          Danielle E.%Anderson%NULL%1,          Adrian Eng Zheng%Kang%NULL%1,          Linfa%Wang%NULL%1,          Pooja%Rao%NULL%1,          Barnaby Edward%Young%NULL%0,          David Chien%Lye%NULL%1,          Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,           Zheng-yi%Ni%NULL%0,           Zheng-yi%Ni%NULL%0,           Yu%Hu%NULL%0,           Wen-hua%Liang%NULL%0,           Chun-quan%Ou%NULL%0,           Jian-xing%He%NULL%0,           Lei%Liu%NULL%0,           Hong%Shan%NULL%0,           Chun-liang%Lei%NULL%0,           David S.C.%Hui%NULL%0,           Bin%Du%NULL%0,           Lan-juan%Li%NULL%0,           Guang%Zeng%NULL%0,           Kwok-Yung%Yuen%NULL%0,           Ru-chong%Chen%NULL%0,           Chun-li%Tang%NULL%0,           Tao%Wang%NULL%0,           Ping-yan%Chen%NULL%0,           Jie%Xiang%NULL%0,           Shi-yue%Li%NULL%0,           Jin-lin%Wang%NULL%0,           Zi-jing%Liang%NULL%0,           Yi-xiang%Peng%NULL%0,           Li%Wei%NULL%0,           Yong%Liu%NULL%0,           Ya-hua%Hu%NULL%0,           Peng%Peng%NULL%0,           Jian-ming%Wang%NULL%0,           Ji-yang%Liu%NULL%0,           Zhong%Chen%NULL%0,           Gang%Li%NULL%0,           Zhi-jian%Zheng%NULL%0,           Shao-qin%Qiu%NULL%0,           Jie%Luo%NULL%0,           Chang-jiang%Ye%NULL%0,           Shao-yong%Zhu%NULL%0,           Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ping%Wu%NULL%1,           Fang%Duan%NULL%1,           Chunhua%Luo%NULL%1,           Qiang%Liu%NULL%0,           Xingguang%Qu%NULL%1,           Liang%Liang%NULL%1,           Kaili%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhang%NULL%1,           Xuhui%Chen%NULL%3,           Liwen%Chen%NULL%1,           Chaohua%Deng%NULL%3,           Xiaojing%Zou%NULL%0,           Xiaojing%Zou%NULL%0,           Weiyong%Liu%NULL%3,           Weiyong%Liu%NULL%0,           Huimin%Yu%NULL%3,           Huimin%Yu%NULL%0,           Bo%Chen%NULL%2,           Xufang%Sun%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianhua%Xia%NULL%1,           Jianping%Tong%NULL%1,           Mengyun%Liu%NULL%1,           Ye%Shen%idrshen@zju.edu.cn%1,           Dongyu%Guo%guodongyu666@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Hua-Tao%Xie%NULL%1,           Shi-Yun%Jiang%NULL%1,           Kang-Kang%Xu%NULL%1,           Xin%Liu%NULL%1,           Bing%Xu%NULL%1,           Lin%Wang%lin_wang@hust.edu.cn%0,           Ming-Chang%Zhang%mingchangzhang@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Liwen%Chen%NULL%1,           Chaohua%Deng%NULL%0,           Chaohua%Deng%NULL%0,           Xuhui%Chen%NULL%0,           Xuhui%Chen%NULL%0,           Xian%Zhang%NULL%1,           Bo%Chen%NULL%0,           Huimin%Yu%NULL%0,           Yuanjun%Qin%NULL%1,           Ke%Xiao%NULL%1,           Hong%Zhang%tjyksys@163.com%1,           Xufang%Sun%sunxufang2016@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kiran%Kumar%NULL%1,           Akshata A%Prakash%NULL%1,           Suresh Babu%Gangasagara%NULL%1,           Sujatha BL%Rathod%NULL%1,           K%Ravi%NULL%1,           Ambica%Rangaiah%NULL%1,           Sathyanarayan Muthur%Shankar%NULL%1,           Shantala Gowdara%Basawarajappa%NULL%1,           Shashi%Bhushan%NULL%1,           T G%Neeraja%NULL%1,           Srinivas%Khandenahalli%NULL%1,           M%Swetha%NULL%1,           Priyam%Gupta%NULL%1,           U C%Sampritha%NULL%1,           Guru N S%Prasad%NULL%1,           Chakravarthy Raghunathan%Jayanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yunyun%Zhou%NULL%1,           Chaoye%Duan%NULL%1,           Yuyang%Zeng%NULL%1,           Yongqing%Tong%NULL%1,           Yuhong%Nie%NULL%1,           Yang%Yang%NULL%0,           Zhen%Chen%NULL%1,           Changzheng%Chen%chenchangzheng@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Saeed%Karimi%NULL%1,           Amir%Arabi%amir_arab_91@yahoo.com%1,           Toktam%Shahraki%NULL%2,           Toktam%Shahraki%NULL%0,           Sare%Safi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%2,           Julie%Starck%NULL%1,           Michael%Levy%NULL%1,           Clémence%Marais%NULL%1,           Judith%Chareyre%NULL%1,           Diala%Khraiche%NULL%1,           Marianne%Leruez-Ville%NULL%1,           Pierre%Quartier%NULL%1,           Pierre Louis%Léger%NULL%1,           Guillaume%Geslain%NULL%1,           Nada%Semaan%NULL%1,           Florence%Moulin%NULL%1,           Matthieu%Bendavid%NULL%1,           Sandrine%Jean%NULL%1,           Géraldine%Poncelet%NULL%1,           Sylvain%Renolleau%NULL%1,           Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
+  </si>
+  <si>
+    <t>[Zhixiong%Fang%NULL%1,           Yi%Zhang%NULL%0,           Changfa%Hang%NULL%1,           Jingwen%Ai%NULL%1,           Shaojie%Li%NULL%1,           Wenhong%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paola%Valente%NULL%1,           Giancarlo%Iarossi%NULL%1,           Matteo%Federici%NULL%1,           Sergio%Petroni%NULL%1,           Paolo%Palma%NULL%1,           Nicola%Cotugno%NULL%1,           Maria A.%De Ioris%NULL%1,           Andrea%Campana%NULL%1,           Luca%Buzzonetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan Yu Jun%Seah%NULL%1,           Danielle E.%Anderson%NULL%1,           Adrian Eng Zheng%Kang%NULL%1,           Linfa%Wang%NULL%1,           Pooja%Rao%NULL%1,           Barnaby Edward%Young%NULL%0,           David Chien%Lye%NULL%1,           Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1165,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1116,7 +1194,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1145,7 +1223,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1174,7 +1252,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1203,7 +1281,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1232,7 +1310,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1261,7 +1339,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1290,7 +1368,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1319,7 +1397,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1348,7 +1426,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -1377,7 +1455,7 @@
         <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="F12" t="s">
         <v>79</v>
@@ -1406,7 +1484,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -1435,7 +1513,7 @@
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="F14" t="s">
         <v>88</v>

--- a/Covid_19_Dataset_and_References/References/97.xlsx
+++ b/Covid_19_Dataset_and_References/References/97.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="253">
   <si>
     <t>Doi</t>
   </si>
@@ -808,6 +808,130 @@
   </si>
   <si>
     <t>[Ivan Yu Jun%Seah%NULL%1,           Danielle E.%Anderson%NULL%1,           Adrian Eng Zheng%Kang%NULL%1,           Linfa%Wang%NULL%1,           Pooja%Rao%NULL%1,           Barnaby Edward%Young%NULL%0,           David Chien%Lye%NULL%1,           Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,            Zheng-yi%Ni%NULL%0,            Zheng-yi%Ni%NULL%0,            Yu%Hu%NULL%0,            Wen-hua%Liang%NULL%0,            Chun-quan%Ou%NULL%0,            Jian-xing%He%NULL%0,            Lei%Liu%NULL%0,            Hong%Shan%NULL%0,            Chun-liang%Lei%NULL%0,            David S.C.%Hui%NULL%0,            Bin%Du%NULL%0,            Lan-juan%Li%NULL%0,            Guang%Zeng%NULL%0,            Kwok-Yung%Yuen%NULL%0,            Ru-chong%Chen%NULL%0,            Chun-li%Tang%NULL%0,            Tao%Wang%NULL%0,            Ping-yan%Chen%NULL%0,            Jie%Xiang%NULL%0,            Shi-yue%Li%NULL%0,            Jin-lin%Wang%NULL%0,            Zi-jing%Liang%NULL%0,            Yi-xiang%Peng%NULL%0,            Li%Wei%NULL%0,            Yong%Liu%NULL%0,            Ya-hua%Hu%NULL%0,            Peng%Peng%NULL%0,            Jian-ming%Wang%NULL%0,            Ji-yang%Liu%NULL%0,            Zhong%Chen%NULL%0,            Gang%Li%NULL%0,            Zhi-jian%Zheng%NULL%0,            Shao-qin%Qiu%NULL%0,            Jie%Luo%NULL%0,            Chang-jiang%Ye%NULL%0,            Shao-yong%Zhu%NULL%0,            Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ping%Wu%NULL%1,            Fang%Duan%NULL%1,            Chunhua%Luo%NULL%1,            Qiang%Liu%NULL%0,            Xingguang%Qu%NULL%1,            Liang%Liang%NULL%1,            Kaili%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhang%NULL%1,            Xuhui%Chen%NULL%3,            Liwen%Chen%NULL%1,            Chaohua%Deng%NULL%3,            Xiaojing%Zou%NULL%0,            Xiaojing%Zou%NULL%0,            Weiyong%Liu%NULL%3,            Weiyong%Liu%NULL%0,            Huimin%Yu%NULL%3,            Huimin%Yu%NULL%0,            Bo%Chen%NULL%2,            Xufang%Sun%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianhua%Xia%NULL%1,            Jianping%Tong%NULL%1,            Mengyun%Liu%NULL%1,            Ye%Shen%idrshen@zju.edu.cn%1,            Dongyu%Guo%guodongyu666@sina.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 2019 novel coronavirus disease (COVID-19) caused by severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) has spread globally, while the routes of transmission of this virus are still controversial.
+ We enrolled 33 patients, without any ocular manifestation, with their ocular surface swabs collected for virus detection.
+ RNA was detected strong positive in samples of both eyes from two patients.
+ Therefore, SARS-CoV-2 may exist in the normal ocular surface of COVID-19 patients, suggesting that this virus might be spread through conjunctival contact.
+</t>
+  </si>
+  <si>
+    <t>[Hua-Tao%Xie%NULL%1,            Shi-Yun%Jiang%NULL%1,            Kang-Kang%Xu%NULL%1,            Xin%Liu%NULL%1,            Bing%Xu%NULL%1,            Lin%Wang%lin_wang@hust.edu.cn%0,            Ming-Chang%Zhang%mingchangzhang@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Liwen%Chen%NULL%1,            Chaohua%Deng%NULL%0,            Chaohua%Deng%NULL%0,            Xuhui%Chen%NULL%0,            Xuhui%Chen%NULL%0,            Xian%Zhang%NULL%1,            Bo%Chen%NULL%0,            Huimin%Yu%NULL%0,            Yuanjun%Qin%NULL%1,            Ke%Xiao%NULL%1,            Hong%Zhang%tjyksys@163.com%1,            Xufang%Sun%sunxufang2016@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kiran%Kumar%NULL%1,            Akshata A%Prakash%NULL%1,            Suresh Babu%Gangasagara%NULL%1,            Sujatha BL%Rathod%NULL%1,            K%Ravi%NULL%1,            Ambica%Rangaiah%NULL%1,            Sathyanarayan Muthur%Shankar%NULL%1,            Shantala Gowdara%Basawarajappa%NULL%1,            Shashi%Bhushan%NULL%1,            T G%Neeraja%NULL%1,            Srinivas%Khandenahalli%NULL%1,            M%Swetha%NULL%1,            Priyam%Gupta%NULL%1,            U C%Sampritha%NULL%1,            Guru N S%Prasad%NULL%1,            Chakravarthy Raghunathan%Jayanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yunyun%Zhou%NULL%1,            Chaoye%Duan%NULL%1,            Yuyang%Zeng%NULL%1,            Yongqing%Tong%NULL%1,            Yuhong%Nie%NULL%1,            Yang%Yang%NULL%0,            Zhen%Chen%NULL%1,            Changzheng%Chen%chenchangzheng@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+Since there are few reports on the ocular involvement of coronavirus disease 2019 (COVID-19) patients, this study aimed to assess the presence of severe acute respiratory syndrome Coronavirus-2 (SARS-CoV-2) in the tears of patients with COVID-19.
+Methods
+In this prospective case series, nasopharyngeal and tear sampling of 43 patients with severe COVID-19 were performed.
+ The quantitative reverse transcription polymerase chain reaction (RT-PCR) was conducted to detect SARS-CoV-2. Ocular and systemic signs and symptoms were recorded from their medical history.
+Results
+The mean age of patients was 56 ± 13 years.
+ The average disease time from initiation of symptoms was 3.27 days, range: 1–7 days.
+ Forty-one patients (95.3%) had fever at the time of sampling.
+ Only one patient had conjunctivitis.
+ Thirty (69.8%) nasopharyngeal and three (7%) tear samples were positive for SARS-CoV-2. The result of tear sample was positive in the patient with conjunctivitis.
+ All patients with positive tear RT-PCR results had positive nasopharyngeal RT-PCR results.
+Conclusions
+Ocular manifestation was rare in this series of severe COVID-19 patients, however, 7% of the patients had viral RNA in their conjunctival secretions.
+ Therefore, possibility of ocular transmission should be considered even in the absence of ocular manifestations.
+</t>
+  </si>
+  <si>
+    <t>[Saeed%Karimi%NULL%1,            Amir%Arabi%amir_arab_91@yahoo.com%1,            Toktam%Shahraki%NULL%2,            Toktam%Shahraki%NULL%0,            Sare%Safi%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+A recent increase in children admitted with hypotensive shock and fever in the context of the COVID-19 outbreak requires an urgent characterization and assessment of the involvement of SARS-CoV-2 infection.
+ This is a case series performed at 4 academic tertiary care centers in Paris of all the children admitted to the pediatric intensive care unit (PICU) with shock, fever and suspected SARS-CoV-2 infection between April 15th and April 27th, 2020.
+Results
+20 critically ill children admitted for shock had an acute myocarditis (left ventricular ejection fraction, 35% (25–55); troponin, 269 ng/mL (31–4607)), and arterial hypotension with mainly vasoplegic clinical presentation.
+ The first symptoms before PICU admission were intense abdominal pain and fever for 6 days (1–10).
+ All children had highly elevated C-reactive protein (&amp;gt; 94 mg/L) and procalcitonin (&amp;gt; 1.6 ng/mL) without microbial cause.
+ At least one feature of Kawasaki disease was found in all children (fever, n = 20, skin rash, n = 10; conjunctivitis, n = 6; cheilitis, n = 5; adenitis, n = 2), but none had the typical form.
+ SARS-CoV-2 PCR and serology were positive for 10 and 15 children, respectively.
+ One child had both negative SARS-CoV-2 PCR and serology, but had a typical SARS-CoV-2 chest tomography scan.
+ All children but one needed an inotropic/vasoactive drug support (epinephrine, n = 12; milrinone, n = 10; dobutamine, n = 6, norepinephrine, n = 4) and 8 were intubated.
+ All children received intravenous immunoglobulin (2 g per kilogram) with adjuvant corticosteroids (n = 2), IL 1 receptor antagonist (n = 1) or a monoclonal antibody against IL-6 receptor (n = 1).
+ All children survived and were afebrile with a full left ventricular function recovery at PICU discharge.
+Conclusions
+Acute myocarditis with intense systemic inflammation and atypical Kawasaki disease is an emerging severe pediatric disease following SARS-CoV-2 infection.
+ Early recognition of this disease is needed and referral to an expert center is recommended.
+ A delayed and inappropriate host immunological response is suspected.
+ While underlying mechanisms remain unclear, further investigations are required to target an optimal treatment.
+</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%2,            Julie%Starck%NULL%1,            Michael%Levy%NULL%1,            Clémence%Marais%NULL%1,            Judith%Chareyre%NULL%1,            Diala%Khraiche%NULL%1,            Marianne%Leruez-Ville%NULL%1,            Pierre%Quartier%NULL%1,            Pierre Louis%Léger%NULL%1,            Guillaume%Geslain%NULL%1,            Nada%Semaan%NULL%1,            Florence%Moulin%NULL%1,            Matthieu%Bendavid%NULL%1,            Sandrine%Jean%NULL%1,            Géraldine%Poncelet%NULL%1,            Sylvain%Renolleau%NULL%1,            Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
+  </si>
+  <si>
+    <t>[Zhixiong%Fang%NULL%1,            Yi%Zhang%NULL%0,            Changfa%Hang%NULL%1,            Jingwen%Ai%NULL%1,            Shaojie%Li%NULL%1,            Wenhong%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paola%Valente%NULL%1,            Giancarlo%Iarossi%NULL%1,            Matteo%Federici%NULL%1,            Sergio%Petroni%NULL%1,            Paolo%Palma%NULL%1,            Nicola%Cotugno%NULL%1,            Maria A.%De Ioris%NULL%1,            Andrea%Campana%NULL%1,            Luca%Buzzonetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan Yu Jun%Seah%NULL%1,            Danielle E.%Anderson%NULL%1,            Adrian Eng Zheng%Kang%NULL%1,            Linfa%Wang%NULL%1,            Pooja%Rao%NULL%1,            Barnaby Edward%Young%NULL%0,            David Chien%Lye%NULL%1,            Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,             Zheng-yi%Ni%NULL%0,             Zheng-yi%Ni%NULL%0,             Yu%Hu%NULL%0,             Wen-hua%Liang%NULL%0,             Chun-quan%Ou%NULL%0,             Jian-xing%He%NULL%0,             Lei%Liu%NULL%0,             Hong%Shan%NULL%0,             Chun-liang%Lei%NULL%0,             David S.C.%Hui%NULL%0,             Bin%Du%NULL%0,             Lan-juan%Li%NULL%0,             Guang%Zeng%NULL%0,             Kwok-Yung%Yuen%NULL%0,             Ru-chong%Chen%NULL%0,             Chun-li%Tang%NULL%0,             Tao%Wang%NULL%0,             Ping-yan%Chen%NULL%0,             Jie%Xiang%NULL%0,             Shi-yue%Li%NULL%0,             Jin-lin%Wang%NULL%0,             Zi-jing%Liang%NULL%0,             Yi-xiang%Peng%NULL%0,             Li%Wei%NULL%0,             Yong%Liu%NULL%0,             Ya-hua%Hu%NULL%0,             Peng%Peng%NULL%0,             Jian-ming%Wang%NULL%0,             Ji-yang%Liu%NULL%0,             Zhong%Chen%NULL%0,             Gang%Li%NULL%0,             Zhi-jian%Zheng%NULL%0,             Shao-qin%Qiu%NULL%0,             Jie%Luo%NULL%0,             Chang-jiang%Ye%NULL%0,             Shao-yong%Zhu%NULL%0,             Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ping%Wu%NULL%1,             Fang%Duan%NULL%1,             Chunhua%Luo%NULL%1,             Qiang%Liu%NULL%0,             Xingguang%Qu%NULL%1,             Liang%Liang%NULL%1,             Kaili%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhang%NULL%1,             Xuhui%Chen%NULL%3,             Liwen%Chen%NULL%1,             Chaohua%Deng%NULL%3,             Xiaojing%Zou%NULL%0,             Xiaojing%Zou%NULL%0,             Weiyong%Liu%NULL%3,             Weiyong%Liu%NULL%0,             Huimin%Yu%NULL%3,             Huimin%Yu%NULL%0,             Bo%Chen%NULL%2,             Xufang%Sun%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianhua%Xia%NULL%1,             Jianping%Tong%NULL%1,             Mengyun%Liu%NULL%1,             Ye%Shen%idrshen@zju.edu.cn%1,             Dongyu%Guo%guodongyu666@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Hua-Tao%Xie%NULL%1,             Shi-Yun%Jiang%NULL%1,             Kang-Kang%Xu%NULL%1,             Xin%Liu%NULL%1,             Bing%Xu%NULL%1,             Lin%Wang%lin_wang@hust.edu.cn%0,             Ming-Chang%Zhang%mingchangzhang@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Liwen%Chen%NULL%1,             Chaohua%Deng%NULL%0,             Chaohua%Deng%NULL%0,             Xuhui%Chen%NULL%0,             Xuhui%Chen%NULL%0,             Xian%Zhang%NULL%1,             Bo%Chen%NULL%0,             Huimin%Yu%NULL%0,             Yuanjun%Qin%NULL%1,             Ke%Xiao%NULL%1,             Hong%Zhang%tjyksys@163.com%1,             Xufang%Sun%sunxufang2016@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kiran%Kumar%NULL%1,             Akshata A%Prakash%NULL%1,             Suresh Babu%Gangasagara%NULL%1,             Sujatha BL%Rathod%NULL%1,             K%Ravi%NULL%1,             Ambica%Rangaiah%NULL%1,             Sathyanarayan Muthur%Shankar%NULL%1,             Shantala Gowdara%Basawarajappa%NULL%1,             Shashi%Bhushan%NULL%1,             T G%Neeraja%NULL%1,             Srinivas%Khandenahalli%NULL%1,             M%Swetha%NULL%1,             Priyam%Gupta%NULL%1,             U C%Sampritha%NULL%1,             Guru N S%Prasad%NULL%1,             Chakravarthy Raghunathan%Jayanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yunyun%Zhou%NULL%1,             Chaoye%Duan%NULL%1,             Yuyang%Zeng%NULL%1,             Yongqing%Tong%NULL%1,             Yuhong%Nie%NULL%1,             Yang%Yang%NULL%0,             Zhen%Chen%NULL%1,             Changzheng%Chen%chenchangzheng@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Saeed%Karimi%NULL%1,             Amir%Arabi%amir_arab_91@yahoo.com%1,             Toktam%Shahraki%NULL%2,             Toktam%Shahraki%NULL%0,             Sare%Safi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%2,             Julie%Starck%NULL%1,             Michael%Levy%NULL%1,             Clémence%Marais%NULL%1,             Judith%Chareyre%NULL%1,             Diala%Khraiche%NULL%1,             Marianne%Leruez-Ville%NULL%1,             Pierre%Quartier%NULL%1,             Pierre Louis%Léger%NULL%1,             Guillaume%Geslain%NULL%1,             Nada%Semaan%NULL%1,             Florence%Moulin%NULL%1,             Matthieu%Bendavid%NULL%1,             Sandrine%Jean%NULL%1,             Géraldine%Poncelet%NULL%1,             Sylvain%Renolleau%NULL%1,             Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
+  </si>
+  <si>
+    <t>[Zhixiong%Fang%NULL%1,             Yi%Zhang%NULL%0,             Changfa%Hang%NULL%1,             Jingwen%Ai%NULL%1,             Shaojie%Li%NULL%1,             Wenhong%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paola%Valente%NULL%1,             Giancarlo%Iarossi%NULL%1,             Matteo%Federici%NULL%1,             Sergio%Petroni%NULL%1,             Paolo%Palma%NULL%1,             Nicola%Cotugno%NULL%1,             Maria A.%De Ioris%NULL%1,             Andrea%Campana%NULL%1,             Luca%Buzzonetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan Yu Jun%Seah%NULL%1,             Danielle E.%Anderson%NULL%1,             Adrian Eng Zheng%Kang%NULL%1,             Linfa%Wang%NULL%1,             Pooja%Rao%NULL%1,             Barnaby Edward%Young%NULL%0,             David Chien%Lye%NULL%1,             Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1289,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1194,7 +1318,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1223,7 +1347,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1252,7 +1376,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1278,10 +1402,10 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>228</v>
       </c>
       <c r="E6" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1310,7 +1434,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1339,7 +1463,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1368,7 +1492,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1394,10 +1518,10 @@
         <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>233</v>
       </c>
       <c r="E10" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1423,10 +1547,10 @@
         <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>235</v>
       </c>
       <c r="E11" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -1455,7 +1579,7 @@
         <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="F12" t="s">
         <v>79</v>
@@ -1484,7 +1608,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -1513,7 +1637,7 @@
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="F14" t="s">
         <v>88</v>

--- a/Covid_19_Dataset_and_References/References/97.xlsx
+++ b/Covid_19_Dataset_and_References/References/97.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="266">
   <si>
     <t>Doi</t>
   </si>
@@ -932,6 +932,45 @@
   </si>
   <si>
     <t>[Ivan Yu Jun%Seah%NULL%1,             Danielle E.%Anderson%NULL%1,             Adrian Eng Zheng%Kang%NULL%1,             Linfa%Wang%NULL%1,             Pooja%Rao%NULL%1,             Barnaby Edward%Young%NULL%0,             David Chien%Lye%NULL%1,             Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,              Zheng-yi%Ni%NULL%0,              Zheng-yi%Ni%NULL%0,              Yu%Hu%NULL%0,              Wen-hua%Liang%NULL%0,              Chun-quan%Ou%NULL%0,              Jian-xing%He%NULL%0,              Lei%Liu%NULL%0,              Hong%Shan%NULL%0,              Chun-liang%Lei%NULL%0,              David S.C.%Hui%NULL%0,              Bin%Du%NULL%0,              Lan-juan%Li%NULL%0,              Guang%Zeng%NULL%0,              Kwok-Yung%Yuen%NULL%0,              Ru-chong%Chen%NULL%0,              Chun-li%Tang%NULL%0,              Tao%Wang%NULL%0,              Ping-yan%Chen%NULL%0,              Jie%Xiang%NULL%0,              Shi-yue%Li%NULL%0,              Jin-lin%Wang%NULL%0,              Zi-jing%Liang%NULL%0,              Yi-xiang%Peng%NULL%0,              Li%Wei%NULL%0,              Yong%Liu%NULL%0,              Ya-hua%Hu%NULL%0,              Peng%Peng%NULL%0,              Jian-ming%Wang%NULL%0,              Ji-yang%Liu%NULL%0,              Zhong%Chen%NULL%0,              Gang%Li%NULL%0,              Zhi-jian%Zheng%NULL%0,              Shao-qin%Qiu%NULL%0,              Jie%Luo%NULL%0,              Chang-jiang%Ye%NULL%0,              Shao-yong%Zhu%NULL%0,              Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ping%Wu%NULL%1,              Fang%Duan%NULL%1,              Chunhua%Luo%NULL%1,              Qiang%Liu%NULL%0,              Xingguang%Qu%NULL%1,              Liang%Liang%NULL%1,              Kaili%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhang%NULL%1,              Xuhui%Chen%NULL%3,              Liwen%Chen%NULL%1,              Chaohua%Deng%NULL%3,              Xiaojing%Zou%NULL%0,              Xiaojing%Zou%NULL%0,              Weiyong%Liu%NULL%3,              Weiyong%Liu%NULL%0,              Huimin%Yu%NULL%3,              Huimin%Yu%NULL%0,              Bo%Chen%NULL%2,              Xufang%Sun%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianhua%Xia%NULL%1,              Jianping%Tong%NULL%1,              Mengyun%Liu%NULL%1,              Ye%Shen%idrshen@zju.edu.cn%1,              Dongyu%Guo%guodongyu666@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Hua-Tao%Xie%NULL%1,              Shi-Yun%Jiang%NULL%1,              Kang-Kang%Xu%NULL%1,              Xin%Liu%NULL%1,              Bing%Xu%NULL%1,              Lin%Wang%lin_wang@hust.edu.cn%0,              Ming-Chang%Zhang%mingchangzhang@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Liwen%Chen%NULL%1,              Chaohua%Deng%NULL%0,              Chaohua%Deng%NULL%0,              Xuhui%Chen%NULL%0,              Xuhui%Chen%NULL%0,              Xian%Zhang%NULL%1,              Bo%Chen%NULL%0,              Huimin%Yu%NULL%0,              Yuanjun%Qin%NULL%1,              Ke%Xiao%NULL%1,              Hong%Zhang%tjyksys@163.com%1,              Xufang%Sun%sunxufang2016@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kiran%Kumar%NULL%1,              Akshata A%Prakash%NULL%1,              Suresh Babu%Gangasagara%NULL%1,              Sujatha BL%Rathod%NULL%1,              K%Ravi%NULL%1,              Ambica%Rangaiah%NULL%1,              Sathyanarayan Muthur%Shankar%NULL%1,              Shantala Gowdara%Basawarajappa%NULL%1,              Shashi%Bhushan%NULL%1,              T G%Neeraja%NULL%1,              Srinivas%Khandenahalli%NULL%1,              M%Swetha%NULL%1,              Priyam%Gupta%NULL%1,              U C%Sampritha%NULL%1,              Guru N S%Prasad%NULL%1,              Chakravarthy Raghunathan%Jayanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yunyun%Zhou%NULL%1,              Chaoye%Duan%NULL%1,              Yuyang%Zeng%NULL%1,              Yongqing%Tong%NULL%1,              Yuhong%Nie%NULL%1,              Yang%Yang%NULL%0,              Zhen%Chen%NULL%1,              Changzheng%Chen%chenchangzheng@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Saeed%Karimi%NULL%1,              Amir%Arabi%amir_arab_91@yahoo.com%1,              Toktam%Shahraki%NULL%2,              Toktam%Shahraki%NULL%0,              Sare%Safi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%2,              Julie%Starck%NULL%1,              Michael%Levy%NULL%1,              Clémence%Marais%NULL%1,              Judith%Chareyre%NULL%1,              Diala%Khraiche%NULL%1,              Marianne%Leruez-Ville%NULL%1,              Pierre%Quartier%NULL%1,              Pierre Louis%Léger%NULL%1,              Guillaume%Geslain%NULL%1,              Nada%Semaan%NULL%1,              Florence%Moulin%NULL%1,              Matthieu%Bendavid%NULL%1,              Sandrine%Jean%NULL%1,              Géraldine%Poncelet%NULL%1,              Sylvain%Renolleau%NULL%1,              Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
+  </si>
+  <si>
+    <t>[Zhixiong%Fang%NULL%1,              Yi%Zhang%NULL%0,              Changfa%Hang%NULL%1,              Jingwen%Ai%NULL%1,              Shaojie%Li%NULL%1,              Wenhong%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paola%Valente%NULL%1,              Giancarlo%Iarossi%NULL%1,              Matteo%Federici%NULL%1,              Sergio%Petroni%NULL%1,              Paolo%Palma%NULL%1,              Nicola%Cotugno%NULL%1,              Maria A.%De Ioris%NULL%1,              Andrea%Campana%NULL%1,              Luca%Buzzonetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan Yu Jun%Seah%NULL%1,              Danielle E.%Anderson%NULL%1,              Adrian Eng Zheng%Kang%NULL%1,              Linfa%Wang%NULL%1,              Pooja%Rao%NULL%1,              Barnaby Edward%Young%NULL%0,              David Chien%Lye%NULL%1,              Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1328,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1318,7 +1357,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1347,7 +1386,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1376,7 +1415,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1405,7 +1444,7 @@
         <v>228</v>
       </c>
       <c r="E6" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1434,7 +1473,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1463,7 +1502,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1492,7 +1531,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1521,7 +1560,7 @@
         <v>233</v>
       </c>
       <c r="E10" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1550,7 +1589,7 @@
         <v>235</v>
       </c>
       <c r="E11" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -1579,7 +1618,7 @@
         <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="F12" t="s">
         <v>79</v>
@@ -1608,7 +1647,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -1637,7 +1676,7 @@
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="F14" t="s">
         <v>88</v>

--- a/Covid_19_Dataset_and_References/References/97.xlsx
+++ b/Covid_19_Dataset_and_References/References/97.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="279">
   <si>
     <t>Doi</t>
   </si>
@@ -971,6 +971,45 @@
   </si>
   <si>
     <t>[Ivan Yu Jun%Seah%NULL%1,              Danielle E.%Anderson%NULL%1,              Adrian Eng Zheng%Kang%NULL%1,              Linfa%Wang%NULL%1,              Pooja%Rao%NULL%1,              Barnaby Edward%Young%NULL%0,              David Chien%Lye%NULL%1,              Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,               Zheng-yi%Ni%NULL%0,               Zheng-yi%Ni%NULL%0,               Yu%Hu%NULL%0,               Wen-hua%Liang%NULL%0,               Chun-quan%Ou%NULL%0,               Jian-xing%He%NULL%0,               Lei%Liu%NULL%0,               Hong%Shan%NULL%0,               Chun-liang%Lei%NULL%0,               David S.C.%Hui%NULL%0,               Bin%Du%NULL%0,               Lan-juan%Li%NULL%0,               Guang%Zeng%NULL%0,               Kwok-Yung%Yuen%NULL%0,               Ru-chong%Chen%NULL%0,               Chun-li%Tang%NULL%0,               Tao%Wang%NULL%0,               Ping-yan%Chen%NULL%0,               Jie%Xiang%NULL%0,               Shi-yue%Li%NULL%0,               Jin-lin%Wang%NULL%0,               Zi-jing%Liang%NULL%0,               Yi-xiang%Peng%NULL%0,               Li%Wei%NULL%0,               Yong%Liu%NULL%0,               Ya-hua%Hu%NULL%0,               Peng%Peng%NULL%0,               Jian-ming%Wang%NULL%0,               Ji-yang%Liu%NULL%0,               Zhong%Chen%NULL%0,               Gang%Li%NULL%0,               Zhi-jian%Zheng%NULL%0,               Shao-qin%Qiu%NULL%0,               Jie%Luo%NULL%0,               Chang-jiang%Ye%NULL%0,               Shao-yong%Zhu%NULL%0,               Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ping%Wu%NULL%1,               Fang%Duan%NULL%1,               Chunhua%Luo%NULL%1,               Qiang%Liu%NULL%0,               Xingguang%Qu%NULL%1,               Liang%Liang%NULL%1,               Kaili%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhang%NULL%1,               Xuhui%Chen%NULL%3,               Liwen%Chen%NULL%1,               Chaohua%Deng%NULL%3,               Xiaojing%Zou%NULL%0,               Xiaojing%Zou%NULL%0,               Weiyong%Liu%NULL%3,               Weiyong%Liu%NULL%0,               Huimin%Yu%NULL%3,               Huimin%Yu%NULL%0,               Bo%Chen%NULL%2,               Xufang%Sun%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianhua%Xia%NULL%1,               Jianping%Tong%NULL%1,               Mengyun%Liu%NULL%1,               Ye%Shen%idrshen@zju.edu.cn%1,               Dongyu%Guo%guodongyu666@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Hua-Tao%Xie%NULL%1,               Shi-Yun%Jiang%NULL%1,               Kang-Kang%Xu%NULL%1,               Xin%Liu%NULL%1,               Bing%Xu%NULL%1,               Lin%Wang%lin_wang@hust.edu.cn%0,               Ming-Chang%Zhang%mingchangzhang@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Liwen%Chen%NULL%1,               Chaohua%Deng%NULL%0,               Chaohua%Deng%NULL%0,               Xuhui%Chen%NULL%0,               Xuhui%Chen%NULL%0,               Xian%Zhang%NULL%1,               Bo%Chen%NULL%0,               Huimin%Yu%NULL%0,               Yuanjun%Qin%NULL%1,               Ke%Xiao%NULL%1,               Hong%Zhang%tjyksys@163.com%1,               Xufang%Sun%sunxufang2016@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kiran%Kumar%NULL%1,               Akshata A%Prakash%NULL%1,               Suresh Babu%Gangasagara%NULL%1,               Sujatha BL%Rathod%NULL%1,               K%Ravi%NULL%1,               Ambica%Rangaiah%NULL%1,               Sathyanarayan Muthur%Shankar%NULL%1,               Shantala Gowdara%Basawarajappa%NULL%1,               Shashi%Bhushan%NULL%1,               T G%Neeraja%NULL%1,               Srinivas%Khandenahalli%NULL%1,               M%Swetha%NULL%1,               Priyam%Gupta%NULL%1,               U C%Sampritha%NULL%1,               Guru N S%Prasad%NULL%1,               Chakravarthy Raghunathan%Jayanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yunyun%Zhou%NULL%1,               Chaoye%Duan%NULL%1,               Yuyang%Zeng%NULL%1,               Yongqing%Tong%NULL%1,               Yuhong%Nie%NULL%1,               Yang%Yang%NULL%0,               Zhen%Chen%NULL%1,               Changzheng%Chen%chenchangzheng@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Saeed%Karimi%NULL%1,               Amir%Arabi%amir_arab_91@yahoo.com%1,               Toktam%Shahraki%NULL%2,               Toktam%Shahraki%NULL%0,               Sare%Safi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%2,               Julie%Starck%NULL%1,               Michael%Levy%NULL%1,               Clémence%Marais%NULL%1,               Judith%Chareyre%NULL%1,               Diala%Khraiche%NULL%1,               Marianne%Leruez-Ville%NULL%1,               Pierre%Quartier%NULL%1,               Pierre Louis%Léger%NULL%1,               Guillaume%Geslain%NULL%1,               Nada%Semaan%NULL%1,               Florence%Moulin%NULL%1,               Matthieu%Bendavid%NULL%1,               Sandrine%Jean%NULL%1,               Géraldine%Poncelet%NULL%1,               Sylvain%Renolleau%NULL%1,               Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
+  </si>
+  <si>
+    <t>[Zhixiong%Fang%NULL%1,               Yi%Zhang%NULL%0,               Changfa%Hang%NULL%1,               Jingwen%Ai%NULL%1,               Shaojie%Li%NULL%1,               Wenhong%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paola%Valente%NULL%1,               Giancarlo%Iarossi%NULL%1,               Matteo%Federici%NULL%1,               Sergio%Petroni%NULL%1,               Paolo%Palma%NULL%1,               Nicola%Cotugno%NULL%1,               Maria A.%De Ioris%NULL%1,               Andrea%Campana%NULL%1,               Luca%Buzzonetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan Yu Jun%Seah%NULL%1,               Danielle E.%Anderson%NULL%1,               Adrian Eng Zheng%Kang%NULL%1,               Linfa%Wang%NULL%1,               Pooja%Rao%NULL%1,               Barnaby Edward%Young%NULL%0,               David Chien%Lye%NULL%1,               Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
   </si>
 </sst>
 </file>
@@ -1328,7 +1367,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1357,7 +1396,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1386,7 +1425,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1415,7 +1454,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1444,7 +1483,7 @@
         <v>228</v>
       </c>
       <c r="E6" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1473,7 +1512,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1502,7 +1541,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1531,7 +1570,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1560,7 +1599,7 @@
         <v>233</v>
       </c>
       <c r="E10" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1589,7 +1628,7 @@
         <v>235</v>
       </c>
       <c r="E11" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -1618,7 +1657,7 @@
         <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="F12" t="s">
         <v>79</v>
@@ -1647,7 +1686,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -1676,7 +1715,7 @@
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F14" t="s">
         <v>88</v>

--- a/Covid_19_Dataset_and_References/References/97.xlsx
+++ b/Covid_19_Dataset_and_References/References/97.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="305">
   <si>
     <t>Doi</t>
   </si>
@@ -1010,6 +1010,84 @@
   </si>
   <si>
     <t>[Ivan Yu Jun%Seah%NULL%1,               Danielle E.%Anderson%NULL%1,               Adrian Eng Zheng%Kang%NULL%1,               Linfa%Wang%NULL%1,               Pooja%Rao%NULL%1,               Barnaby Edward%Young%NULL%0,               David Chien%Lye%NULL%1,               Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                Zheng-yi%Ni%NULL%0,                Zheng-yi%Ni%NULL%0,                Yu%Hu%NULL%0,                Wen-hua%Liang%NULL%0,                Chun-quan%Ou%NULL%0,                Jian-xing%He%NULL%0,                Lei%Liu%NULL%0,                Hong%Shan%NULL%0,                Chun-liang%Lei%NULL%0,                David S.C.%Hui%NULL%0,                Bin%Du%NULL%0,                Lan-juan%Li%NULL%0,                Guang%Zeng%NULL%0,                Kwok-Yung%Yuen%NULL%0,                Ru-chong%Chen%NULL%0,                Chun-li%Tang%NULL%0,                Tao%Wang%NULL%0,                Ping-yan%Chen%NULL%0,                Jie%Xiang%NULL%0,                Shi-yue%Li%NULL%0,                Jin-lin%Wang%NULL%0,                Zi-jing%Liang%NULL%0,                Yi-xiang%Peng%NULL%0,                Li%Wei%NULL%0,                Yong%Liu%NULL%0,                Ya-hua%Hu%NULL%0,                Peng%Peng%NULL%0,                Jian-ming%Wang%NULL%0,                Ji-yang%Liu%NULL%0,                Zhong%Chen%NULL%0,                Gang%Li%NULL%0,                Zhi-jian%Zheng%NULL%0,                Shao-qin%Qiu%NULL%0,                Jie%Luo%NULL%0,                Chang-jiang%Ye%NULL%0,                Shao-yong%Zhu%NULL%0,                Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ping%Wu%NULL%1,                Fang%Duan%NULL%1,                Chunhua%Luo%NULL%1,                Qiang%Liu%NULL%0,                Xingguang%Qu%NULL%1,                Liang%Liang%NULL%1,                Kaili%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhang%NULL%1,                Xuhui%Chen%NULL%3,                Liwen%Chen%NULL%1,                Chaohua%Deng%NULL%3,                Xiaojing%Zou%NULL%0,                Xiaojing%Zou%NULL%0,                Weiyong%Liu%NULL%3,                Weiyong%Liu%NULL%0,                Huimin%Yu%NULL%3,                Huimin%Yu%NULL%0,                Bo%Chen%NULL%2,                Xufang%Sun%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianhua%Xia%NULL%1,                Jianping%Tong%NULL%1,                Mengyun%Liu%NULL%1,                Ye%Shen%idrshen@zju.edu.cn%1,                Dongyu%Guo%guodongyu666@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Hua-Tao%Xie%NULL%1,                Shi-Yun%Jiang%NULL%1,                Kang-Kang%Xu%NULL%1,                Xin%Liu%NULL%1,                Bing%Xu%NULL%1,                Lin%Wang%lin_wang@hust.edu.cn%0,                Ming-Chang%Zhang%mingchangzhang@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Liwen%Chen%NULL%1,                Chaohua%Deng%NULL%0,                Chaohua%Deng%NULL%0,                Xuhui%Chen%NULL%0,                Xuhui%Chen%NULL%0,                Xian%Zhang%NULL%1,                Bo%Chen%NULL%0,                Huimin%Yu%NULL%0,                Yuanjun%Qin%NULL%1,                Ke%Xiao%NULL%1,                Hong%Zhang%tjyksys@163.com%1,                Xufang%Sun%sunxufang2016@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kiran%Kumar%NULL%1,                Akshata A%Prakash%NULL%1,                Suresh Babu%Gangasagara%NULL%1,                Sujatha BL%Rathod%NULL%1,                K%Ravi%NULL%1,                Ambica%Rangaiah%NULL%1,                Sathyanarayan Muthur%Shankar%NULL%1,                Shantala Gowdara%Basawarajappa%NULL%1,                Shashi%Bhushan%NULL%1,                T G%Neeraja%NULL%1,                Srinivas%Khandenahalli%NULL%1,                M%Swetha%NULL%1,                Priyam%Gupta%NULL%1,                U C%Sampritha%NULL%1,                Guru N S%Prasad%NULL%1,                Chakravarthy Raghunathan%Jayanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yunyun%Zhou%NULL%1,                Chaoye%Duan%NULL%1,                Yuyang%Zeng%NULL%1,                Yongqing%Tong%NULL%1,                Yuhong%Nie%NULL%1,                Yang%Yang%NULL%0,                Zhen%Chen%NULL%1,                Changzheng%Chen%chenchangzheng@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Saeed%Karimi%NULL%1,                Amir%Arabi%amir_arab_91@yahoo.com%1,                Toktam%Shahraki%NULL%2,                Toktam%Shahraki%NULL%0,                Sare%Safi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%2,                Julie%Starck%NULL%1,                Michael%Levy%NULL%1,                Clémence%Marais%NULL%1,                Judith%Chareyre%NULL%1,                Diala%Khraiche%NULL%1,                Marianne%Leruez-Ville%NULL%1,                Pierre%Quartier%NULL%1,                Pierre Louis%Léger%NULL%1,                Guillaume%Geslain%NULL%1,                Nada%Semaan%NULL%1,                Florence%Moulin%NULL%1,                Matthieu%Bendavid%NULL%1,                Sandrine%Jean%NULL%1,                Géraldine%Poncelet%NULL%1,                Sylvain%Renolleau%NULL%1,                Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
+  </si>
+  <si>
+    <t>[Zhixiong%Fang%NULL%1,                Yi%Zhang%NULL%0,                Changfa%Hang%NULL%1,                Jingwen%Ai%NULL%1,                Shaojie%Li%NULL%1,                Wenhong%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paola%Valente%NULL%1,                Giancarlo%Iarossi%NULL%1,                Matteo%Federici%NULL%1,                Sergio%Petroni%NULL%1,                Paolo%Palma%NULL%1,                Nicola%Cotugno%NULL%1,                Maria A.%De Ioris%NULL%1,                Andrea%Campana%NULL%1,                Luca%Buzzonetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan Yu Jun%Seah%NULL%1,                Danielle E.%Anderson%NULL%1,                Adrian Eng Zheng%Kang%NULL%1,                Linfa%Wang%NULL%1,                Pooja%Rao%NULL%1,                Barnaby Edward%Young%NULL%0,                David Chien%Lye%NULL%1,                Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                 Zheng-yi%Ni%NULL%0,                 Zheng-yi%Ni%NULL%0,                 Yu%Hu%NULL%0,                 Wen-hua%Liang%NULL%0,                 Chun-quan%Ou%NULL%0,                 Jian-xing%He%NULL%0,                 Lei%Liu%NULL%0,                 Hong%Shan%NULL%0,                 Chun-liang%Lei%NULL%0,                 David S.C.%Hui%NULL%0,                 Bin%Du%NULL%0,                 Lan-juan%Li%NULL%0,                 Guang%Zeng%NULL%0,                 Kwok-Yung%Yuen%NULL%0,                 Ru-chong%Chen%NULL%0,                 Chun-li%Tang%NULL%0,                 Tao%Wang%NULL%0,                 Ping-yan%Chen%NULL%0,                 Jie%Xiang%NULL%0,                 Shi-yue%Li%NULL%0,                 Jin-lin%Wang%NULL%0,                 Zi-jing%Liang%NULL%0,                 Yi-xiang%Peng%NULL%0,                 Li%Wei%NULL%0,                 Yong%Liu%NULL%0,                 Ya-hua%Hu%NULL%0,                 Peng%Peng%NULL%0,                 Jian-ming%Wang%NULL%0,                 Ji-yang%Liu%NULL%0,                 Zhong%Chen%NULL%0,                 Gang%Li%NULL%0,                 Zhi-jian%Zheng%NULL%0,                 Shao-qin%Qiu%NULL%0,                 Jie%Luo%NULL%0,                 Chang-jiang%Ye%NULL%0,                 Shao-yong%Zhu%NULL%0,                 Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ping%Wu%NULL%1,                 Fang%Duan%NULL%1,                 Chunhua%Luo%NULL%1,                 Qiang%Liu%NULL%0,                 Xingguang%Qu%NULL%1,                 Liang%Liang%NULL%1,                 Kaili%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhang%NULL%1,                 Xuhui%Chen%NULL%3,                 Liwen%Chen%NULL%1,                 Chaohua%Deng%NULL%3,                 Xiaojing%Zou%NULL%0,                 Xiaojing%Zou%NULL%0,                 Weiyong%Liu%NULL%3,                 Weiyong%Liu%NULL%0,                 Huimin%Yu%NULL%3,                 Huimin%Yu%NULL%0,                 Bo%Chen%NULL%2,                 Xufang%Sun%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianhua%Xia%NULL%1,                 Jianping%Tong%NULL%1,                 Mengyun%Liu%NULL%1,                 Ye%Shen%idrshen@zju.edu.cn%1,                 Dongyu%Guo%guodongyu666@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Hua-Tao%Xie%NULL%1,                 Shi-Yun%Jiang%NULL%1,                 Kang-Kang%Xu%NULL%1,                 Xin%Liu%NULL%1,                 Bing%Xu%NULL%1,                 Lin%Wang%lin_wang@hust.edu.cn%0,                 Ming-Chang%Zhang%mingchangzhang@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Liwen%Chen%NULL%1,                 Chaohua%Deng%NULL%0,                 Chaohua%Deng%NULL%0,                 Xuhui%Chen%NULL%0,                 Xuhui%Chen%NULL%0,                 Xian%Zhang%NULL%1,                 Bo%Chen%NULL%0,                 Huimin%Yu%NULL%0,                 Yuanjun%Qin%NULL%1,                 Ke%Xiao%NULL%1,                 Hong%Zhang%tjyksys@163.com%1,                 Xufang%Sun%sunxufang2016@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kiran%Kumar%NULL%1,                 Akshata A%Prakash%NULL%1,                 Suresh Babu%Gangasagara%NULL%1,                 Sujatha BL%Rathod%NULL%1,                 K%Ravi%NULL%1,                 Ambica%Rangaiah%NULL%1,                 Sathyanarayan Muthur%Shankar%NULL%1,                 Shantala Gowdara%Basawarajappa%NULL%1,                 Shashi%Bhushan%NULL%1,                 T G%Neeraja%NULL%1,                 Srinivas%Khandenahalli%NULL%1,                 M%Swetha%NULL%1,                 Priyam%Gupta%NULL%1,                 U C%Sampritha%NULL%1,                 Guru N S%Prasad%NULL%1,                 Chakravarthy Raghunathan%Jayanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yunyun%Zhou%NULL%1,                 Chaoye%Duan%NULL%1,                 Yuyang%Zeng%NULL%1,                 Yongqing%Tong%NULL%1,                 Yuhong%Nie%NULL%1,                 Yang%Yang%NULL%0,                 Zhen%Chen%NULL%1,                 Changzheng%Chen%chenchangzheng@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Saeed%Karimi%NULL%1,                 Amir%Arabi%amir_arab_91@yahoo.com%1,                 Toktam%Shahraki%NULL%2,                 Toktam%Shahraki%NULL%0,                 Sare%Safi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%2,                 Julie%Starck%NULL%1,                 Michael%Levy%NULL%1,                 Clémence%Marais%NULL%1,                 Judith%Chareyre%NULL%1,                 Diala%Khraiche%NULL%1,                 Marianne%Leruez-Ville%NULL%1,                 Pierre%Quartier%NULL%1,                 Pierre Louis%Léger%NULL%1,                 Guillaume%Geslain%NULL%1,                 Nada%Semaan%NULL%1,                 Florence%Moulin%NULL%1,                 Matthieu%Bendavid%NULL%1,                 Sandrine%Jean%NULL%1,                 Géraldine%Poncelet%NULL%1,                 Sylvain%Renolleau%NULL%1,                 Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
+  </si>
+  <si>
+    <t>[Zhixiong%Fang%NULL%1,                 Yi%Zhang%NULL%0,                 Changfa%Hang%NULL%1,                 Jingwen%Ai%NULL%1,                 Shaojie%Li%NULL%1,                 Wenhong%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paola%Valente%NULL%1,                 Giancarlo%Iarossi%NULL%1,                 Matteo%Federici%NULL%1,                 Sergio%Petroni%NULL%1,                 Paolo%Palma%NULL%1,                 Nicola%Cotugno%NULL%1,                 Maria A.%De Ioris%NULL%1,                 Andrea%Campana%NULL%1,                 Luca%Buzzonetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan Yu Jun%Seah%NULL%1,                 Danielle E.%Anderson%NULL%1,                 Adrian Eng Zheng%Kang%NULL%1,                 Linfa%Wang%NULL%1,                 Pooja%Rao%NULL%1,                 Barnaby Edward%Young%NULL%0,                 David Chien%Lye%NULL%1,                 Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
   </si>
 </sst>
 </file>
@@ -1367,7 +1445,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1396,7 +1474,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1425,7 +1503,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1454,7 +1532,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1483,7 +1561,7 @@
         <v>228</v>
       </c>
       <c r="E6" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1512,7 +1590,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1541,7 +1619,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1570,7 +1648,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1599,7 +1677,7 @@
         <v>233</v>
       </c>
       <c r="E10" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1628,7 +1706,7 @@
         <v>235</v>
       </c>
       <c r="E11" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -1657,7 +1735,7 @@
         <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="F12" t="s">
         <v>79</v>
@@ -1686,7 +1764,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -1715,7 +1793,7 @@
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="F14" t="s">
         <v>88</v>

--- a/Covid_19_Dataset_and_References/References/97.xlsx
+++ b/Covid_19_Dataset_and_References/References/97.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="318">
   <si>
     <t>Doi</t>
   </si>
@@ -1088,6 +1088,45 @@
   </si>
   <si>
     <t>[Ivan Yu Jun%Seah%NULL%1,                 Danielle E.%Anderson%NULL%1,                 Adrian Eng Zheng%Kang%NULL%1,                 Linfa%Wang%NULL%1,                 Pooja%Rao%NULL%1,                 Barnaby Edward%Young%NULL%0,                 David Chien%Lye%NULL%1,                 Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                  Zheng-yi%Ni%NULL%0,                  Zheng-yi%Ni%NULL%0,                  Yu%Hu%NULL%0,                  Wen-hua%Liang%NULL%0,                  Chun-quan%Ou%NULL%0,                  Jian-xing%He%NULL%0,                  Lei%Liu%NULL%0,                  Hong%Shan%NULL%0,                  Chun-liang%Lei%NULL%0,                  David S.C.%Hui%NULL%0,                  Bin%Du%NULL%0,                  Lan-juan%Li%NULL%0,                  Guang%Zeng%NULL%0,                  Kwok-Yung%Yuen%NULL%0,                  Ru-chong%Chen%NULL%0,                  Chun-li%Tang%NULL%0,                  Tao%Wang%NULL%0,                  Ping-yan%Chen%NULL%0,                  Jie%Xiang%NULL%0,                  Shi-yue%Li%NULL%0,                  Jin-lin%Wang%NULL%0,                  Zi-jing%Liang%NULL%0,                  Yi-xiang%Peng%NULL%0,                  Li%Wei%NULL%0,                  Yong%Liu%NULL%0,                  Ya-hua%Hu%NULL%0,                  Peng%Peng%NULL%0,                  Jian-ming%Wang%NULL%0,                  Ji-yang%Liu%NULL%0,                  Zhong%Chen%NULL%0,                  Gang%Li%NULL%0,                  Zhi-jian%Zheng%NULL%0,                  Shao-qin%Qiu%NULL%0,                  Jie%Luo%NULL%0,                  Chang-jiang%Ye%NULL%0,                  Shao-yong%Zhu%NULL%0,                  Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ping%Wu%NULL%1,                  Fang%Duan%NULL%1,                  Chunhua%Luo%NULL%1,                  Qiang%Liu%NULL%0,                  Xingguang%Qu%NULL%1,                  Liang%Liang%NULL%1,                  Kaili%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhang%NULL%1,                  Xuhui%Chen%NULL%3,                  Liwen%Chen%NULL%1,                  Chaohua%Deng%NULL%3,                  Xiaojing%Zou%NULL%0,                  Xiaojing%Zou%NULL%0,                  Weiyong%Liu%NULL%3,                  Weiyong%Liu%NULL%0,                  Huimin%Yu%NULL%3,                  Huimin%Yu%NULL%0,                  Bo%Chen%NULL%2,                  Xufang%Sun%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianhua%Xia%NULL%1,                  Jianping%Tong%NULL%1,                  Mengyun%Liu%NULL%1,                  Ye%Shen%idrshen@zju.edu.cn%1,                  Dongyu%Guo%guodongyu666@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Hua-Tao%Xie%NULL%1,                  Shi-Yun%Jiang%NULL%1,                  Kang-Kang%Xu%NULL%1,                  Xin%Liu%NULL%1,                  Bing%Xu%NULL%1,                  Lin%Wang%lin_wang@hust.edu.cn%0,                  Ming-Chang%Zhang%mingchangzhang@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Liwen%Chen%NULL%1,                  Chaohua%Deng%NULL%0,                  Chaohua%Deng%NULL%0,                  Xuhui%Chen%NULL%0,                  Xuhui%Chen%NULL%0,                  Xian%Zhang%NULL%1,                  Bo%Chen%NULL%0,                  Huimin%Yu%NULL%0,                  Yuanjun%Qin%NULL%1,                  Ke%Xiao%NULL%1,                  Hong%Zhang%tjyksys@163.com%1,                  Xufang%Sun%sunxufang2016@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kiran%Kumar%NULL%1,                  Akshata A%Prakash%NULL%1,                  Suresh Babu%Gangasagara%NULL%1,                  Sujatha BL%Rathod%NULL%1,                  K%Ravi%NULL%1,                  Ambica%Rangaiah%NULL%1,                  Sathyanarayan Muthur%Shankar%NULL%1,                  Shantala Gowdara%Basawarajappa%NULL%1,                  Shashi%Bhushan%NULL%1,                  T G%Neeraja%NULL%1,                  Srinivas%Khandenahalli%NULL%1,                  M%Swetha%NULL%1,                  Priyam%Gupta%NULL%1,                  U C%Sampritha%NULL%1,                  Guru N S%Prasad%NULL%1,                  Chakravarthy Raghunathan%Jayanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yunyun%Zhou%NULL%1,                  Chaoye%Duan%NULL%1,                  Yuyang%Zeng%NULL%1,                  Yongqing%Tong%NULL%1,                  Yuhong%Nie%NULL%1,                  Yang%Yang%NULL%0,                  Zhen%Chen%NULL%1,                  Changzheng%Chen%chenchangzheng@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Saeed%Karimi%NULL%1,                  Amir%Arabi%amir_arab_91@yahoo.com%1,                  Toktam%Shahraki%NULL%2,                  Toktam%Shahraki%NULL%0,                  Sare%Safi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%2,                  Julie%Starck%NULL%1,                  Michael%Levy%NULL%1,                  Clémence%Marais%NULL%1,                  Judith%Chareyre%NULL%1,                  Diala%Khraiche%NULL%1,                  Marianne%Leruez-Ville%NULL%1,                  Pierre%Quartier%NULL%1,                  Pierre Louis%Léger%NULL%1,                  Guillaume%Geslain%NULL%1,                  Nada%Semaan%NULL%1,                  Florence%Moulin%NULL%1,                  Matthieu%Bendavid%NULL%1,                  Sandrine%Jean%NULL%1,                  Géraldine%Poncelet%NULL%1,                  Sylvain%Renolleau%NULL%1,                  Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
+  </si>
+  <si>
+    <t>[Zhixiong%Fang%NULL%1,                  Yi%Zhang%NULL%0,                  Changfa%Hang%NULL%1,                  Jingwen%Ai%NULL%1,                  Shaojie%Li%NULL%1,                  Wenhong%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paola%Valente%NULL%1,                  Giancarlo%Iarossi%NULL%1,                  Matteo%Federici%NULL%1,                  Sergio%Petroni%NULL%1,                  Paolo%Palma%NULL%1,                  Nicola%Cotugno%NULL%1,                  Maria A.%De Ioris%NULL%1,                  Andrea%Campana%NULL%1,                  Luca%Buzzonetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan Yu Jun%Seah%NULL%1,                  Danielle E.%Anderson%NULL%1,                  Adrian Eng Zheng%Kang%NULL%1,                  Linfa%Wang%NULL%1,                  Pooja%Rao%NULL%1,                  Barnaby Edward%Young%NULL%0,                  David Chien%Lye%NULL%1,                  Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
   </si>
 </sst>
 </file>
@@ -1445,7 +1484,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1474,7 +1513,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1503,7 +1542,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1532,7 +1571,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1561,7 +1600,7 @@
         <v>228</v>
       </c>
       <c r="E6" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1590,7 +1629,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1619,7 +1658,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1648,7 +1687,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1677,7 +1716,7 @@
         <v>233</v>
       </c>
       <c r="E10" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1706,7 +1745,7 @@
         <v>235</v>
       </c>
       <c r="E11" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -1735,7 +1774,7 @@
         <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="F12" t="s">
         <v>79</v>
@@ -1764,7 +1803,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -1793,7 +1832,7 @@
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="F14" t="s">
         <v>88</v>

--- a/Covid_19_Dataset_and_References/References/97.xlsx
+++ b/Covid_19_Dataset_and_References/References/97.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="334">
   <si>
     <t>Doi</t>
   </si>
@@ -1127,6 +1127,54 @@
   </si>
   <si>
     <t>[Ivan Yu Jun%Seah%NULL%1,                  Danielle E.%Anderson%NULL%1,                  Adrian Eng Zheng%Kang%NULL%1,                  Linfa%Wang%NULL%1,                  Pooja%Rao%NULL%1,                  Barnaby Edward%Young%NULL%0,                  David Chien%Lye%NULL%1,                  Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                   Zheng-yi%Ni%NULL%0,                   Zheng-yi%Ni%NULL%0,                   Yu%Hu%NULL%0,                   Wen-hua%Liang%NULL%0,                   Chun-quan%Ou%NULL%0,                   Jian-xing%He%NULL%0,                   Lei%Liu%NULL%0,                   Hong%Shan%NULL%0,                   Chun-liang%Lei%NULL%0,                   David S.C.%Hui%NULL%0,                   Bin%Du%NULL%0,                   Lan-juan%Li%NULL%0,                   Guang%Zeng%NULL%0,                   Kwok-Yung%Yuen%NULL%0,                   Ru-chong%Chen%NULL%0,                   Chun-li%Tang%NULL%0,                   Tao%Wang%NULL%0,                   Ping-yan%Chen%NULL%0,                   Jie%Xiang%NULL%0,                   Shi-yue%Li%NULL%0,                   Jin-lin%Wang%NULL%0,                   Zi-jing%Liang%NULL%0,                   Yi-xiang%Peng%NULL%0,                   Li%Wei%NULL%0,                   Yong%Liu%NULL%0,                   Ya-hua%Hu%NULL%0,                   Peng%Peng%NULL%0,                   Jian-ming%Wang%NULL%0,                   Ji-yang%Liu%NULL%0,                   Zhong%Chen%NULL%0,                   Gang%Li%NULL%0,                   Zhi-jian%Zheng%NULL%0,                   Shao-qin%Qiu%NULL%0,                   Jie%Luo%NULL%0,                   Chang-jiang%Ye%NULL%0,                   Shao-yong%Zhu%NULL%0,                   Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Ping%Wu%NULL%1,                   Fang%Duan%NULL%1,                   Chunhua%Luo%NULL%1,                   Qiang%Liu%NULL%0,                   Xingguang%Qu%NULL%1,                   Liang%Liang%NULL%1,                   Kaili%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhang%NULL%1,                   Xuhui%Chen%NULL%3,                   Liwen%Chen%NULL%1,                   Chaohua%Deng%NULL%3,                   Xiaojing%Zou%NULL%0,                   Xiaojing%Zou%NULL%0,                   Weiyong%Liu%NULL%3,                   Weiyong%Liu%NULL%0,                   Huimin%Yu%NULL%3,                   Huimin%Yu%NULL%0,                   Bo%Chen%NULL%2,                   Xufang%Sun%NULL%2]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Jianhua%Xia%NULL%1,                   Jianping%Tong%NULL%1,                   Mengyun%Liu%NULL%1,                   Ye%Shen%idrshen@zju.edu.cn%1,                   Dongyu%Guo%guodongyu666@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Hua-Tao%Xie%NULL%1,                   Shi-Yun%Jiang%NULL%1,                   Kang-Kang%Xu%NULL%1,                   Xin%Liu%NULL%1,                   Bing%Xu%NULL%1,                   Lin%Wang%lin_wang@hust.edu.cn%0,                   Ming-Chang%Zhang%mingchangzhang@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Liwen%Chen%NULL%1,                   Chaohua%Deng%NULL%0,                   Chaohua%Deng%NULL%0,                   Xuhui%Chen%NULL%0,                   Xuhui%Chen%NULL%0,                   Xian%Zhang%NULL%1,                   Bo%Chen%NULL%0,                   Huimin%Yu%NULL%0,                   Yuanjun%Qin%NULL%1,                   Ke%Xiao%NULL%1,                   Hong%Zhang%tjyksys@163.com%1,                   Xufang%Sun%sunxufang2016@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kiran%Kumar%NULL%1,                   Akshata A%Prakash%NULL%1,                   Suresh Babu%Gangasagara%NULL%1,                   Sujatha BL%Rathod%NULL%1,                   K%Ravi%NULL%1,                   Ambica%Rangaiah%NULL%1,                   Sathyanarayan Muthur%Shankar%NULL%1,                   Shantala Gowdara%Basawarajappa%NULL%1,                   Shashi%Bhushan%NULL%1,                   T G%Neeraja%NULL%1,                   Srinivas%Khandenahalli%NULL%1,                   M%Swetha%NULL%1,                   Priyam%Gupta%NULL%1,                   U C%Sampritha%NULL%1,                   Guru N S%Prasad%NULL%1,                   Chakravarthy Raghunathan%Jayanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yunyun%Zhou%NULL%1,                   Chaoye%Duan%NULL%1,                   Yuyang%Zeng%NULL%1,                   Yongqing%Tong%NULL%1,                   Yuhong%Nie%NULL%1,                   Yang%Yang%NULL%0,                   Zhen%Chen%NULL%1,                   Changzheng%Chen%chenchangzheng@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Saeed%Karimi%NULL%1,                   Amir%Arabi%amir_arab_91@yahoo.com%1,                   Toktam%Shahraki%NULL%2,                   Toktam%Shahraki%NULL%0,                   Sare%Safi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%2,                   Julie%Starck%NULL%1,                   Michael%Levy%NULL%1,                   Clémence%Marais%NULL%1,                   Judith%Chareyre%NULL%1,                   Diala%Khraiche%NULL%1,                   Marianne%Leruez-Ville%NULL%1,                   Pierre%Quartier%NULL%1,                   Pierre Louis%Léger%NULL%1,                   Guillaume%Geslain%NULL%1,                   Nada%Semaan%NULL%1,                   Florence%Moulin%NULL%1,                   Matthieu%Bendavid%NULL%1,                   Sandrine%Jean%NULL%1,                   Géraldine%Poncelet%NULL%1,                   Sylvain%Renolleau%NULL%1,                   Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
+  </si>
+  <si>
+    <t>[Zhixiong%Fang%NULL%1,                   Yi%Zhang%NULL%0,                   Changfa%Hang%NULL%1,                   Jingwen%Ai%NULL%1,                   Shaojie%Li%NULL%1,                   Wenhong%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paola%Valente%NULL%1,                   Giancarlo%Iarossi%NULL%1,                   Matteo%Federici%NULL%1,                   Sergio%Petroni%NULL%1,                   Paolo%Palma%NULL%1,                   Nicola%Cotugno%NULL%1,                   Maria A.%De Ioris%NULL%1,                   Andrea%Campana%NULL%1,                   Luca%Buzzonetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan Yu Jun%Seah%NULL%1,                   Danielle E.%Anderson%NULL%1,                   Adrian Eng Zheng%Kang%NULL%1,                   Linfa%Wang%NULL%1,                   Pooja%Rao%NULL%1,                   Barnaby Edward%Young%NULL%0,                   David Chien%Lye%NULL%1,                   Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
   </si>
 </sst>
 </file>
@@ -1484,7 +1532,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1496,7 +1544,7 @@
         <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>118</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3">
@@ -1513,7 +1561,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1525,7 +1573,7 @@
         <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>118</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4">
@@ -1542,7 +1590,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1554,7 +1602,7 @@
         <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>121</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5">
@@ -1571,7 +1619,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1583,7 +1631,7 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>118</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6">
@@ -1600,7 +1648,7 @@
         <v>228</v>
       </c>
       <c r="E6" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1612,7 +1660,7 @@
         <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>124</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7">
@@ -1629,7 +1677,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1641,7 +1689,7 @@
         <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>118</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8">
@@ -1658,7 +1706,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1670,7 +1718,7 @@
         <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>118</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9">
@@ -1687,7 +1735,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1699,7 +1747,7 @@
         <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>121</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10">
@@ -1716,7 +1764,7 @@
         <v>233</v>
       </c>
       <c r="E10" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1728,7 +1776,7 @@
         <v>71</v>
       </c>
       <c r="I10" t="s">
-        <v>124</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11">
@@ -1745,7 +1793,7 @@
         <v>235</v>
       </c>
       <c r="E11" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -1757,7 +1805,7 @@
         <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12">
@@ -1774,7 +1822,7 @@
         <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="F12" t="s">
         <v>79</v>
@@ -1786,7 +1834,7 @@
         <v>80</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13">
@@ -1803,7 +1851,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -1815,7 +1863,7 @@
         <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14">
@@ -1832,7 +1880,7 @@
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="F14" t="s">
         <v>88</v>
@@ -1844,7 +1892,7 @@
         <v>89</v>
       </c>
       <c r="I14" t="s">
-        <v>121</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/97.xlsx
+++ b/Covid_19_Dataset_and_References/References/97.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="347">
   <si>
     <t>Doi</t>
   </si>
@@ -1175,6 +1175,45 @@
   </si>
   <si>
     <t>[Ivan Yu Jun%Seah%NULL%1,                   Danielle E.%Anderson%NULL%1,                   Adrian Eng Zheng%Kang%NULL%1,                   Linfa%Wang%NULL%1,                   Pooja%Rao%NULL%1,                   Barnaby Edward%Young%NULL%0,                   David Chien%Lye%NULL%1,                   Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                    Zheng-yi%Ni%NULL%0,                    Zheng-yi%Ni%NULL%0,                    Yu%Hu%NULL%0,                    Wen-hua%Liang%NULL%0,                    Chun-quan%Ou%NULL%0,                    Jian-xing%He%NULL%0,                    Lei%Liu%NULL%0,                    Hong%Shan%NULL%0,                    Chun-liang%Lei%NULL%0,                    David S.C.%Hui%NULL%0,                    Bin%Du%NULL%0,                    Lan-juan%Li%NULL%0,                    Guang%Zeng%NULL%0,                    Kwok-Yung%Yuen%NULL%0,                    Ru-chong%Chen%NULL%0,                    Chun-li%Tang%NULL%0,                    Tao%Wang%NULL%0,                    Ping-yan%Chen%NULL%0,                    Jie%Xiang%NULL%0,                    Shi-yue%Li%NULL%0,                    Jin-lin%Wang%NULL%0,                    Zi-jing%Liang%NULL%0,                    Yi-xiang%Peng%NULL%0,                    Li%Wei%NULL%0,                    Yong%Liu%NULL%0,                    Ya-hua%Hu%NULL%0,                    Peng%Peng%NULL%0,                    Jian-ming%Wang%NULL%0,                    Ji-yang%Liu%NULL%0,                    Zhong%Chen%NULL%0,                    Gang%Li%NULL%0,                    Zhi-jian%Zheng%NULL%0,                    Shao-qin%Qiu%NULL%0,                    Jie%Luo%NULL%0,                    Chang-jiang%Ye%NULL%0,                    Shao-yong%Zhu%NULL%0,                    Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ping%Wu%NULL%1,                    Fang%Duan%NULL%1,                    Chunhua%Luo%NULL%1,                    Qiang%Liu%NULL%0,                    Xingguang%Qu%NULL%1,                    Liang%Liang%NULL%1,                    Kaili%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhang%NULL%1,                    Xuhui%Chen%NULL%3,                    Liwen%Chen%NULL%1,                    Chaohua%Deng%NULL%3,                    Xiaojing%Zou%NULL%0,                    Xiaojing%Zou%NULL%0,                    Weiyong%Liu%NULL%3,                    Weiyong%Liu%NULL%0,                    Huimin%Yu%NULL%3,                    Huimin%Yu%NULL%0,                    Bo%Chen%NULL%2,                    Xufang%Sun%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianhua%Xia%NULL%1,                    Jianping%Tong%NULL%1,                    Mengyun%Liu%NULL%1,                    Ye%Shen%idrshen@zju.edu.cn%1,                    Dongyu%Guo%guodongyu666@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Hua-Tao%Xie%NULL%1,                    Shi-Yun%Jiang%NULL%1,                    Kang-Kang%Xu%NULL%1,                    Xin%Liu%NULL%1,                    Bing%Xu%NULL%1,                    Lin%Wang%lin_wang@hust.edu.cn%0,                    Ming-Chang%Zhang%mingchangzhang@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Liwen%Chen%NULL%1,                    Chaohua%Deng%NULL%0,                    Chaohua%Deng%NULL%0,                    Xuhui%Chen%NULL%0,                    Xuhui%Chen%NULL%0,                    Xian%Zhang%NULL%1,                    Bo%Chen%NULL%0,                    Huimin%Yu%NULL%0,                    Yuanjun%Qin%NULL%1,                    Ke%Xiao%NULL%1,                    Hong%Zhang%tjyksys@163.com%1,                    Xufang%Sun%sunxufang2016@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kiran%Kumar%NULL%1,                    Akshata A%Prakash%NULL%1,                    Suresh Babu%Gangasagara%NULL%1,                    Sujatha BL%Rathod%NULL%1,                    K%Ravi%NULL%1,                    Ambica%Rangaiah%NULL%1,                    Sathyanarayan Muthur%Shankar%NULL%1,                    Shantala Gowdara%Basawarajappa%NULL%1,                    Shashi%Bhushan%NULL%1,                    T G%Neeraja%NULL%1,                    Srinivas%Khandenahalli%NULL%1,                    M%Swetha%NULL%1,                    Priyam%Gupta%NULL%1,                    U C%Sampritha%NULL%1,                    Guru N S%Prasad%NULL%1,                    Chakravarthy Raghunathan%Jayanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yunyun%Zhou%NULL%1,                    Chaoye%Duan%NULL%1,                    Yuyang%Zeng%NULL%1,                    Yongqing%Tong%NULL%1,                    Yuhong%Nie%NULL%1,                    Yang%Yang%NULL%0,                    Zhen%Chen%NULL%1,                    Changzheng%Chen%chenchangzheng@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Saeed%Karimi%NULL%1,                    Amir%Arabi%amir_arab_91@yahoo.com%1,                    Toktam%Shahraki%NULL%2,                    Toktam%Shahraki%NULL%0,                    Sare%Safi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%2,                    Julie%Starck%NULL%1,                    Michael%Levy%NULL%1,                    Clémence%Marais%NULL%1,                    Judith%Chareyre%NULL%1,                    Diala%Khraiche%NULL%1,                    Marianne%Leruez-Ville%NULL%1,                    Pierre%Quartier%NULL%1,                    Pierre Louis%Léger%NULL%1,                    Guillaume%Geslain%NULL%1,                    Nada%Semaan%NULL%1,                    Florence%Moulin%NULL%1,                    Matthieu%Bendavid%NULL%1,                    Sandrine%Jean%NULL%1,                    Géraldine%Poncelet%NULL%1,                    Sylvain%Renolleau%NULL%1,                    Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
+  </si>
+  <si>
+    <t>[Zhixiong%Fang%NULL%1,                    Yi%Zhang%NULL%0,                    Changfa%Hang%NULL%1,                    Jingwen%Ai%NULL%1,                    Shaojie%Li%NULL%1,                    Wenhong%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paola%Valente%NULL%1,                    Giancarlo%Iarossi%NULL%1,                    Matteo%Federici%NULL%1,                    Sergio%Petroni%NULL%1,                    Paolo%Palma%NULL%1,                    Nicola%Cotugno%NULL%1,                    Maria A.%De Ioris%NULL%1,                    Andrea%Campana%NULL%1,                    Luca%Buzzonetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan Yu Jun%Seah%NULL%1,                    Danielle E.%Anderson%NULL%1,                    Adrian Eng Zheng%Kang%NULL%1,                    Linfa%Wang%NULL%1,                    Pooja%Rao%NULL%1,                    Barnaby Edward%Young%NULL%0,                    David Chien%Lye%NULL%1,                    Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1571,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1561,7 +1600,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1590,7 +1629,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1619,7 +1658,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1648,7 +1687,7 @@
         <v>228</v>
       </c>
       <c r="E6" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1677,7 +1716,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1706,7 +1745,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1735,7 +1774,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1764,7 +1803,7 @@
         <v>233</v>
       </c>
       <c r="E10" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1793,7 +1832,7 @@
         <v>235</v>
       </c>
       <c r="E11" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -1822,7 +1861,7 @@
         <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="F12" t="s">
         <v>79</v>
@@ -1851,7 +1890,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -1880,7 +1919,7 @@
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="F14" t="s">
         <v>88</v>

--- a/Covid_19_Dataset_and_References/References/97.xlsx
+++ b/Covid_19_Dataset_and_References/References/97.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="413">
   <si>
     <t>Doi</t>
   </si>
@@ -1214,6 +1214,204 @@
   </si>
   <si>
     <t>[Ivan Yu Jun%Seah%NULL%1,                    Danielle E.%Anderson%NULL%1,                    Adrian Eng Zheng%Kang%NULL%1,                    Linfa%Wang%NULL%1,                    Pooja%Rao%NULL%1,                    Barnaby Edward%Young%NULL%0,                    David Chien%Lye%NULL%1,                    Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                     Zheng-yi%Ni%NULL%0,                     Zheng-yi%Ni%NULL%0,                     Yu%Hu%NULL%0,                     Wen-hua%Liang%NULL%0,                     Chun-quan%Ou%NULL%0,                     Jian-xing%He%NULL%0,                     Lei%Liu%NULL%0,                     Hong%Shan%NULL%0,                     Chun-liang%Lei%NULL%0,                     David S.C.%Hui%NULL%0,                     Bin%Du%NULL%0,                     Lan-juan%Li%NULL%0,                     Guang%Zeng%NULL%0,                     Kwok-Yung%Yuen%NULL%0,                     Ru-chong%Chen%NULL%0,                     Chun-li%Tang%NULL%0,                     Tao%Wang%NULL%0,                     Ping-yan%Chen%NULL%0,                     Jie%Xiang%NULL%0,                     Shi-yue%Li%NULL%0,                     Jin-lin%Wang%NULL%0,                     Zi-jing%Liang%NULL%0,                     Yi-xiang%Peng%NULL%0,                     Li%Wei%NULL%0,                     Yong%Liu%NULL%0,                     Ya-hua%Hu%NULL%0,                     Peng%Peng%NULL%0,                     Jian-ming%Wang%NULL%0,                     Ji-yang%Liu%NULL%0,                     Zhong%Chen%NULL%0,                     Gang%Li%NULL%0,                     Zhi-jian%Zheng%NULL%0,                     Shao-qin%Qiu%NULL%0,                     Jie%Luo%NULL%0,                     Chang-jiang%Ye%NULL%0,                     Shao-yong%Zhu%NULL%0,                     Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ping%Wu%NULL%1,                     Fang%Duan%NULL%1,                     Chunhua%Luo%NULL%1,                     Qiang%Liu%NULL%0,                     Xingguang%Qu%NULL%1,                     Liang%Liang%NULL%1,                     Kaili%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhang%NULL%1,                     Xuhui%Chen%NULL%3,                     Liwen%Chen%NULL%1,                     Chaohua%Deng%NULL%3,                     Xiaojing%Zou%NULL%0,                     Xiaojing%Zou%NULL%0,                     Weiyong%Liu%NULL%3,                     Weiyong%Liu%NULL%0,                     Huimin%Yu%NULL%3,                     Huimin%Yu%NULL%0,                     Bo%Chen%NULL%2,                     Xufang%Sun%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianhua%Xia%NULL%1,                     Jianping%Tong%NULL%1,                     Mengyun%Liu%NULL%1,                     Ye%Shen%idrshen@zju.edu.cn%1,                     Dongyu%Guo%guodongyu666@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Hua-Tao%Xie%NULL%1,                     Shi-Yun%Jiang%NULL%1,                     Kang-Kang%Xu%NULL%1,                     Xin%Liu%NULL%1,                     Bing%Xu%NULL%1,                     Lin%Wang%lin_wang@hust.edu.cn%0,                     Ming-Chang%Zhang%mingchangzhang@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Liwen%Chen%NULL%1,                     Chaohua%Deng%NULL%0,                     Chaohua%Deng%NULL%0,                     Xuhui%Chen%NULL%0,                     Xuhui%Chen%NULL%0,                     Xian%Zhang%NULL%1,                     Bo%Chen%NULL%0,                     Huimin%Yu%NULL%0,                     Yuanjun%Qin%NULL%1,                     Ke%Xiao%NULL%1,                     Hong%Zhang%tjyksys@163.com%1,                     Xufang%Sun%sunxufang2016@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kiran%Kumar%NULL%1,                     Akshata A%Prakash%NULL%1,                     Suresh Babu%Gangasagara%NULL%1,                     Sujatha BL%Rathod%NULL%1,                     K%Ravi%NULL%1,                     Ambica%Rangaiah%NULL%1,                     Sathyanarayan Muthur%Shankar%NULL%1,                     Shantala Gowdara%Basawarajappa%NULL%1,                     Shashi%Bhushan%NULL%1,                     T G%Neeraja%NULL%1,                     Srinivas%Khandenahalli%NULL%1,                     M%Swetha%NULL%1,                     Priyam%Gupta%NULL%1,                     U C%Sampritha%NULL%1,                     Guru N S%Prasad%NULL%1,                     Chakravarthy Raghunathan%Jayanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yunyun%Zhou%NULL%1,                     Chaoye%Duan%NULL%1,                     Yuyang%Zeng%NULL%1,                     Yongqing%Tong%NULL%1,                     Yuhong%Nie%NULL%1,                     Yang%Yang%NULL%0,                     Zhen%Chen%NULL%1,                     Changzheng%Chen%chenchangzheng@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Saeed%Karimi%NULL%1,                     Amir%Arabi%amir_arab_91@yahoo.com%1,                     Toktam%Shahraki%NULL%2,                     Toktam%Shahraki%NULL%0,                     Sare%Safi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%3,                     Julie%Starck%NULL%1,                     Michael%Levy%NULL%1,                     Clémence%Marais%NULL%1,                     Judith%Chareyre%NULL%1,                     Diala%Khraiche%NULL%1,                     Marianne%Leruez-Ville%NULL%1,                     Pierre%Quartier%NULL%1,                     Pierre Louis%Léger%NULL%1,                     Guillaume%Geslain%NULL%1,                     Nada%Semaan%NULL%1,                     Florence%Moulin%NULL%1,                     Matthieu%Bendavid%NULL%1,                     Sandrine%Jean%NULL%1,                     Géraldine%Poncelet%NULL%1,                     Sylvain%Renolleau%NULL%1,                     Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
+  </si>
+  <si>
+    <t>[Zhixiong%Fang%NULL%1,                     Yi%Zhang%NULL%0,                     Changfa%Hang%NULL%1,                     Jingwen%Ai%NULL%1,                     Shaojie%Li%NULL%1,                     Wenhong%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paola%Valente%NULL%1,                     Giancarlo%Iarossi%NULL%1,                     Matteo%Federici%NULL%1,                     Sergio%Petroni%NULL%1,                     Paolo%Palma%NULL%1,                     Nicola%Cotugno%NULL%1,                     Maria A.%De Ioris%NULL%1,                     Andrea%Campana%NULL%1,                     Luca%Buzzonetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan Yu Jun%Seah%NULL%1,                     Danielle E.%Anderson%NULL%1,                     Adrian Eng Zheng%Kang%NULL%1,                     Linfa%Wang%NULL%1,                     Pooja%Rao%NULL%1,                     Barnaby Edward%Young%NULL%0,                     David Chien%Lye%NULL%1,                     Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                      Zheng-yi%Ni%NULL%0,                      Zheng-yi%Ni%NULL%0,                      Yu%Hu%NULL%0,                      Wen-hua%Liang%NULL%0,                      Chun-quan%Ou%NULL%0,                      Jian-xing%He%NULL%0,                      Lei%Liu%NULL%0,                      Hong%Shan%NULL%0,                      Chun-liang%Lei%NULL%0,                      David S.C.%Hui%NULL%0,                      Bin%Du%NULL%0,                      Lan-juan%Li%NULL%0,                      Guang%Zeng%NULL%0,                      Kwok-Yung%Yuen%NULL%0,                      Ru-chong%Chen%NULL%0,                      Chun-li%Tang%NULL%0,                      Tao%Wang%NULL%0,                      Ping-yan%Chen%NULL%0,                      Jie%Xiang%NULL%0,                      Shi-yue%Li%NULL%0,                      Jin-lin%Wang%NULL%0,                      Zi-jing%Liang%NULL%0,                      Yi-xiang%Peng%NULL%0,                      Li%Wei%NULL%0,                      Yong%Liu%NULL%0,                      Ya-hua%Hu%NULL%0,                      Peng%Peng%NULL%0,                      Jian-ming%Wang%NULL%0,                      Ji-yang%Liu%NULL%0,                      Zhong%Chen%NULL%0,                      Gang%Li%NULL%0,                      Zhi-jian%Zheng%NULL%0,                      Shao-qin%Qiu%NULL%0,                      Jie%Luo%NULL%0,                      Chang-jiang%Ye%NULL%0,                      Shao-yong%Zhu%NULL%0,                      Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ping%Wu%NULL%1,                      Fang%Duan%NULL%1,                      Chunhua%Luo%NULL%1,                      Qiang%Liu%NULL%0,                      Xingguang%Qu%NULL%1,                      Liang%Liang%NULL%1,                      Kaili%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhang%NULL%1,                      Xuhui%Chen%NULL%3,                      Liwen%Chen%NULL%1,                      Chaohua%Deng%NULL%3,                      Xiaojing%Zou%NULL%0,                      Xiaojing%Zou%NULL%0,                      Weiyong%Liu%NULL%3,                      Weiyong%Liu%NULL%0,                      Huimin%Yu%NULL%3,                      Huimin%Yu%NULL%0,                      Bo%Chen%NULL%2,                      Xufang%Sun%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianhua%Xia%NULL%1,                      Jianping%Tong%NULL%1,                      Mengyun%Liu%NULL%1,                      Ye%Shen%idrshen@zju.edu.cn%1,                      Dongyu%Guo%guodongyu666@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Hua-Tao%Xie%NULL%1,                      Shi-Yun%Jiang%NULL%1,                      Kang-Kang%Xu%NULL%1,                      Xin%Liu%NULL%1,                      Bing%Xu%NULL%1,                      Lin%Wang%lin_wang@hust.edu.cn%0,                      Ming-Chang%Zhang%mingchangzhang@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Liwen%Chen%NULL%1,                      Chaohua%Deng%NULL%0,                      Chaohua%Deng%NULL%0,                      Xuhui%Chen%NULL%0,                      Xuhui%Chen%NULL%0,                      Xian%Zhang%NULL%1,                      Bo%Chen%NULL%0,                      Huimin%Yu%NULL%0,                      Yuanjun%Qin%NULL%1,                      Ke%Xiao%NULL%1,                      Hong%Zhang%tjyksys@163.com%1,                      Xufang%Sun%sunxufang2016@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kiran%Kumar%NULL%1,                      Akshata A%Prakash%NULL%1,                      Suresh Babu%Gangasagara%NULL%1,                      Sujatha BL%Rathod%NULL%1,                      K%Ravi%NULL%1,                      Ambica%Rangaiah%NULL%1,                      Sathyanarayan Muthur%Shankar%NULL%1,                      Shantala Gowdara%Basawarajappa%NULL%1,                      Shashi%Bhushan%NULL%1,                      T G%Neeraja%NULL%1,                      Srinivas%Khandenahalli%NULL%1,                      M%Swetha%NULL%1,                      Priyam%Gupta%NULL%1,                      U C%Sampritha%NULL%1,                      Guru N S%Prasad%NULL%1,                      Chakravarthy Raghunathan%Jayanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yunyun%Zhou%NULL%1,                      Chaoye%Duan%NULL%1,                      Yuyang%Zeng%NULL%1,                      Yongqing%Tong%NULL%1,                      Yuhong%Nie%NULL%1,                      Yang%Yang%NULL%0,                      Zhen%Chen%NULL%1,                      Changzheng%Chen%chenchangzheng@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Saeed%Karimi%NULL%1,                      Amir%Arabi%amir_arab_91@yahoo.com%1,                      Toktam%Shahraki%NULL%2,                      Toktam%Shahraki%NULL%0,                      Sare%Safi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%2,                      Julie%Starck%NULL%1,                      Michael%Levy%NULL%1,                      Clémence%Marais%NULL%1,                      Judith%Chareyre%NULL%1,                      Diala%Khraiche%NULL%1,                      Marianne%Leruez-Ville%NULL%1,                      Pierre%Quartier%NULL%1,                      Pierre Louis%Léger%NULL%1,                      Guillaume%Geslain%NULL%1,                      Nada%Semaan%NULL%1,                      Florence%Moulin%NULL%1,                      Matthieu%Bendavid%NULL%1,                      Sandrine%Jean%NULL%1,                      Géraldine%Poncelet%NULL%1,                      Sylvain%Renolleau%NULL%1,                      Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
+  </si>
+  <si>
+    <t>[Zhixiong%Fang%NULL%1,                      Yi%Zhang%NULL%0,                      Changfa%Hang%NULL%1,                      Jingwen%Ai%NULL%1,                      Shaojie%Li%NULL%1,                      Wenhong%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paola%Valente%NULL%1,                      Giancarlo%Iarossi%NULL%1,                      Matteo%Federici%NULL%1,                      Sergio%Petroni%NULL%1,                      Paolo%Palma%NULL%1,                      Nicola%Cotugno%NULL%1,                      Maria A.%De Ioris%NULL%1,                      Andrea%Campana%NULL%1,                      Luca%Buzzonetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan Yu Jun%Seah%NULL%1,                      Danielle E.%Anderson%NULL%1,                      Adrian Eng Zheng%Kang%NULL%1,                      Linfa%Wang%NULL%1,                      Pooja%Rao%NULL%1,                      Barnaby Edward%Young%NULL%0,                      David Chien%Lye%NULL%1,                      Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                       Zheng-yi%Ni%NULL%0,                       Zheng-yi%Ni%NULL%0,                       Yu%Hu%NULL%0,                       Wen-hua%Liang%NULL%0,                       Chun-quan%Ou%NULL%0,                       Jian-xing%He%NULL%0,                       Lei%Liu%NULL%0,                       Hong%Shan%NULL%0,                       Chun-liang%Lei%NULL%0,                       David S.C.%Hui%NULL%0,                       Bin%Du%NULL%0,                       Lan-juan%Li%NULL%0,                       Guang%Zeng%NULL%0,                       Kwok-Yung%Yuen%NULL%0,                       Ru-chong%Chen%NULL%0,                       Chun-li%Tang%NULL%0,                       Tao%Wang%NULL%0,                       Ping-yan%Chen%NULL%0,                       Jie%Xiang%NULL%0,                       Shi-yue%Li%NULL%0,                       Jin-lin%Wang%NULL%0,                       Zi-jing%Liang%NULL%0,                       Yi-xiang%Peng%NULL%0,                       Li%Wei%NULL%0,                       Yong%Liu%NULL%0,                       Ya-hua%Hu%NULL%0,                       Peng%Peng%NULL%0,                       Jian-ming%Wang%NULL%0,                       Ji-yang%Liu%NULL%0,                       Zhong%Chen%NULL%0,                       Gang%Li%NULL%0,                       Zhi-jian%Zheng%NULL%0,                       Shao-qin%Qiu%NULL%0,                       Jie%Luo%NULL%0,                       Chang-jiang%Ye%NULL%0,                       Shao-yong%Zhu%NULL%0,                       Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ping%Wu%NULL%1,                       Fang%Duan%NULL%1,                       Chunhua%Luo%NULL%1,                       Qiang%Liu%NULL%0,                       Xingguang%Qu%NULL%1,                       Liang%Liang%NULL%1,                       Kaili%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhang%NULL%1,                       Xuhui%Chen%NULL%3,                       Liwen%Chen%NULL%1,                       Chaohua%Deng%NULL%3,                       Xiaojing%Zou%NULL%0,                       Xiaojing%Zou%NULL%0,                       Weiyong%Liu%NULL%3,                       Weiyong%Liu%NULL%0,                       Huimin%Yu%NULL%3,                       Huimin%Yu%NULL%0,                       Bo%Chen%NULL%2,                       Xufang%Sun%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianhua%Xia%NULL%1,                       Jianping%Tong%NULL%1,                       Mengyun%Liu%NULL%1,                       Ye%Shen%idrshen@zju.edu.cn%1,                       Dongyu%Guo%guodongyu666@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Hua-Tao%Xie%NULL%1,                       Shi-Yun%Jiang%NULL%1,                       Kang-Kang%Xu%NULL%1,                       Xin%Liu%NULL%1,                       Bing%Xu%NULL%1,                       Lin%Wang%lin_wang@hust.edu.cn%0,                       Ming-Chang%Zhang%mingchangzhang@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Liwen%Chen%NULL%1,                       Chaohua%Deng%NULL%0,                       Chaohua%Deng%NULL%0,                       Xuhui%Chen%NULL%0,                       Xuhui%Chen%NULL%0,                       Xian%Zhang%NULL%1,                       Bo%Chen%NULL%0,                       Huimin%Yu%NULL%0,                       Yuanjun%Qin%NULL%1,                       Ke%Xiao%NULL%1,                       Hong%Zhang%tjyksys@163.com%1,                       Xufang%Sun%sunxufang2016@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kiran%Kumar%NULL%1,                       Akshata A%Prakash%NULL%1,                       Suresh Babu%Gangasagara%NULL%1,                       Sujatha BL%Rathod%NULL%1,                       K%Ravi%NULL%1,                       Ambica%Rangaiah%NULL%1,                       Sathyanarayan Muthur%Shankar%NULL%1,                       Shantala Gowdara%Basawarajappa%NULL%1,                       Shashi%Bhushan%NULL%1,                       T G%Neeraja%NULL%1,                       Srinivas%Khandenahalli%NULL%1,                       M%Swetha%NULL%1,                       Priyam%Gupta%NULL%1,                       U C%Sampritha%NULL%1,                       Guru N S%Prasad%NULL%1,                       Chakravarthy Raghunathan%Jayanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yunyun%Zhou%NULL%1,                       Chaoye%Duan%NULL%1,                       Yuyang%Zeng%NULL%1,                       Yongqing%Tong%NULL%1,                       Yuhong%Nie%NULL%1,                       Yang%Yang%NULL%0,                       Zhen%Chen%NULL%1,                       Changzheng%Chen%chenchangzheng@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Saeed%Karimi%NULL%1,                       Amir%Arabi%amir_arab_91@yahoo.com%1,                       Toktam%Shahraki%NULL%2,                       Toktam%Shahraki%NULL%0,                       Sare%Safi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%2,                       Julie%Starck%NULL%1,                       Michael%Levy%NULL%1,                       Clémence%Marais%NULL%1,                       Judith%Chareyre%NULL%1,                       Diala%Khraiche%NULL%1,                       Marianne%Leruez-Ville%NULL%1,                       Pierre%Quartier%NULL%1,                       Pierre Louis%Léger%NULL%1,                       Guillaume%Geslain%NULL%1,                       Nada%Semaan%NULL%1,                       Florence%Moulin%NULL%1,                       Matthieu%Bendavid%NULL%1,                       Sandrine%Jean%NULL%1,                       Géraldine%Poncelet%NULL%1,                       Sylvain%Renolleau%NULL%1,                       Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
+  </si>
+  <si>
+    <t>[Zhixiong%Fang%NULL%1,                       Yi%Zhang%NULL%0,                       Changfa%Hang%NULL%1,                       Jingwen%Ai%NULL%1,                       Shaojie%Li%NULL%1,                       Wenhong%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paola%Valente%NULL%1,                       Giancarlo%Iarossi%NULL%1,                       Matteo%Federici%NULL%1,                       Sergio%Petroni%NULL%1,                       Paolo%Palma%NULL%1,                       Nicola%Cotugno%NULL%1,                       Maria A.%De Ioris%NULL%1,                       Andrea%Campana%NULL%1,                       Luca%Buzzonetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan Yu Jun%Seah%NULL%1,                       Danielle E.%Anderson%NULL%1,                       Adrian Eng Zheng%Kang%NULL%1,                       Linfa%Wang%NULL%1,                       Pooja%Rao%NULL%1,                       Barnaby Edward%Young%NULL%0,                       David Chien%Lye%NULL%1,                       Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                        Zheng-yi%Ni%NULL%0,                        Zheng-yi%Ni%NULL%0,                        Yu%Hu%NULL%0,                        Wen-hua%Liang%NULL%0,                        Chun-quan%Ou%NULL%0,                        Jian-xing%He%NULL%0,                        Lei%Liu%NULL%0,                        Hong%Shan%NULL%0,                        Chun-liang%Lei%NULL%0,                        David S.C.%Hui%NULL%0,                        Bin%Du%NULL%0,                        Lan-juan%Li%NULL%0,                        Guang%Zeng%NULL%0,                        Kwok-Yung%Yuen%NULL%0,                        Ru-chong%Chen%NULL%0,                        Chun-li%Tang%NULL%0,                        Tao%Wang%NULL%0,                        Ping-yan%Chen%NULL%0,                        Jie%Xiang%NULL%0,                        Shi-yue%Li%NULL%0,                        Jin-lin%Wang%NULL%0,                        Zi-jing%Liang%NULL%0,                        Yi-xiang%Peng%NULL%0,                        Li%Wei%NULL%0,                        Yong%Liu%NULL%0,                        Ya-hua%Hu%NULL%0,                        Peng%Peng%NULL%0,                        Jian-ming%Wang%NULL%0,                        Ji-yang%Liu%NULL%0,                        Zhong%Chen%NULL%0,                        Gang%Li%NULL%0,                        Zhi-jian%Zheng%NULL%0,                        Shao-qin%Qiu%NULL%0,                        Jie%Luo%NULL%0,                        Chang-jiang%Ye%NULL%0,                        Shao-yong%Zhu%NULL%0,                        Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ping%Wu%NULL%1,                        Fang%Duan%NULL%1,                        Chunhua%Luo%NULL%1,                        Qiang%Liu%NULL%0,                        Xingguang%Qu%NULL%1,                        Liang%Liang%NULL%1,                        Kaili%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhang%NULL%1,                        Xuhui%Chen%NULL%3,                        Liwen%Chen%NULL%1,                        Chaohua%Deng%NULL%3,                        Xiaojing%Zou%NULL%0,                        Xiaojing%Zou%NULL%0,                        Weiyong%Liu%NULL%3,                        Weiyong%Liu%NULL%0,                        Huimin%Yu%NULL%3,                        Huimin%Yu%NULL%0,                        Bo%Chen%NULL%2,                        Xufang%Sun%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianhua%Xia%NULL%1,                        Jianping%Tong%NULL%1,                        Mengyun%Liu%NULL%1,                        Ye%Shen%idrshen@zju.edu.cn%1,                        Dongyu%Guo%guodongyu666@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Hua-Tao%Xie%NULL%1,                        Shi-Yun%Jiang%NULL%1,                        Kang-Kang%Xu%NULL%1,                        Xin%Liu%NULL%1,                        Bing%Xu%NULL%1,                        Lin%Wang%lin_wang@hust.edu.cn%0,                        Ming-Chang%Zhang%mingchangzhang@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Liwen%Chen%NULL%1,                        Chaohua%Deng%NULL%0,                        Chaohua%Deng%NULL%0,                        Xuhui%Chen%NULL%0,                        Xuhui%Chen%NULL%0,                        Xian%Zhang%NULL%1,                        Bo%Chen%NULL%0,                        Huimin%Yu%NULL%0,                        Yuanjun%Qin%NULL%1,                        Ke%Xiao%NULL%1,                        Hong%Zhang%tjyksys@163.com%1,                        Xufang%Sun%sunxufang2016@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kiran%Kumar%NULL%1,                        Akshata A%Prakash%NULL%1,                        Suresh Babu%Gangasagara%NULL%1,                        Sujatha BL%Rathod%NULL%1,                        K%Ravi%NULL%1,                        Ambica%Rangaiah%NULL%1,                        Sathyanarayan Muthur%Shankar%NULL%1,                        Shantala Gowdara%Basawarajappa%NULL%1,                        Shashi%Bhushan%NULL%1,                        T G%Neeraja%NULL%1,                        Srinivas%Khandenahalli%NULL%1,                        M%Swetha%NULL%1,                        Priyam%Gupta%NULL%1,                        U C%Sampritha%NULL%1,                        Guru N S%Prasad%NULL%1,                        Chakravarthy Raghunathan%Jayanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yunyun%Zhou%NULL%1,                        Chaoye%Duan%NULL%1,                        Yuyang%Zeng%NULL%1,                        Yongqing%Tong%NULL%1,                        Yuhong%Nie%NULL%1,                        Yang%Yang%NULL%0,                        Zhen%Chen%NULL%1,                        Changzheng%Chen%chenchangzheng@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Saeed%Karimi%NULL%1,                        Amir%Arabi%amir_arab_91@yahoo.com%1,                        Toktam%Shahraki%NULL%2,                        Toktam%Shahraki%NULL%0,                        Sare%Safi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%2,                        Julie%Starck%NULL%1,                        Michael%Levy%NULL%1,                        Clémence%Marais%NULL%1,                        Judith%Chareyre%NULL%1,                        Diala%Khraiche%NULL%1,                        Marianne%Leruez-Ville%NULL%1,                        Pierre%Quartier%NULL%1,                        Pierre Louis%Léger%NULL%1,                        Guillaume%Geslain%NULL%1,                        Nada%Semaan%NULL%1,                        Florence%Moulin%NULL%1,                        Matthieu%Bendavid%NULL%1,                        Sandrine%Jean%NULL%1,                        Géraldine%Poncelet%NULL%1,                        Sylvain%Renolleau%NULL%1,                        Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
+  </si>
+  <si>
+    <t>[Zhixiong%Fang%NULL%1,                        Yi%Zhang%NULL%0,                        Changfa%Hang%NULL%1,                        Jingwen%Ai%NULL%1,                        Shaojie%Li%NULL%1,                        Wenhong%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paola%Valente%NULL%1,                        Giancarlo%Iarossi%NULL%1,                        Matteo%Federici%NULL%1,                        Sergio%Petroni%NULL%1,                        Paolo%Palma%NULL%1,                        Nicola%Cotugno%NULL%1,                        Maria A.%De Ioris%NULL%1,                        Andrea%Campana%NULL%1,                        Luca%Buzzonetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan Yu Jun%Seah%NULL%1,                        Danielle E.%Anderson%NULL%1,                        Adrian Eng Zheng%Kang%NULL%1,                        Linfa%Wang%NULL%1,                        Pooja%Rao%NULL%1,                        Barnaby Edward%Young%NULL%0,                        David Chien%Lye%NULL%1,                        Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                         Zheng-yi%Ni%NULL%0,                         Zheng-yi%Ni%NULL%0,                         Yu%Hu%NULL%0,                         Wen-hua%Liang%NULL%0,                         Chun-quan%Ou%NULL%0,                         Jian-xing%He%NULL%0,                         Lei%Liu%NULL%0,                         Hong%Shan%NULL%0,                         Chun-liang%Lei%NULL%0,                         David S.C.%Hui%NULL%0,                         Bin%Du%NULL%0,                         Lan-juan%Li%NULL%0,                         Guang%Zeng%NULL%0,                         Kwok-Yung%Yuen%NULL%0,                         Ru-chong%Chen%NULL%0,                         Chun-li%Tang%NULL%0,                         Tao%Wang%NULL%0,                         Ping-yan%Chen%NULL%0,                         Jie%Xiang%NULL%0,                         Shi-yue%Li%NULL%0,                         Jin-lin%Wang%NULL%0,                         Zi-jing%Liang%NULL%0,                         Yi-xiang%Peng%NULL%0,                         Li%Wei%NULL%0,                         Yong%Liu%NULL%0,                         Ya-hua%Hu%NULL%0,                         Peng%Peng%NULL%0,                         Jian-ming%Wang%NULL%0,                         Ji-yang%Liu%NULL%0,                         Zhong%Chen%NULL%0,                         Gang%Li%NULL%0,                         Zhi-jian%Zheng%NULL%0,                         Shao-qin%Qiu%NULL%0,                         Jie%Luo%NULL%0,                         Chang-jiang%Ye%NULL%0,                         Shao-yong%Zhu%NULL%0,                         Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ping%Wu%NULL%1,                         Fang%Duan%NULL%1,                         Chunhua%Luo%NULL%1,                         Qiang%Liu%NULL%0,                         Xingguang%Qu%NULL%1,                         Liang%Liang%NULL%1,                         Kaili%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhang%NULL%1,                         Xuhui%Chen%NULL%3,                         Liwen%Chen%NULL%1,                         Chaohua%Deng%NULL%3,                         Xiaojing%Zou%NULL%0,                         Xiaojing%Zou%NULL%0,                         Weiyong%Liu%NULL%3,                         Weiyong%Liu%NULL%0,                         Huimin%Yu%NULL%3,                         Huimin%Yu%NULL%0,                         Bo%Chen%NULL%2,                         Xufang%Sun%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianhua%Xia%NULL%1,                         Jianping%Tong%NULL%1,                         Mengyun%Liu%NULL%1,                         Ye%Shen%idrshen@zju.edu.cn%1,                         Dongyu%Guo%guodongyu666@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Hua-Tao%Xie%NULL%1,                         Shi-Yun%Jiang%NULL%1,                         Kang-Kang%Xu%NULL%1,                         Xin%Liu%NULL%1,                         Bing%Xu%NULL%1,                         Lin%Wang%lin_wang@hust.edu.cn%0,                         Ming-Chang%Zhang%mingchangzhang@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Liwen%Chen%NULL%1,                         Chaohua%Deng%NULL%0,                         Chaohua%Deng%NULL%0,                         Xuhui%Chen%NULL%0,                         Xuhui%Chen%NULL%0,                         Xian%Zhang%NULL%1,                         Bo%Chen%NULL%0,                         Huimin%Yu%NULL%0,                         Yuanjun%Qin%NULL%1,                         Ke%Xiao%NULL%1,                         Hong%Zhang%tjyksys@163.com%1,                         Xufang%Sun%sunxufang2016@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kiran%Kumar%NULL%1,                         Akshata A%Prakash%NULL%1,                         Suresh Babu%Gangasagara%NULL%1,                         Sujatha BL%Rathod%NULL%1,                         K%Ravi%NULL%1,                         Ambica%Rangaiah%NULL%1,                         Sathyanarayan Muthur%Shankar%NULL%1,                         Shantala Gowdara%Basawarajappa%NULL%1,                         Shashi%Bhushan%NULL%1,                         T G%Neeraja%NULL%1,                         Srinivas%Khandenahalli%NULL%1,                         M%Swetha%NULL%1,                         Priyam%Gupta%NULL%1,                         U C%Sampritha%NULL%1,                         Guru N S%Prasad%NULL%1,                         Chakravarthy Raghunathan%Jayanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yunyun%Zhou%NULL%1,                         Chaoye%Duan%NULL%1,                         Yuyang%Zeng%NULL%1,                         Yongqing%Tong%NULL%1,                         Yuhong%Nie%NULL%1,                         Yang%Yang%NULL%0,                         Zhen%Chen%NULL%1,                         Changzheng%Chen%chenchangzheng@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Saeed%Karimi%NULL%1,                         Amir%Arabi%amir_arab_91@yahoo.com%1,                         Toktam%Shahraki%NULL%2,                         Toktam%Shahraki%NULL%0,                         Sare%Safi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%2,                         Julie%Starck%NULL%1,                         Michael%Levy%NULL%1,                         Clémence%Marais%NULL%1,                         Judith%Chareyre%NULL%1,                         Diala%Khraiche%NULL%1,                         Marianne%Leruez-Ville%NULL%1,                         Pierre%Quartier%NULL%1,                         Pierre Louis%Léger%NULL%1,                         Guillaume%Geslain%NULL%1,                         Nada%Semaan%NULL%1,                         Florence%Moulin%NULL%1,                         Matthieu%Bendavid%NULL%1,                         Sandrine%Jean%NULL%1,                         Géraldine%Poncelet%NULL%1,                         Sylvain%Renolleau%NULL%1,                         Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
+  </si>
+  <si>
+    <t>[Zhixiong%Fang%NULL%1,                         Yi%Zhang%NULL%0,                         Changfa%Hang%NULL%1,                         Jingwen%Ai%NULL%1,                         Shaojie%Li%NULL%1,                         Wenhong%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paola%Valente%NULL%1,                         Giancarlo%Iarossi%NULL%1,                         Matteo%Federici%NULL%1,                         Sergio%Petroni%NULL%1,                         Paolo%Palma%NULL%1,                         Nicola%Cotugno%NULL%1,                         Maria A.%De Ioris%NULL%1,                         Andrea%Campana%NULL%1,                         Luca%Buzzonetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan Yu Jun%Seah%NULL%1,                         Danielle E.%Anderson%NULL%1,                         Adrian Eng Zheng%Kang%NULL%1,                         Linfa%Wang%NULL%1,                         Pooja%Rao%NULL%1,                         Barnaby Edward%Young%NULL%0,                         David Chien%Lye%NULL%1,                         Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
   </si>
 </sst>
 </file>
@@ -1556,6 +1754,9 @@
       <c r="I1" t="s">
         <v>116</v>
       </c>
+      <c r="J1" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1571,7 +1772,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1584,6 +1785,9 @@
       </c>
       <c r="I2" t="s">
         <v>319</v>
+      </c>
+      <c r="J2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -1600,7 +1804,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>335</v>
+        <v>401</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1613,6 +1817,9 @@
       </c>
       <c r="I3" t="s">
         <v>319</v>
+      </c>
+      <c r="J3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -1629,7 +1836,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>336</v>
+        <v>402</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1642,6 +1849,9 @@
       </c>
       <c r="I4" t="s">
         <v>322</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -1658,7 +1868,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>337</v>
+        <v>403</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1671,6 +1881,9 @@
       </c>
       <c r="I5" t="s">
         <v>319</v>
+      </c>
+      <c r="J5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6">
@@ -1687,7 +1900,7 @@
         <v>228</v>
       </c>
       <c r="E6" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1700,6 +1913,9 @@
       </c>
       <c r="I6" t="s">
         <v>325</v>
+      </c>
+      <c r="J6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7">
@@ -1716,7 +1932,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>339</v>
+        <v>405</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1729,6 +1945,9 @@
       </c>
       <c r="I7" t="s">
         <v>319</v>
+      </c>
+      <c r="J7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1745,7 +1964,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1758,6 +1977,9 @@
       </c>
       <c r="I8" t="s">
         <v>319</v>
+      </c>
+      <c r="J8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -1774,7 +1996,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>341</v>
+        <v>407</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1787,6 +2009,9 @@
       </c>
       <c r="I9" t="s">
         <v>322</v>
+      </c>
+      <c r="J9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -1803,7 +2028,7 @@
         <v>233</v>
       </c>
       <c r="E10" t="s">
-        <v>342</v>
+        <v>408</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1816,6 +2041,9 @@
       </c>
       <c r="I10" t="s">
         <v>325</v>
+      </c>
+      <c r="J10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -1832,7 +2060,7 @@
         <v>235</v>
       </c>
       <c r="E11" t="s">
-        <v>343</v>
+        <v>409</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -1845,6 +2073,9 @@
       </c>
       <c r="I11" t="s">
         <v>325</v>
+      </c>
+      <c r="J11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12">
@@ -1861,7 +2092,7 @@
         <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="F12" t="s">
         <v>79</v>
@@ -1874,6 +2105,9 @@
       </c>
       <c r="I12" t="s">
         <v>322</v>
+      </c>
+      <c r="J12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13">
@@ -1890,7 +2124,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>345</v>
+        <v>411</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -1903,6 +2137,9 @@
       </c>
       <c r="I13" t="s">
         <v>322</v>
+      </c>
+      <c r="J13" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14">
@@ -1919,7 +2156,7 @@
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>346</v>
+        <v>412</v>
       </c>
       <c r="F14" t="s">
         <v>88</v>
@@ -1932,6 +2169,9 @@
       </c>
       <c r="I14" t="s">
         <v>322</v>
+      </c>
+      <c r="J14" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/97.xlsx
+++ b/Covid_19_Dataset_and_References/References/97.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="439">
   <si>
     <t>Doi</t>
   </si>
@@ -1412,6 +1412,84 @@
   </si>
   <si>
     <t>[Ivan Yu Jun%Seah%NULL%1,                         Danielle E.%Anderson%NULL%1,                         Adrian Eng Zheng%Kang%NULL%1,                         Linfa%Wang%NULL%1,                         Pooja%Rao%NULL%1,                         Barnaby Edward%Young%NULL%0,                         David Chien%Lye%NULL%1,                         Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                          Zheng-yi%Ni%NULL%0,                          Zheng-yi%Ni%NULL%0,                          Yu%Hu%NULL%0,                          Wen-hua%Liang%NULL%0,                          Chun-quan%Ou%NULL%0,                          Jian-xing%He%NULL%0,                          Lei%Liu%NULL%0,                          Hong%Shan%NULL%0,                          Chun-liang%Lei%NULL%0,                          David S.C.%Hui%NULL%0,                          Bin%Du%NULL%0,                          Lan-juan%Li%NULL%0,                          Guang%Zeng%NULL%0,                          Kwok-Yung%Yuen%NULL%0,                          Ru-chong%Chen%NULL%0,                          Chun-li%Tang%NULL%0,                          Tao%Wang%NULL%0,                          Ping-yan%Chen%NULL%0,                          Jie%Xiang%NULL%0,                          Shi-yue%Li%NULL%0,                          Jin-lin%Wang%NULL%0,                          Zi-jing%Liang%NULL%0,                          Yi-xiang%Peng%NULL%0,                          Li%Wei%NULL%0,                          Yong%Liu%NULL%0,                          Ya-hua%Hu%NULL%0,                          Peng%Peng%NULL%0,                          Jian-ming%Wang%NULL%0,                          Ji-yang%Liu%NULL%0,                          Zhong%Chen%NULL%0,                          Gang%Li%NULL%0,                          Zhi-jian%Zheng%NULL%0,                          Shao-qin%Qiu%NULL%0,                          Jie%Luo%NULL%0,                          Chang-jiang%Ye%NULL%0,                          Shao-yong%Zhu%NULL%0,                          Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ping%Wu%NULL%1,                          Fang%Duan%NULL%1,                          Chunhua%Luo%NULL%1,                          Qiang%Liu%NULL%0,                          Xingguang%Qu%NULL%1,                          Liang%Liang%NULL%1,                          Kaili%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhang%NULL%1,                          Xuhui%Chen%NULL%3,                          Liwen%Chen%NULL%1,                          Chaohua%Deng%NULL%3,                          Xiaojing%Zou%NULL%0,                          Xiaojing%Zou%NULL%0,                          Weiyong%Liu%NULL%3,                          Weiyong%Liu%NULL%0,                          Huimin%Yu%NULL%3,                          Huimin%Yu%NULL%0,                          Bo%Chen%NULL%2,                          Xufang%Sun%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianhua%Xia%NULL%1,                          Jianping%Tong%NULL%1,                          Mengyun%Liu%NULL%1,                          Ye%Shen%idrshen@zju.edu.cn%1,                          Dongyu%Guo%guodongyu666@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Hua-Tao%Xie%NULL%1,                          Shi-Yun%Jiang%NULL%1,                          Kang-Kang%Xu%NULL%1,                          Xin%Liu%NULL%1,                          Bing%Xu%NULL%1,                          Lin%Wang%lin_wang@hust.edu.cn%0,                          Ming-Chang%Zhang%mingchangzhang@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Liwen%Chen%NULL%1,                          Chaohua%Deng%NULL%0,                          Chaohua%Deng%NULL%0,                          Xuhui%Chen%NULL%0,                          Xuhui%Chen%NULL%0,                          Xian%Zhang%NULL%1,                          Bo%Chen%NULL%0,                          Huimin%Yu%NULL%0,                          Yuanjun%Qin%NULL%1,                          Ke%Xiao%NULL%1,                          Hong%Zhang%tjyksys@163.com%1,                          Xufang%Sun%sunxufang2016@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kiran%Kumar%NULL%1,                          Akshata A%Prakash%NULL%1,                          Suresh Babu%Gangasagara%NULL%1,                          Sujatha BL%Rathod%NULL%1,                          K%Ravi%NULL%1,                          Ambica%Rangaiah%NULL%1,                          Sathyanarayan Muthur%Shankar%NULL%1,                          Shantala Gowdara%Basawarajappa%NULL%1,                          Shashi%Bhushan%NULL%1,                          T G%Neeraja%NULL%1,                          Srinivas%Khandenahalli%NULL%1,                          M%Swetha%NULL%1,                          Priyam%Gupta%NULL%1,                          U C%Sampritha%NULL%1,                          Guru N S%Prasad%NULL%1,                          Chakravarthy Raghunathan%Jayanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yunyun%Zhou%NULL%1,                          Chaoye%Duan%NULL%1,                          Yuyang%Zeng%NULL%1,                          Yongqing%Tong%NULL%1,                          Yuhong%Nie%NULL%1,                          Yang%Yang%NULL%0,                          Zhen%Chen%NULL%1,                          Changzheng%Chen%chenchangzheng@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Saeed%Karimi%NULL%1,                          Amir%Arabi%amir_arab_91@yahoo.com%1,                          Toktam%Shahraki%NULL%2,                          Toktam%Shahraki%NULL%0,                          Sare%Safi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%2,                          Julie%Starck%NULL%1,                          Michael%Levy%NULL%1,                          Clémence%Marais%NULL%1,                          Judith%Chareyre%NULL%1,                          Diala%Khraiche%NULL%1,                          Marianne%Leruez-Ville%NULL%1,                          Pierre%Quartier%NULL%1,                          Pierre Louis%Léger%NULL%1,                          Guillaume%Geslain%NULL%1,                          Nada%Semaan%NULL%1,                          Florence%Moulin%NULL%1,                          Matthieu%Bendavid%NULL%1,                          Sandrine%Jean%NULL%1,                          Géraldine%Poncelet%NULL%1,                          Sylvain%Renolleau%NULL%1,                          Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
+  </si>
+  <si>
+    <t>[Zhixiong%Fang%NULL%1,                          Yi%Zhang%NULL%0,                          Changfa%Hang%NULL%1,                          Jingwen%Ai%NULL%1,                          Shaojie%Li%NULL%1,                          Wenhong%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paola%Valente%NULL%1,                          Giancarlo%Iarossi%NULL%1,                          Matteo%Federici%NULL%1,                          Sergio%Petroni%NULL%1,                          Paolo%Palma%NULL%1,                          Nicola%Cotugno%NULL%1,                          Maria A.%De Ioris%NULL%1,                          Andrea%Campana%NULL%1,                          Luca%Buzzonetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan Yu Jun%Seah%NULL%1,                          Danielle E.%Anderson%NULL%1,                          Adrian Eng Zheng%Kang%NULL%1,                          Linfa%Wang%NULL%1,                          Pooja%Rao%NULL%1,                          Barnaby Edward%Young%NULL%0,                          David Chien%Lye%NULL%1,                          Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                           Zheng-yi%Ni%NULL%0,                           Zheng-yi%Ni%NULL%0,                           Yu%Hu%NULL%0,                           Wen-hua%Liang%NULL%0,                           Chun-quan%Ou%NULL%0,                           Jian-xing%He%NULL%0,                           Lei%Liu%NULL%0,                           Hong%Shan%NULL%0,                           Chun-liang%Lei%NULL%0,                           David S.C.%Hui%NULL%0,                           Bin%Du%NULL%0,                           Lan-juan%Li%NULL%0,                           Guang%Zeng%NULL%0,                           Kwok-Yung%Yuen%NULL%0,                           Ru-chong%Chen%NULL%0,                           Chun-li%Tang%NULL%0,                           Tao%Wang%NULL%0,                           Ping-yan%Chen%NULL%0,                           Jie%Xiang%NULL%0,                           Shi-yue%Li%NULL%0,                           Jin-lin%Wang%NULL%0,                           Zi-jing%Liang%NULL%0,                           Yi-xiang%Peng%NULL%0,                           Li%Wei%NULL%0,                           Yong%Liu%NULL%0,                           Ya-hua%Hu%NULL%0,                           Peng%Peng%NULL%0,                           Jian-ming%Wang%NULL%0,                           Ji-yang%Liu%NULL%0,                           Zhong%Chen%NULL%0,                           Gang%Li%NULL%0,                           Zhi-jian%Zheng%NULL%0,                           Shao-qin%Qiu%NULL%0,                           Jie%Luo%NULL%0,                           Chang-jiang%Ye%NULL%0,                           Shao-yong%Zhu%NULL%0,                           Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ping%Wu%NULL%1,                           Fang%Duan%NULL%1,                           Chunhua%Luo%NULL%1,                           Qiang%Liu%NULL%0,                           Xingguang%Qu%NULL%1,                           Liang%Liang%NULL%1,                           Kaili%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhang%NULL%1,                           Xuhui%Chen%NULL%3,                           Liwen%Chen%NULL%1,                           Chaohua%Deng%NULL%3,                           Xiaojing%Zou%NULL%0,                           Xiaojing%Zou%NULL%0,                           Weiyong%Liu%NULL%3,                           Weiyong%Liu%NULL%0,                           Huimin%Yu%NULL%3,                           Huimin%Yu%NULL%0,                           Bo%Chen%NULL%2,                           Xufang%Sun%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianhua%Xia%NULL%1,                           Jianping%Tong%NULL%1,                           Mengyun%Liu%NULL%1,                           Ye%Shen%idrshen@zju.edu.cn%1,                           Dongyu%Guo%guodongyu666@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Hua-Tao%Xie%NULL%1,                           Shi-Yun%Jiang%NULL%1,                           Kang-Kang%Xu%NULL%1,                           Xin%Liu%NULL%1,                           Bing%Xu%NULL%1,                           Lin%Wang%lin_wang@hust.edu.cn%0,                           Ming-Chang%Zhang%mingchangzhang@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Liwen%Chen%NULL%1,                           Chaohua%Deng%NULL%0,                           Chaohua%Deng%NULL%0,                           Xuhui%Chen%NULL%0,                           Xuhui%Chen%NULL%0,                           Xian%Zhang%NULL%1,                           Bo%Chen%NULL%0,                           Huimin%Yu%NULL%0,                           Yuanjun%Qin%NULL%1,                           Ke%Xiao%NULL%1,                           Hong%Zhang%tjyksys@163.com%1,                           Xufang%Sun%sunxufang2016@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kiran%Kumar%NULL%1,                           Akshata A%Prakash%NULL%1,                           Suresh Babu%Gangasagara%NULL%1,                           Sujatha BL%Rathod%NULL%1,                           K%Ravi%NULL%1,                           Ambica%Rangaiah%NULL%1,                           Sathyanarayan Muthur%Shankar%NULL%1,                           Shantala Gowdara%Basawarajappa%NULL%1,                           Shashi%Bhushan%NULL%1,                           T G%Neeraja%NULL%1,                           Srinivas%Khandenahalli%NULL%1,                           M%Swetha%NULL%1,                           Priyam%Gupta%NULL%1,                           U C%Sampritha%NULL%1,                           Guru N S%Prasad%NULL%1,                           Chakravarthy Raghunathan%Jayanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yunyun%Zhou%NULL%1,                           Chaoye%Duan%NULL%1,                           Yuyang%Zeng%NULL%1,                           Yongqing%Tong%NULL%1,                           Yuhong%Nie%NULL%1,                           Yang%Yang%NULL%0,                           Zhen%Chen%NULL%1,                           Changzheng%Chen%chenchangzheng@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Saeed%Karimi%NULL%1,                           Amir%Arabi%amir_arab_91@yahoo.com%1,                           Toktam%Shahraki%NULL%2,                           Toktam%Shahraki%NULL%0,                           Sare%Safi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%2,                           Julie%Starck%NULL%1,                           Michael%Levy%NULL%1,                           Clémence%Marais%NULL%1,                           Judith%Chareyre%NULL%1,                           Diala%Khraiche%NULL%1,                           Marianne%Leruez-Ville%NULL%1,                           Pierre%Quartier%NULL%1,                           Pierre Louis%Léger%NULL%1,                           Guillaume%Geslain%NULL%1,                           Nada%Semaan%NULL%1,                           Florence%Moulin%NULL%1,                           Matthieu%Bendavid%NULL%1,                           Sandrine%Jean%NULL%1,                           Géraldine%Poncelet%NULL%1,                           Sylvain%Renolleau%NULL%1,                           Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
+  </si>
+  <si>
+    <t>[Zhixiong%Fang%NULL%1,                           Yi%Zhang%NULL%0,                           Changfa%Hang%NULL%1,                           Jingwen%Ai%NULL%1,                           Shaojie%Li%NULL%1,                           Wenhong%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paola%Valente%NULL%1,                           Giancarlo%Iarossi%NULL%1,                           Matteo%Federici%NULL%1,                           Sergio%Petroni%NULL%1,                           Paolo%Palma%NULL%1,                           Nicola%Cotugno%NULL%1,                           Maria A.%De Ioris%NULL%1,                           Andrea%Campana%NULL%1,                           Luca%Buzzonetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan Yu Jun%Seah%NULL%1,                           Danielle E.%Anderson%NULL%1,                           Adrian Eng Zheng%Kang%NULL%1,                           Linfa%Wang%NULL%1,                           Pooja%Rao%NULL%1,                           Barnaby Edward%Young%NULL%0,                           David Chien%Lye%NULL%1,                           Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
   </si>
 </sst>
 </file>
@@ -1772,7 +1850,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1804,7 +1882,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1836,7 +1914,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1868,7 +1946,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1900,7 +1978,7 @@
         <v>228</v>
       </c>
       <c r="E6" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1932,7 +2010,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1964,7 +2042,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1996,7 +2074,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -2028,7 +2106,7 @@
         <v>233</v>
       </c>
       <c r="E10" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -2060,7 +2138,7 @@
         <v>235</v>
       </c>
       <c r="E11" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -2092,7 +2170,7 @@
         <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="F12" t="s">
         <v>79</v>
@@ -2124,7 +2202,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -2156,7 +2234,7 @@
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="F14" t="s">
         <v>88</v>
